--- a/end_of_day_reports_input.xlsx
+++ b/end_of_day_reports_input.xlsx
@@ -9,11 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11970"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11970" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="input" sheetId="1" r:id="rId1"/>
-    <sheet name="who_dummies" sheetId="2" r:id="rId2"/>
+    <sheet name="report_locations" sheetId="3" r:id="rId2"/>
+    <sheet name="who_dummies" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="826" uniqueCount="356">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="880" uniqueCount="370">
   <si>
     <t>report</t>
   </si>
@@ -1093,6 +1094,48 @@
   </si>
   <si>
     <t>Canada</t>
+  </si>
+  <si>
+    <t>dir</t>
+  </si>
+  <si>
+    <t>C:/Users/hswerdfe/Documents/reports/qry</t>
+  </si>
+  <si>
+    <t>C:/Users/hswerdfe/Documents/reports/DS</t>
+  </si>
+  <si>
+    <t>C:/Users/hswerdfe/Documents/reports/HC</t>
+  </si>
+  <si>
+    <t>C:/Users/hswerdfe/Documents/reports/STAT</t>
+  </si>
+  <si>
+    <t>C:/Users/hswerdfe/Documents/reports/WHO</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>Sun</t>
+  </si>
+  <si>
+    <t>Mon</t>
+  </si>
+  <si>
+    <t>Tue</t>
+  </si>
+  <si>
+    <t>Wed</t>
+  </si>
+  <si>
+    <t>Thu</t>
+  </si>
+  <si>
+    <t>Fri</t>
+  </si>
+  <si>
+    <t>Sat</t>
   </si>
 </sst>
 </file>
@@ -1412,8 +1455,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B408"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView topLeftCell="A280" workbookViewId="0">
+      <selection activeCell="B284" sqref="B284:B291"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4693,6 +4736,199 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="67.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>356</v>
+      </c>
+      <c r="C1" t="s">
+        <v>363</v>
+      </c>
+      <c r="D1" t="s">
+        <v>364</v>
+      </c>
+      <c r="E1" t="s">
+        <v>365</v>
+      </c>
+      <c r="F1" t="s">
+        <v>366</v>
+      </c>
+      <c r="G1" t="s">
+        <v>367</v>
+      </c>
+      <c r="H1" t="s">
+        <v>368</v>
+      </c>
+      <c r="I1" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>357</v>
+      </c>
+      <c r="C2" t="s">
+        <v>362</v>
+      </c>
+      <c r="D2" t="s">
+        <v>362</v>
+      </c>
+      <c r="E2" t="s">
+        <v>362</v>
+      </c>
+      <c r="F2" t="s">
+        <v>362</v>
+      </c>
+      <c r="G2" t="s">
+        <v>362</v>
+      </c>
+      <c r="H2" t="s">
+        <v>362</v>
+      </c>
+      <c r="I2" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>211</v>
+      </c>
+      <c r="B3" t="s">
+        <v>358</v>
+      </c>
+      <c r="C3" t="s">
+        <v>362</v>
+      </c>
+      <c r="D3" t="s">
+        <v>362</v>
+      </c>
+      <c r="E3" t="s">
+        <v>362</v>
+      </c>
+      <c r="F3" t="s">
+        <v>362</v>
+      </c>
+      <c r="G3" t="s">
+        <v>362</v>
+      </c>
+      <c r="H3" t="s">
+        <v>362</v>
+      </c>
+      <c r="I3" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>223</v>
+      </c>
+      <c r="B4" t="s">
+        <v>359</v>
+      </c>
+      <c r="C4" t="s">
+        <v>362</v>
+      </c>
+      <c r="D4" t="s">
+        <v>362</v>
+      </c>
+      <c r="E4" t="s">
+        <v>362</v>
+      </c>
+      <c r="F4" t="s">
+        <v>362</v>
+      </c>
+      <c r="G4" t="s">
+        <v>362</v>
+      </c>
+      <c r="H4" t="s">
+        <v>362</v>
+      </c>
+      <c r="I4" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>225</v>
+      </c>
+      <c r="B5" t="s">
+        <v>360</v>
+      </c>
+      <c r="C5" t="s">
+        <v>362</v>
+      </c>
+      <c r="D5" t="s">
+        <v>362</v>
+      </c>
+      <c r="E5" t="s">
+        <v>362</v>
+      </c>
+      <c r="F5" t="s">
+        <v>362</v>
+      </c>
+      <c r="G5" t="s">
+        <v>362</v>
+      </c>
+      <c r="H5" t="s">
+        <v>362</v>
+      </c>
+      <c r="I5" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>351</v>
+      </c>
+      <c r="B6" t="s">
+        <v>361</v>
+      </c>
+      <c r="C6" t="s">
+        <v>362</v>
+      </c>
+      <c r="D6" t="s">
+        <v>362</v>
+      </c>
+      <c r="E6" t="s">
+        <v>362</v>
+      </c>
+      <c r="F6" t="s">
+        <v>362</v>
+      </c>
+      <c r="G6" t="s">
+        <v>362</v>
+      </c>
+      <c r="H6" t="s">
+        <v>362</v>
+      </c>
+      <c r="I6" t="s">
+        <v>362</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C5"/>
   <sheetViews>

--- a/end_of_day_reports_input.xlsx
+++ b/end_of_day_reports_input.xlsx
@@ -1099,21 +1099,6 @@
     <t>dir</t>
   </si>
   <si>
-    <t>C:/Users/hswerdfe/Documents/reports/qry</t>
-  </si>
-  <si>
-    <t>C:/Users/hswerdfe/Documents/reports/DS</t>
-  </si>
-  <si>
-    <t>C:/Users/hswerdfe/Documents/reports/HC</t>
-  </si>
-  <si>
-    <t>C:/Users/hswerdfe/Documents/reports/STAT</t>
-  </si>
-  <si>
-    <t>C:/Users/hswerdfe/Documents/reports/WHO</t>
-  </si>
-  <si>
     <t>X</t>
   </si>
   <si>
@@ -1136,6 +1121,21 @@
   </si>
   <si>
     <t>Sat</t>
+  </si>
+  <si>
+    <t>~/covid_case_reports/HC</t>
+  </si>
+  <si>
+    <t>~/covid_case_reports/STAT</t>
+  </si>
+  <si>
+    <t>~/covid_case_reports/WHO</t>
+  </si>
+  <si>
+    <t>~/covid_case_reports/DS</t>
+  </si>
+  <si>
+    <t>~/covid_case_reports/qry</t>
   </si>
 </sst>
 </file>
@@ -4740,7 +4740,7 @@
   <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4757,25 +4757,25 @@
         <v>356</v>
       </c>
       <c r="C1" t="s">
+        <v>358</v>
+      </c>
+      <c r="D1" t="s">
+        <v>359</v>
+      </c>
+      <c r="E1" t="s">
+        <v>360</v>
+      </c>
+      <c r="F1" t="s">
+        <v>361</v>
+      </c>
+      <c r="G1" t="s">
+        <v>362</v>
+      </c>
+      <c r="H1" t="s">
         <v>363</v>
       </c>
-      <c r="D1" t="s">
+      <c r="I1" t="s">
         <v>364</v>
-      </c>
-      <c r="E1" t="s">
-        <v>365</v>
-      </c>
-      <c r="F1" t="s">
-        <v>366</v>
-      </c>
-      <c r="G1" t="s">
-        <v>367</v>
-      </c>
-      <c r="H1" t="s">
-        <v>368</v>
-      </c>
-      <c r="I1" t="s">
-        <v>369</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
@@ -4783,28 +4783,28 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
+        <v>369</v>
+      </c>
+      <c r="C2" t="s">
         <v>357</v>
       </c>
-      <c r="C2" t="s">
-        <v>362</v>
-      </c>
       <c r="D2" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="E2" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="F2" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="G2" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="H2" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="I2" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -4812,28 +4812,28 @@
         <v>211</v>
       </c>
       <c r="B3" t="s">
-        <v>358</v>
+        <v>368</v>
       </c>
       <c r="C3" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="D3" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="E3" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="F3" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="G3" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="H3" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="I3" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -4841,28 +4841,28 @@
         <v>223</v>
       </c>
       <c r="B4" t="s">
-        <v>359</v>
+        <v>365</v>
       </c>
       <c r="C4" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="D4" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="E4" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="F4" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="G4" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="H4" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="I4" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -4870,28 +4870,28 @@
         <v>225</v>
       </c>
       <c r="B5" t="s">
-        <v>360</v>
+        <v>366</v>
       </c>
       <c r="C5" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="D5" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="E5" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="F5" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="G5" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="H5" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="I5" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -4899,28 +4899,28 @@
         <v>351</v>
       </c>
       <c r="B6" t="s">
-        <v>361</v>
+        <v>367</v>
       </c>
       <c r="C6" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="D6" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="E6" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="F6" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="G6" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="H6" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="I6" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
     </row>
   </sheetData>

--- a/end_of_day_reports_input.xlsx
+++ b/end_of_day_reports_input.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="880" uniqueCount="370">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="889" uniqueCount="372">
   <si>
     <t>report</t>
   </si>
@@ -1136,6 +1136,12 @@
   </si>
   <si>
     <t>~/covid_case_reports/qry</t>
+  </si>
+  <si>
+    <t>~/covid_case_reports/db_errs</t>
+  </si>
+  <si>
+    <t>db_errs</t>
   </si>
 </sst>
 </file>
@@ -4737,10 +4743,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I6"/>
+  <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4920,6 +4926,35 @@
         <v>357</v>
       </c>
       <c r="I6" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>371</v>
+      </c>
+      <c r="B7" t="s">
+        <v>370</v>
+      </c>
+      <c r="C7" t="s">
+        <v>357</v>
+      </c>
+      <c r="D7" t="s">
+        <v>357</v>
+      </c>
+      <c r="E7" t="s">
+        <v>357</v>
+      </c>
+      <c r="F7" t="s">
+        <v>357</v>
+      </c>
+      <c r="G7" t="s">
+        <v>357</v>
+      </c>
+      <c r="H7" t="s">
+        <v>357</v>
+      </c>
+      <c r="I7" t="s">
         <v>357</v>
       </c>
     </row>

--- a/end_of_day_reports_input.xlsx
+++ b/end_of_day_reports_input.xlsx
@@ -9,13 +9,17 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11970" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11970"/>
   </bookViews>
   <sheets>
     <sheet name="input" sheetId="1" r:id="rId1"/>
     <sheet name="report_locations" sheetId="3" r:id="rId2"/>
-    <sheet name="who_dummies" sheetId="2" r:id="rId3"/>
+    <sheet name="lbls" sheetId="4" r:id="rId3"/>
+    <sheet name="who_dummies" sheetId="2" r:id="rId4"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">input!$A$1:$C$408</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -26,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="889" uniqueCount="372">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1327" uniqueCount="393">
   <si>
     <t>report</t>
   </si>
@@ -1142,6 +1146,69 @@
   </si>
   <si>
     <t>db_errs</t>
+  </si>
+  <si>
+    <t>epi_curves</t>
+  </si>
+  <si>
+    <t>~/covid_case_reports/epi_curves</t>
+  </si>
+  <si>
+    <t>token</t>
+  </si>
+  <si>
+    <t>en</t>
+  </si>
+  <si>
+    <t>Symptom Onset Date</t>
+  </si>
+  <si>
+    <t>Reported Date</t>
+  </si>
+  <si>
+    <t>Exposure type</t>
+  </si>
+  <si>
+    <t>hospitalizations</t>
+  </si>
+  <si>
+    <t>Indigenous Status</t>
+  </si>
+  <si>
+    <t>Intensive Care Unit</t>
+  </si>
+  <si>
+    <t>fr</t>
+  </si>
+  <si>
+    <t>Date d'apparition des symptômes</t>
+  </si>
+  <si>
+    <t>Date de déclaration</t>
+  </si>
+  <si>
+    <t>Type d'exposition</t>
+  </si>
+  <si>
+    <t>hospitalisations</t>
+  </si>
+  <si>
+    <t>Statut d'indigène</t>
+  </si>
+  <si>
+    <t>Unité de soins intensifs</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>clean_str</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>no</t>
   </si>
 </sst>
 </file>
@@ -1459,3283 +1526,4509 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B408"/>
+  <dimension ref="A1:C408"/>
   <sheetViews>
-    <sheetView topLeftCell="A280" workbookViewId="0">
-      <selection activeCell="B284" sqref="B284:B291"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="21.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="28.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C1" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C2" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
       <c r="B3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C3" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
       <c r="B4" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C4" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>2</v>
       </c>
       <c r="B5" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C5" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>2</v>
       </c>
       <c r="B6" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C6" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>2</v>
       </c>
       <c r="B7" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C7" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>2</v>
       </c>
       <c r="B8" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C8" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>2</v>
       </c>
       <c r="B9" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C9" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>2</v>
       </c>
       <c r="B10" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C10" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>2</v>
       </c>
       <c r="B11" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C11" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>2</v>
       </c>
       <c r="B12" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C12" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>2</v>
       </c>
       <c r="B13" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C13" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>2</v>
       </c>
       <c r="B14" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C14" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>2</v>
       </c>
       <c r="B15" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C15" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>2</v>
       </c>
       <c r="B16" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C16" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>2</v>
       </c>
       <c r="B17" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C17" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>2</v>
       </c>
       <c r="B18" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C18" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>2</v>
       </c>
       <c r="B19" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C19" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>2</v>
       </c>
       <c r="B20" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C20" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>2</v>
       </c>
       <c r="B21" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C21" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>2</v>
       </c>
       <c r="B22" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C22" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>2</v>
       </c>
       <c r="B23" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C23" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>2</v>
       </c>
       <c r="B24" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C24" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>2</v>
       </c>
       <c r="B25" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C25" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>2</v>
       </c>
       <c r="B26" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C26" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>2</v>
       </c>
       <c r="B27" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C27" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>2</v>
       </c>
       <c r="B28" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C28" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>2</v>
       </c>
       <c r="B29" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C29" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>2</v>
       </c>
       <c r="B30" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C30" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>2</v>
       </c>
       <c r="B31" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C31" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>2</v>
       </c>
       <c r="B32" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C32" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>2</v>
       </c>
       <c r="B33" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C33" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>2</v>
       </c>
       <c r="B34" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C34" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>2</v>
       </c>
       <c r="B35" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C35" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>2</v>
       </c>
       <c r="B36" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C36" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>2</v>
       </c>
       <c r="B37" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C37" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>2</v>
       </c>
       <c r="B38" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C38" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>2</v>
       </c>
       <c r="B39" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C39" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>2</v>
       </c>
       <c r="B40" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C40" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>2</v>
       </c>
       <c r="B41" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C41" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>2</v>
       </c>
       <c r="B42" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C42" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>2</v>
       </c>
       <c r="B43" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C43" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>2</v>
       </c>
       <c r="B44" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C44" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>2</v>
       </c>
       <c r="B45" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C45" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>2</v>
       </c>
       <c r="B46" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C46" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>2</v>
       </c>
       <c r="B47" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C47" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>2</v>
       </c>
       <c r="B48" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C48" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>2</v>
       </c>
       <c r="B49" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C49" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>2</v>
       </c>
       <c r="B50" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C50" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>2</v>
       </c>
       <c r="B51" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C51" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>2</v>
       </c>
       <c r="B52" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C52" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>2</v>
       </c>
       <c r="B53" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C53" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>2</v>
       </c>
       <c r="B54" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C54" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>2</v>
       </c>
       <c r="B55" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C55" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>2</v>
       </c>
       <c r="B56" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C56" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>2</v>
       </c>
       <c r="B57" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C57" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>2</v>
       </c>
       <c r="B58" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C58" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>2</v>
       </c>
       <c r="B59" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C59" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>2</v>
       </c>
       <c r="B60" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C60" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>2</v>
       </c>
       <c r="B61" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C61" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>2</v>
       </c>
       <c r="B62" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C62" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>2</v>
       </c>
       <c r="B63" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C63" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>2</v>
       </c>
       <c r="B64" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C64" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>2</v>
       </c>
       <c r="B65" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C65" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>2</v>
       </c>
       <c r="B66" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C66" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>2</v>
       </c>
       <c r="B67" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C67" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>2</v>
       </c>
       <c r="B68" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C68" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>2</v>
       </c>
       <c r="B69" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C69" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>2</v>
       </c>
       <c r="B70" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C70" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>2</v>
       </c>
       <c r="B71" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C71" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>2</v>
       </c>
       <c r="B72" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C72" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>2</v>
       </c>
       <c r="B73" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C73" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>2</v>
       </c>
       <c r="B74" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C74" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>2</v>
       </c>
       <c r="B75" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C75" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>2</v>
       </c>
       <c r="B76" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C76" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>2</v>
       </c>
       <c r="B77" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C77" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>2</v>
       </c>
       <c r="B78" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C78" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>2</v>
       </c>
       <c r="B79" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C79" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>2</v>
       </c>
       <c r="B80" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C80" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>2</v>
       </c>
       <c r="B81" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C81" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>2</v>
       </c>
       <c r="B82" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C82" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>2</v>
       </c>
       <c r="B83" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C83" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>2</v>
       </c>
       <c r="B84" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C84" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>2</v>
       </c>
       <c r="B85" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C85" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>2</v>
       </c>
       <c r="B86" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C86" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>2</v>
       </c>
       <c r="B87" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C87" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>2</v>
       </c>
       <c r="B88" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C88" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>2</v>
       </c>
       <c r="B89" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C89" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>2</v>
       </c>
       <c r="B90" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C90" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>2</v>
       </c>
       <c r="B91" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C91" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>2</v>
       </c>
       <c r="B92" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C92" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>2</v>
       </c>
       <c r="B93" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C93" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>2</v>
       </c>
       <c r="B94" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C94" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>2</v>
       </c>
       <c r="B95" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C95" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>2</v>
       </c>
       <c r="B96" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C96" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>2</v>
       </c>
       <c r="B97" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C97" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>2</v>
       </c>
       <c r="B98" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C98" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>2</v>
       </c>
       <c r="B99" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C99" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>2</v>
       </c>
       <c r="B100" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C100" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>2</v>
       </c>
       <c r="B101" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C101" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>2</v>
       </c>
       <c r="B102" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C102" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>2</v>
       </c>
       <c r="B103" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C103" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>2</v>
       </c>
       <c r="B104" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C104" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>2</v>
       </c>
       <c r="B105" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C105" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>2</v>
       </c>
       <c r="B106" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C106" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>2</v>
       </c>
       <c r="B107" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C107" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>2</v>
       </c>
       <c r="B108" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C108" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>2</v>
       </c>
       <c r="B109" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C109" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>2</v>
       </c>
       <c r="B110" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C110" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>2</v>
       </c>
       <c r="B111" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C111" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>2</v>
       </c>
       <c r="B112" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C112" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>2</v>
       </c>
       <c r="B113" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C113" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>2</v>
       </c>
       <c r="B114" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C114" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>2</v>
       </c>
       <c r="B115" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C115" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>2</v>
       </c>
       <c r="B116" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C116" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>2</v>
       </c>
       <c r="B117" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C117" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>2</v>
       </c>
       <c r="B118" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C118" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>2</v>
       </c>
       <c r="B119" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C119" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>2</v>
       </c>
       <c r="B120" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C120" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>2</v>
       </c>
       <c r="B121" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C121" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>2</v>
       </c>
       <c r="B122" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C122" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>2</v>
       </c>
       <c r="B123" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C123" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>2</v>
       </c>
       <c r="B124" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C124" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>2</v>
       </c>
       <c r="B125" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C125" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>2</v>
       </c>
       <c r="B126" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C126" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>2</v>
       </c>
       <c r="B127" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C127" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>2</v>
       </c>
       <c r="B128" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C128" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>2</v>
       </c>
       <c r="B129" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C129" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>2</v>
       </c>
       <c r="B130" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C130" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>2</v>
       </c>
       <c r="B131" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C131" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>2</v>
       </c>
       <c r="B132" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C132" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>2</v>
       </c>
       <c r="B133" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C133" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>2</v>
       </c>
       <c r="B134" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C134" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>2</v>
       </c>
       <c r="B135" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C135" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>2</v>
       </c>
       <c r="B136" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C136" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>2</v>
       </c>
       <c r="B137" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C137" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>2</v>
       </c>
       <c r="B138" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C138" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>2</v>
       </c>
       <c r="B139" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C139" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>2</v>
       </c>
       <c r="B140" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C140" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>2</v>
       </c>
       <c r="B141" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C141" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>2</v>
       </c>
       <c r="B142" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C142" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>2</v>
       </c>
       <c r="B143" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C143" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>2</v>
       </c>
       <c r="B144" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C144" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>2</v>
       </c>
       <c r="B145" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C145" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>2</v>
       </c>
       <c r="B146" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C146" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>2</v>
       </c>
       <c r="B147" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C147" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>2</v>
       </c>
       <c r="B148" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C148" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>2</v>
       </c>
       <c r="B149" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C149" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>2</v>
       </c>
       <c r="B150" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C150" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>2</v>
       </c>
       <c r="B151" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C151" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>2</v>
       </c>
       <c r="B152" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C152" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>2</v>
       </c>
       <c r="B153" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C153" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>2</v>
       </c>
       <c r="B154" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C154" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>2</v>
       </c>
       <c r="B155" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C155" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>2</v>
       </c>
       <c r="B156" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C156" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>2</v>
       </c>
       <c r="B157" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C157" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>2</v>
       </c>
       <c r="B158" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C158" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>2</v>
       </c>
       <c r="B159" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C159" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>2</v>
       </c>
       <c r="B160" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C160" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>2</v>
       </c>
       <c r="B161" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C161" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>2</v>
       </c>
       <c r="B162" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C162" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>2</v>
       </c>
       <c r="B163" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C163" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>2</v>
       </c>
       <c r="B164" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C164" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>2</v>
       </c>
       <c r="B165" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C165" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>2</v>
       </c>
       <c r="B166" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C166" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>2</v>
       </c>
       <c r="B167" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C167" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>2</v>
       </c>
       <c r="B168" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C168" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>2</v>
       </c>
       <c r="B169" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C169" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>2</v>
       </c>
       <c r="B170" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C170" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>2</v>
       </c>
       <c r="B171" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C171" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>2</v>
       </c>
       <c r="B172" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C172" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>2</v>
       </c>
       <c r="B173" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C173" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>2</v>
       </c>
       <c r="B174" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C174" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>2</v>
       </c>
       <c r="B175" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C175" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>2</v>
       </c>
       <c r="B176" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C176" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>2</v>
       </c>
       <c r="B177" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C177" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>2</v>
       </c>
       <c r="B178" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C178" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>2</v>
       </c>
       <c r="B179" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C179" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>2</v>
       </c>
       <c r="B180" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C180" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>2</v>
       </c>
       <c r="B181" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C181" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>2</v>
       </c>
       <c r="B182" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C182" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>2</v>
       </c>
       <c r="B183" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C183" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>2</v>
       </c>
       <c r="B184" t="s">
         <v>185</v>
       </c>
-    </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C184" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>2</v>
       </c>
       <c r="B185" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C185" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>2</v>
       </c>
       <c r="B186" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C186" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>2</v>
       </c>
       <c r="B187" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C187" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>2</v>
       </c>
       <c r="B188" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C188" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>2</v>
       </c>
       <c r="B189" t="s">
         <v>190</v>
       </c>
-    </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C189" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>2</v>
       </c>
       <c r="B190" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C190" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>2</v>
       </c>
       <c r="B191" t="s">
         <v>192</v>
       </c>
-    </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C191" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>2</v>
       </c>
       <c r="B192" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C192" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>2</v>
       </c>
       <c r="B193" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C193" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>2</v>
       </c>
       <c r="B194" t="s">
         <v>195</v>
       </c>
-    </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C194" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>2</v>
       </c>
       <c r="B195" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C195" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>2</v>
       </c>
       <c r="B196" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C196" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>2</v>
       </c>
       <c r="B197" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C197" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>2</v>
       </c>
       <c r="B198" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C198" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>2</v>
       </c>
       <c r="B199" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C199" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>2</v>
       </c>
       <c r="B200" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C200" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>2</v>
       </c>
       <c r="B201" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C201" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>2</v>
       </c>
       <c r="B202" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C202" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>2</v>
       </c>
       <c r="B203" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C203" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>2</v>
       </c>
       <c r="B204" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C204" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>2</v>
       </c>
       <c r="B205" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C205" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>2</v>
       </c>
       <c r="B206" t="s">
         <v>207</v>
       </c>
-    </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C206" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>2</v>
       </c>
       <c r="B207" t="s">
         <v>208</v>
       </c>
-    </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C207" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>211</v>
       </c>
       <c r="B208" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="209" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C208" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>211</v>
       </c>
       <c r="B209" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="210" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C209" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>211</v>
       </c>
       <c r="B210" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="211" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C210" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>211</v>
       </c>
       <c r="B211" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="212" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C211" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>211</v>
       </c>
       <c r="B212" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="213" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C212" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>211</v>
       </c>
       <c r="B213" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="214" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C213" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>211</v>
       </c>
       <c r="B214" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="215" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C214" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>211</v>
       </c>
       <c r="B215" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="216" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C215" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>211</v>
       </c>
       <c r="B216" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="217" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C216" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>211</v>
       </c>
       <c r="B217" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="218" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C217" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>211</v>
       </c>
       <c r="B218" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="219" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C218" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>211</v>
       </c>
       <c r="B219" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="220" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C219" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>211</v>
       </c>
       <c r="B220" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="221" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C220" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>211</v>
       </c>
       <c r="B221" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="222" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C221" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>211</v>
       </c>
       <c r="B222" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="223" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C222" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>211</v>
       </c>
       <c r="B223" t="s">
         <v>192</v>
       </c>
-    </row>
-    <row r="224" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C223" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>211</v>
       </c>
       <c r="B224" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="225" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C224" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>211</v>
       </c>
       <c r="B225" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="226" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C225" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>223</v>
       </c>
       <c r="B226" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="227" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C226" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>223</v>
       </c>
       <c r="B227" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="228" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C227" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>223</v>
       </c>
       <c r="B228" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="229" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C228" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>223</v>
       </c>
       <c r="B229" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="230" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C229" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>223</v>
       </c>
       <c r="B230" t="s">
         <v>214</v>
       </c>
-    </row>
-    <row r="231" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C230" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>223</v>
       </c>
       <c r="B231" t="s">
         <v>215</v>
       </c>
-    </row>
-    <row r="232" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C231" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>223</v>
       </c>
       <c r="B232" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="233" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C232" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>223</v>
       </c>
       <c r="B233" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="234" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C233" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>223</v>
       </c>
       <c r="B234" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="235" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C234" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>223</v>
       </c>
       <c r="B235" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="236" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C235" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>223</v>
       </c>
       <c r="B236" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="237" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C236" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>223</v>
       </c>
       <c r="B237" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="238" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C237" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>223</v>
       </c>
       <c r="B238" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="239" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C238" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>223</v>
       </c>
       <c r="B239" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="240" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C239" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>223</v>
       </c>
       <c r="B240" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="241" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C240" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="241" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>223</v>
       </c>
       <c r="B241" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="242" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C241" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="242" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>223</v>
       </c>
       <c r="B242" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="243" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C242" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="243" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>223</v>
       </c>
       <c r="B243" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="244" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C243" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="244" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>223</v>
       </c>
       <c r="B244" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="245" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C244" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="245" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>223</v>
       </c>
       <c r="B245" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="246" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C245" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="246" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>223</v>
       </c>
       <c r="B246" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="247" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C246" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="247" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>223</v>
       </c>
       <c r="B247" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="248" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C247" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="248" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>223</v>
       </c>
       <c r="B248" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="249" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C248" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="249" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>223</v>
       </c>
       <c r="B249" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="250" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C249" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="250" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>223</v>
       </c>
       <c r="B250" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="251" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C250" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="251" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>223</v>
       </c>
       <c r="B251" t="s">
         <v>220</v>
       </c>
-    </row>
-    <row r="252" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C251" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="252" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>223</v>
       </c>
       <c r="B252" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="253" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C252" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="253" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>223</v>
       </c>
       <c r="B253" t="s">
         <v>222</v>
       </c>
-    </row>
-    <row r="254" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C253" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="254" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>225</v>
       </c>
       <c r="B254" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="255" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C254" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="255" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>225</v>
       </c>
       <c r="B255" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="256" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C255" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="256" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>225</v>
       </c>
       <c r="B256" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="257" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C256" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="257" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>225</v>
       </c>
       <c r="B257" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="258" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C257" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="258" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>225</v>
       </c>
       <c r="B258" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="259" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C258" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="259" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>225</v>
       </c>
       <c r="B259" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="260" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C259" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="260" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>225</v>
       </c>
       <c r="B260" t="s">
         <v>214</v>
       </c>
-    </row>
-    <row r="261" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C260" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="261" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>225</v>
       </c>
       <c r="B261" t="s">
         <v>224</v>
       </c>
-    </row>
-    <row r="262" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C261" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="262" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
         <v>225</v>
       </c>
       <c r="B262" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="263" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C262" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="263" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
         <v>225</v>
       </c>
       <c r="B263" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="264" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C263" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="264" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
         <v>225</v>
       </c>
       <c r="B264" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="265" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C264" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="265" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
         <v>225</v>
       </c>
       <c r="B265" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="266" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C265" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="266" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
         <v>225</v>
       </c>
       <c r="B266" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="267" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C266" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="267" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
         <v>225</v>
       </c>
       <c r="B267" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="268" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C267" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="268" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
         <v>225</v>
       </c>
       <c r="B268" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="269" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C268" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="269" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
         <v>225</v>
       </c>
       <c r="B269" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="270" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C269" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="270" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
         <v>225</v>
       </c>
       <c r="B270" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="271" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C270" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="271" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
         <v>225</v>
       </c>
       <c r="B271" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="272" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C271" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="272" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
         <v>225</v>
       </c>
       <c r="B272" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="273" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C272" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="273" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
         <v>225</v>
       </c>
       <c r="B273" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="274" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C273" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="274" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
         <v>225</v>
       </c>
       <c r="B274" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="275" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C274" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="275" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
         <v>225</v>
       </c>
       <c r="B275" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="276" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C275" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="276" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
         <v>225</v>
       </c>
       <c r="B276" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="277" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C276" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="277" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
         <v>225</v>
       </c>
       <c r="B277" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="278" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C277" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="278" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
         <v>225</v>
       </c>
       <c r="B278" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="279" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C278" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="279" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
         <v>225</v>
       </c>
       <c r="B279" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="280" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C279" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="280" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
         <v>225</v>
       </c>
       <c r="B280" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="281" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C280" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="281" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
         <v>225</v>
       </c>
       <c r="B281" t="s">
         <v>220</v>
       </c>
-    </row>
-    <row r="282" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C281" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="282" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
         <v>225</v>
       </c>
       <c r="B282" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="283" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C282" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="283" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
         <v>225</v>
       </c>
       <c r="B283" t="s">
         <v>222</v>
       </c>
-    </row>
-    <row r="284" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C283" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="284" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
         <v>351</v>
       </c>
       <c r="B284" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="285" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C284" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="285" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
         <v>351</v>
       </c>
       <c r="B285" t="s">
         <v>227</v>
       </c>
-    </row>
-    <row r="286" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C285" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="286" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
         <v>351</v>
       </c>
       <c r="B286" t="s">
         <v>228</v>
       </c>
-    </row>
-    <row r="287" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C286" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="287" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
         <v>351</v>
       </c>
       <c r="B287" t="s">
         <v>229</v>
       </c>
-    </row>
-    <row r="288" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C287" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="288" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
         <v>351</v>
       </c>
       <c r="B288" t="s">
         <v>230</v>
       </c>
-    </row>
-    <row r="289" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C288" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="289" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
         <v>351</v>
       </c>
       <c r="B289" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="290" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C289" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="290" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
         <v>351</v>
       </c>
       <c r="B290" t="s">
         <v>232</v>
       </c>
-    </row>
-    <row r="291" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C290" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="291" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
         <v>351</v>
       </c>
       <c r="B291" t="s">
         <v>233</v>
       </c>
-    </row>
-    <row r="292" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C291" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="292" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
         <v>351</v>
       </c>
       <c r="B292" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="293" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C292" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="293" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
         <v>351</v>
       </c>
       <c r="B293" t="s">
         <v>235</v>
       </c>
-    </row>
-    <row r="294" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C293" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="294" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
         <v>351</v>
       </c>
       <c r="B294" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="295" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C294" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="295" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
         <v>351</v>
       </c>
       <c r="B295" t="s">
         <v>237</v>
       </c>
-    </row>
-    <row r="296" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C295" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="296" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
         <v>351</v>
       </c>
       <c r="B296" t="s">
         <v>238</v>
       </c>
-    </row>
-    <row r="297" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C296" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="297" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
         <v>351</v>
       </c>
       <c r="B297" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="298" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C297" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="298" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
         <v>351</v>
       </c>
       <c r="B298" t="s">
         <v>240</v>
       </c>
-    </row>
-    <row r="299" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C298" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="299" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
         <v>351</v>
       </c>
       <c r="B299" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="300" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C299" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="300" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
         <v>351</v>
       </c>
       <c r="B300" t="s">
         <v>242</v>
       </c>
-    </row>
-    <row r="301" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C300" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="301" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
         <v>351</v>
       </c>
       <c r="B301" t="s">
         <v>243</v>
       </c>
-    </row>
-    <row r="302" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C301" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="302" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
         <v>351</v>
       </c>
       <c r="B302" t="s">
         <v>244</v>
       </c>
-    </row>
-    <row r="303" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C302" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="303" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
         <v>351</v>
       </c>
       <c r="B303" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="304" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C303" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="304" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
         <v>351</v>
       </c>
       <c r="B304" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="305" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C304" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="305" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
         <v>351</v>
       </c>
       <c r="B305" t="s">
         <v>247</v>
       </c>
-    </row>
-    <row r="306" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C305" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="306" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
         <v>351</v>
       </c>
       <c r="B306" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="307" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C306" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="307" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
         <v>351</v>
       </c>
       <c r="B307" t="s">
         <v>249</v>
       </c>
-    </row>
-    <row r="308" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C307" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="308" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
         <v>351</v>
       </c>
       <c r="B308" t="s">
         <v>250</v>
       </c>
-    </row>
-    <row r="309" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C308" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="309" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
         <v>351</v>
       </c>
       <c r="B309" t="s">
         <v>251</v>
       </c>
-    </row>
-    <row r="310" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C309" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="310" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
         <v>351</v>
       </c>
       <c r="B310" t="s">
         <v>252</v>
       </c>
-    </row>
-    <row r="311" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C310" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="311" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
         <v>351</v>
       </c>
       <c r="B311" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="312" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C311" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="312" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
         <v>351</v>
       </c>
       <c r="B312" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="313" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C312" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="313" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
         <v>351</v>
       </c>
       <c r="B313" t="s">
         <v>255</v>
       </c>
-    </row>
-    <row r="314" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C313" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="314" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
         <v>351</v>
       </c>
       <c r="B314" t="s">
         <v>256</v>
       </c>
-    </row>
-    <row r="315" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C314" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="315" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
         <v>351</v>
       </c>
       <c r="B315" t="s">
         <v>257</v>
       </c>
-    </row>
-    <row r="316" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C315" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="316" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
         <v>351</v>
       </c>
       <c r="B316" t="s">
         <v>258</v>
       </c>
-    </row>
-    <row r="317" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C316" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="317" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
         <v>351</v>
       </c>
       <c r="B317" t="s">
         <v>259</v>
       </c>
-    </row>
-    <row r="318" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C317" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="318" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
         <v>351</v>
       </c>
       <c r="B318" t="s">
         <v>260</v>
       </c>
-    </row>
-    <row r="319" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C318" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="319" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
         <v>351</v>
       </c>
       <c r="B319" t="s">
         <v>261</v>
       </c>
-    </row>
-    <row r="320" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C319" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="320" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
         <v>351</v>
       </c>
       <c r="B320" t="s">
         <v>262</v>
       </c>
-    </row>
-    <row r="321" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C320" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="321" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
         <v>351</v>
       </c>
       <c r="B321" t="s">
         <v>263</v>
       </c>
-    </row>
-    <row r="322" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C321" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="322" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
         <v>351</v>
       </c>
       <c r="B322" t="s">
         <v>264</v>
       </c>
-    </row>
-    <row r="323" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C322" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="323" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
         <v>351</v>
       </c>
       <c r="B323" t="s">
         <v>265</v>
       </c>
-    </row>
-    <row r="324" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C323" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="324" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
         <v>351</v>
       </c>
       <c r="B324" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="325" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C324" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="325" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
         <v>351</v>
       </c>
       <c r="B325" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="326" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C325" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="326" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
         <v>351</v>
       </c>
       <c r="B326" t="s">
         <v>268</v>
       </c>
-    </row>
-    <row r="327" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C326" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="327" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
         <v>351</v>
       </c>
       <c r="B327" t="s">
         <v>269</v>
       </c>
-    </row>
-    <row r="328" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C327" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="328" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
         <v>351</v>
       </c>
       <c r="B328" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="329" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C328" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="329" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
         <v>351</v>
       </c>
       <c r="B329" t="s">
         <v>271</v>
       </c>
-    </row>
-    <row r="330" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C329" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="330" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
         <v>351</v>
       </c>
       <c r="B330" t="s">
         <v>272</v>
       </c>
-    </row>
-    <row r="331" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C330" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="331" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
         <v>351</v>
       </c>
       <c r="B331" t="s">
         <v>273</v>
       </c>
-    </row>
-    <row r="332" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C331" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="332" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
         <v>351</v>
       </c>
       <c r="B332" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="333" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C332" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="333" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
         <v>351</v>
       </c>
       <c r="B333" t="s">
         <v>275</v>
       </c>
-    </row>
-    <row r="334" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C333" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="334" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
         <v>351</v>
       </c>
       <c r="B334" t="s">
         <v>276</v>
       </c>
-    </row>
-    <row r="335" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C334" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="335" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
         <v>351</v>
       </c>
       <c r="B335" t="s">
         <v>277</v>
       </c>
-    </row>
-    <row r="336" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C335" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="336" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
         <v>351</v>
       </c>
       <c r="B336" t="s">
         <v>278</v>
       </c>
-    </row>
-    <row r="337" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C336" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="337" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
         <v>351</v>
       </c>
       <c r="B337" t="s">
         <v>279</v>
       </c>
-    </row>
-    <row r="338" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C337" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="338" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
         <v>351</v>
       </c>
       <c r="B338" t="s">
         <v>280</v>
       </c>
-    </row>
-    <row r="339" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C338" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="339" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
         <v>351</v>
       </c>
       <c r="B339" t="s">
         <v>281</v>
       </c>
-    </row>
-    <row r="340" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C339" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="340" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
         <v>351</v>
       </c>
       <c r="B340" t="s">
         <v>282</v>
       </c>
-    </row>
-    <row r="341" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C340" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="341" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
         <v>351</v>
       </c>
       <c r="B341" t="s">
         <v>283</v>
       </c>
-    </row>
-    <row r="342" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C341" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="342" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
         <v>351</v>
       </c>
       <c r="B342" t="s">
         <v>284</v>
       </c>
-    </row>
-    <row r="343" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C342" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="343" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
         <v>351</v>
       </c>
       <c r="B343" t="s">
         <v>285</v>
       </c>
-    </row>
-    <row r="344" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C343" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="344" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
         <v>351</v>
       </c>
       <c r="B344" t="s">
         <v>286</v>
       </c>
-    </row>
-    <row r="345" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C344" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="345" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
         <v>351</v>
       </c>
       <c r="B345" t="s">
         <v>287</v>
       </c>
-    </row>
-    <row r="346" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C345" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="346" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
         <v>351</v>
       </c>
       <c r="B346" t="s">
         <v>288</v>
       </c>
-    </row>
-    <row r="347" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C346" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="347" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
         <v>351</v>
       </c>
       <c r="B347" t="s">
         <v>289</v>
       </c>
-    </row>
-    <row r="348" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C347" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="348" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
         <v>351</v>
       </c>
       <c r="B348" t="s">
         <v>290</v>
       </c>
-    </row>
-    <row r="349" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C348" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="349" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
         <v>351</v>
       </c>
       <c r="B349" t="s">
         <v>291</v>
       </c>
-    </row>
-    <row r="350" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C349" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="350" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
         <v>351</v>
       </c>
       <c r="B350" t="s">
         <v>292</v>
       </c>
-    </row>
-    <row r="351" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C350" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="351" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
         <v>351</v>
       </c>
       <c r="B351" t="s">
         <v>293</v>
       </c>
-    </row>
-    <row r="352" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C351" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="352" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
         <v>351</v>
       </c>
       <c r="B352" t="s">
         <v>294</v>
       </c>
-    </row>
-    <row r="353" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C352" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="353" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
         <v>351</v>
       </c>
       <c r="B353" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="354" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C353" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="354" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
         <v>351</v>
       </c>
       <c r="B354" t="s">
         <v>296</v>
       </c>
-    </row>
-    <row r="355" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C354" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="355" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
         <v>351</v>
       </c>
       <c r="B355" t="s">
         <v>297</v>
       </c>
-    </row>
-    <row r="356" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C355" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="356" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
         <v>351</v>
       </c>
       <c r="B356" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="357" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C356" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="357" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
         <v>351</v>
       </c>
       <c r="B357" t="s">
         <v>299</v>
       </c>
-    </row>
-    <row r="358" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C357" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="358" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
         <v>351</v>
       </c>
       <c r="B358" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="359" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C358" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="359" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
         <v>351</v>
       </c>
       <c r="B359" t="s">
         <v>301</v>
       </c>
-    </row>
-    <row r="360" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C359" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="360" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
         <v>351</v>
       </c>
       <c r="B360" t="s">
         <v>302</v>
       </c>
-    </row>
-    <row r="361" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C360" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="361" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
         <v>351</v>
       </c>
       <c r="B361" t="s">
         <v>303</v>
       </c>
-    </row>
-    <row r="362" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C361" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="362" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
         <v>351</v>
       </c>
       <c r="B362" t="s">
         <v>304</v>
       </c>
-    </row>
-    <row r="363" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C362" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="363" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
         <v>351</v>
       </c>
       <c r="B363" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="364" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C363" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="364" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
         <v>351</v>
       </c>
       <c r="B364" t="s">
         <v>306</v>
       </c>
-    </row>
-    <row r="365" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C364" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="365" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
         <v>351</v>
       </c>
       <c r="B365" t="s">
         <v>307</v>
       </c>
-    </row>
-    <row r="366" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C365" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="366" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
         <v>351</v>
       </c>
       <c r="B366" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="367" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C366" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="367" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
         <v>351</v>
       </c>
       <c r="B367" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="368" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C367" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="368" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
         <v>351</v>
       </c>
       <c r="B368" t="s">
         <v>310</v>
       </c>
-    </row>
-    <row r="369" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C368" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="369" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
         <v>351</v>
       </c>
       <c r="B369" t="s">
         <v>311</v>
       </c>
-    </row>
-    <row r="370" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C369" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="370" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
         <v>351</v>
       </c>
       <c r="B370" t="s">
         <v>312</v>
       </c>
-    </row>
-    <row r="371" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C370" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="371" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
         <v>351</v>
       </c>
       <c r="B371" t="s">
         <v>313</v>
       </c>
-    </row>
-    <row r="372" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C371" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="372" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
         <v>351</v>
       </c>
       <c r="B372" t="s">
         <v>314</v>
       </c>
-    </row>
-    <row r="373" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C372" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="373" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
         <v>351</v>
       </c>
       <c r="B373" t="s">
         <v>315</v>
       </c>
-    </row>
-    <row r="374" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C373" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="374" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A374" t="s">
         <v>351</v>
       </c>
       <c r="B374" t="s">
         <v>316</v>
       </c>
-    </row>
-    <row r="375" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C374" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="375" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A375" t="s">
         <v>351</v>
       </c>
       <c r="B375" t="s">
         <v>317</v>
       </c>
-    </row>
-    <row r="376" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C375" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="376" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A376" t="s">
         <v>351</v>
       </c>
       <c r="B376" t="s">
         <v>318</v>
       </c>
-    </row>
-    <row r="377" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C376" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="377" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
         <v>351</v>
       </c>
       <c r="B377" t="s">
         <v>319</v>
       </c>
-    </row>
-    <row r="378" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C377" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="378" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A378" t="s">
         <v>351</v>
       </c>
       <c r="B378" t="s">
         <v>320</v>
       </c>
-    </row>
-    <row r="379" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C378" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="379" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A379" t="s">
         <v>351</v>
       </c>
       <c r="B379" t="s">
         <v>321</v>
       </c>
-    </row>
-    <row r="380" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C379" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="380" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A380" t="s">
         <v>351</v>
       </c>
       <c r="B380" t="s">
         <v>322</v>
       </c>
-    </row>
-    <row r="381" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C380" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="381" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A381" t="s">
         <v>351</v>
       </c>
       <c r="B381" t="s">
         <v>323</v>
       </c>
-    </row>
-    <row r="382" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C381" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="382" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A382" t="s">
         <v>351</v>
       </c>
       <c r="B382" t="s">
         <v>324</v>
       </c>
-    </row>
-    <row r="383" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C382" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="383" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A383" t="s">
         <v>351</v>
       </c>
       <c r="B383" t="s">
         <v>325</v>
       </c>
-    </row>
-    <row r="384" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C383" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="384" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
         <v>351</v>
       </c>
       <c r="B384" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="385" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C384" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="385" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A385" t="s">
         <v>351</v>
       </c>
       <c r="B385" t="s">
         <v>327</v>
       </c>
-    </row>
-    <row r="386" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C385" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="386" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A386" t="s">
         <v>351</v>
       </c>
       <c r="B386" t="s">
         <v>328</v>
       </c>
-    </row>
-    <row r="387" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C386" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="387" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A387" t="s">
         <v>351</v>
       </c>
       <c r="B387" t="s">
         <v>329</v>
       </c>
-    </row>
-    <row r="388" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C387" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="388" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A388" t="s">
         <v>351</v>
       </c>
       <c r="B388" t="s">
         <v>330</v>
       </c>
-    </row>
-    <row r="389" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C388" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="389" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A389" t="s">
         <v>351</v>
       </c>
       <c r="B389" t="s">
         <v>331</v>
       </c>
-    </row>
-    <row r="390" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C389" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="390" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A390" t="s">
         <v>351</v>
       </c>
       <c r="B390" t="s">
         <v>332</v>
       </c>
-    </row>
-    <row r="391" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C390" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="391" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A391" t="s">
         <v>351</v>
       </c>
       <c r="B391" t="s">
         <v>333</v>
       </c>
-    </row>
-    <row r="392" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C391" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="392" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A392" t="s">
         <v>351</v>
       </c>
       <c r="B392" t="s">
         <v>334</v>
       </c>
-    </row>
-    <row r="393" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C392" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="393" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A393" t="s">
         <v>351</v>
       </c>
       <c r="B393" t="s">
         <v>335</v>
       </c>
-    </row>
-    <row r="394" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C393" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="394" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A394" t="s">
         <v>351</v>
       </c>
       <c r="B394" t="s">
         <v>336</v>
       </c>
-    </row>
-    <row r="395" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C394" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="395" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A395" t="s">
         <v>351</v>
       </c>
       <c r="B395" t="s">
         <v>337</v>
       </c>
-    </row>
-    <row r="396" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C395" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="396" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A396" t="s">
         <v>351</v>
       </c>
       <c r="B396" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="397" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C396" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="397" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A397" t="s">
         <v>351</v>
       </c>
       <c r="B397" t="s">
         <v>339</v>
       </c>
-    </row>
-    <row r="398" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C397" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="398" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A398" t="s">
         <v>351</v>
       </c>
       <c r="B398" t="s">
         <v>340</v>
       </c>
-    </row>
-    <row r="399" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C398" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="399" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A399" t="s">
         <v>351</v>
       </c>
       <c r="B399" t="s">
         <v>341</v>
       </c>
-    </row>
-    <row r="400" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C399" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="400" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A400" t="s">
         <v>351</v>
       </c>
       <c r="B400" t="s">
         <v>342</v>
       </c>
-    </row>
-    <row r="401" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C400" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="401" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A401" t="s">
         <v>351</v>
       </c>
       <c r="B401" t="s">
         <v>343</v>
       </c>
-    </row>
-    <row r="402" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C401" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="402" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A402" t="s">
         <v>351</v>
       </c>
       <c r="B402" t="s">
         <v>344</v>
       </c>
-    </row>
-    <row r="403" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C402" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="403" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A403" t="s">
         <v>351</v>
       </c>
       <c r="B403" t="s">
         <v>345</v>
       </c>
-    </row>
-    <row r="404" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C403" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="404" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A404" t="s">
         <v>351</v>
       </c>
       <c r="B404" t="s">
         <v>346</v>
       </c>
-    </row>
-    <row r="405" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C404" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="405" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A405" t="s">
         <v>351</v>
       </c>
       <c r="B405" t="s">
         <v>347</v>
       </c>
-    </row>
-    <row r="406" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C405" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="406" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A406" t="s">
         <v>351</v>
       </c>
       <c r="B406" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="407" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C406" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="407" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A407" t="s">
         <v>351</v>
       </c>
       <c r="B407" t="s">
         <v>349</v>
       </c>
-    </row>
-    <row r="408" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C407" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="408" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A408" t="s">
         <v>351</v>
       </c>
       <c r="B408" t="s">
         <v>350</v>
       </c>
+      <c r="C408" t="s">
+        <v>392</v>
+      </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:C408"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -4743,11 +6036,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I7"/>
+  <dimension ref="A1:I8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -4958,12 +6249,137 @@
         <v>357</v>
       </c>
     </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>372</v>
+      </c>
+      <c r="B8" t="s">
+        <v>373</v>
+      </c>
+      <c r="C8" t="s">
+        <v>357</v>
+      </c>
+      <c r="D8" t="s">
+        <v>357</v>
+      </c>
+      <c r="E8" t="s">
+        <v>357</v>
+      </c>
+      <c r="F8" t="s">
+        <v>357</v>
+      </c>
+      <c r="G8" t="s">
+        <v>357</v>
+      </c>
+      <c r="H8" t="s">
+        <v>357</v>
+      </c>
+      <c r="I8" t="s">
+        <v>357</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="20" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>374</v>
+      </c>
+      <c r="B1" t="s">
+        <v>375</v>
+      </c>
+      <c r="C1" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2" t="s">
+        <v>376</v>
+      </c>
+      <c r="C2" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" t="s">
+        <v>377</v>
+      </c>
+      <c r="C3" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>201</v>
+      </c>
+      <c r="B4" t="s">
+        <v>378</v>
+      </c>
+      <c r="C4" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>97</v>
+      </c>
+      <c r="B5" t="s">
+        <v>379</v>
+      </c>
+      <c r="C5" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" t="s">
+        <v>380</v>
+      </c>
+      <c r="C6" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>100</v>
+      </c>
+      <c r="B7" t="s">
+        <v>381</v>
+      </c>
+      <c r="C7" t="s">
+        <v>388</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C5"/>
   <sheetViews>

--- a/end_of_day_reports_input.xlsx
+++ b/end_of_day_reports_input.xlsx
@@ -1529,7 +1529,7 @@
   <dimension ref="A1:C408"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/end_of_day_reports_input.xlsx
+++ b/end_of_day_reports_input.xlsx
@@ -18,7 +18,7 @@
     <sheet name="who_dummies" sheetId="2" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">input!$A$1:$C$408</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">input!$A$1:$C$508</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1327" uniqueCount="393">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1653" uniqueCount="410">
   <si>
     <t>report</t>
   </si>
@@ -1127,33 +1127,12 @@
     <t>Sat</t>
   </si>
   <si>
-    <t>~/covid_case_reports/HC</t>
-  </si>
-  <si>
-    <t>~/covid_case_reports/STAT</t>
-  </si>
-  <si>
-    <t>~/covid_case_reports/WHO</t>
-  </si>
-  <si>
-    <t>~/covid_case_reports/DS</t>
-  </si>
-  <si>
-    <t>~/covid_case_reports/qry</t>
-  </si>
-  <si>
-    <t>~/covid_case_reports/db_errs</t>
-  </si>
-  <si>
     <t>db_errs</t>
   </si>
   <si>
     <t>epi_curves</t>
   </si>
   <si>
-    <t>~/covid_case_reports/epi_curves</t>
-  </si>
-  <si>
     <t>token</t>
   </si>
   <si>
@@ -1209,16 +1188,102 @@
   </si>
   <si>
     <t>no</t>
+  </si>
+  <si>
+    <t>AgeGroup20</t>
+  </si>
+  <si>
+    <t>AgeGroup10</t>
+  </si>
+  <si>
+    <t>20 Year Age Grouping</t>
+  </si>
+  <si>
+    <t>10 Year Age Grouping</t>
+  </si>
+  <si>
+    <t>by_age_prov</t>
+  </si>
+  <si>
+    <t>pt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Province or Territory </t>
+  </si>
+  <si>
+    <t>Shortness of Breath</t>
+  </si>
+  <si>
+    <t>//Ncr-a_irbv2s/irbv2/PHAC/IDPCB/CIRID/VIPS-SAR/EMERGENCY PREPAREDNESS AND RESPONSE HC4/EMERGENCY EVENT/WUHAN UNKNOWN PNEU - 2020/DATA AND ANALYSIS/DATABASE/MS ACCESS/OUTPUT/db_errs</t>
+  </si>
+  <si>
+    <t>//Ncr-a_irbv2s/irbv2/PHAC/IDPCB/CIRID/VIPS-SAR/EMERGENCY PREPAREDNESS AND RESPONSE HC4/EMERGENCY EVENT/WUHAN UNKNOWN PNEU - 2020/DATA AND ANALYSIS/DATABASE/MS ACCESS/OUTPUT/epi_curves</t>
+  </si>
+  <si>
+    <t>//Ncr-a_irbv2s/irbv2/PHAC/IDPCB/CIRID/VIPS-SAR/EMERGENCY PREPAREDNESS AND RESPONSE HC4/EMERGENCY EVENT/WUHAN UNKNOWN PNEU - 2020/DATA AND ANALYSIS/DATABASE/MS ACCESS/OUTPUT/by_age_prov</t>
+  </si>
+  <si>
+    <t>//Ncr-a_irbv2s/IRBV2/PHAC/IDPCB/CIRID/VIPS-SAR/EMERGENCY PREPAREDNESS AND RESPONSE HC4/EMERGENCY EVENT/WUHAN UNKNOWN PNEU - 2020/DATA AND ANALYSIS/SAS_Analysis/Domestic data</t>
+  </si>
+  <si>
+    <t>//Ncr-a_irbv2s/irbv2/PHAC/IDPCB/CIRID/VIPS-SAR/EMERGENCY PREPAREDNESS AND RESPONSE HC4/EMERGENCY EVENT/WUHAN UNKNOWN PNEU - 2020/DATA AND ANALYSIS/PHAC MODELLING/Domestic data</t>
+  </si>
+  <si>
+    <t>//Ncr-a_irbv2s/irbv2/PHAC/IDPCB/CIRID/VIPS-SAR/EMERGENCY PREPAREDNESS AND RESPONSE HC4/EMERGENCY EVENT/WUHAN UNKNOWN PNEU - 2020/DATA AND ANALYSIS/Data Requests/SituationalAwareness Dashboard Daily Extract</t>
+  </si>
+  <si>
+    <t>//Ncr-a_irbv2s/irbv2/PHAC/IDPCB/CIRID/VIPS-SAR/EMERGENCY PREPAREDNESS AND RESPONSE HC4/EMERGENCY EVENT/WUHAN UNKNOWN PNEU - 2020/DATA AND ANALYSIS/STATCAN</t>
+  </si>
+  <si>
+    <t>//Ncr-a_irbv2s/irbv2/PHAC/IDPCB/CIRID/VIPS-SAR/EMERGENCY PREPAREDNESS AND RESPONSE HC4/EMERGENCY EVENT/WUHAN UNKNOWN PNEU - 2020/DATA AND ANALYSIS/DATABASE/OUTPUTS/WHO</t>
+  </si>
+  <si>
+    <t>Completness</t>
+  </si>
+  <si>
+    <t>//Ncr-a_irbv2s/irbv2/PHAC/IDPCB/CIRID/VIPS-SAR/EMERGENCY PREPAREDNESS AND RESPONSE HC4/EMERGENCY EVENT/WUHAN UNKNOWN PNEU - 2020/DATA AND ANALYSIS/DATABASE/MS ACCESS/OUTPUT/completeness</t>
+  </si>
+  <si>
+    <t>LabSpecimenType1</t>
+  </si>
+  <si>
+    <t>LabTestMethod1</t>
+  </si>
+  <si>
+    <t>NMLConfirmation</t>
+  </si>
+  <si>
+    <t>IJNHotel</t>
+  </si>
+  <si>
+    <t>IJNFlight</t>
+  </si>
+  <si>
+    <t>Occupation_other</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1241,13 +1306,20 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1526,10 +1598,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C408"/>
+  <dimension ref="A1:C508"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="M27" sqref="M27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1547,7 +1619,7 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>390</v>
+        <v>383</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -1558,7 +1630,7 @@
         <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>389</v>
+        <v>382</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -1569,7 +1641,7 @@
         <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>389</v>
+        <v>382</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -1580,7 +1652,7 @@
         <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>389</v>
+        <v>382</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -1591,7 +1663,7 @@
         <v>6</v>
       </c>
       <c r="C5" t="s">
-        <v>392</v>
+        <v>385</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -1602,7 +1674,7 @@
         <v>7</v>
       </c>
       <c r="C6" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -1613,7 +1685,7 @@
         <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -1624,7 +1696,7 @@
         <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>392</v>
+        <v>385</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -1635,7 +1707,7 @@
         <v>10</v>
       </c>
       <c r="C9" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -1646,7 +1718,7 @@
         <v>11</v>
       </c>
       <c r="C10" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -1657,7 +1729,7 @@
         <v>12</v>
       </c>
       <c r="C11" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -1668,7 +1740,7 @@
         <v>13</v>
       </c>
       <c r="C12" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -1679,7 +1751,7 @@
         <v>14</v>
       </c>
       <c r="C13" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -1690,7 +1762,7 @@
         <v>15</v>
       </c>
       <c r="C14" t="s">
-        <v>392</v>
+        <v>385</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
@@ -1701,7 +1773,7 @@
         <v>16</v>
       </c>
       <c r="C15" t="s">
-        <v>392</v>
+        <v>385</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -1712,7 +1784,7 @@
         <v>17</v>
       </c>
       <c r="C16" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -1723,7 +1795,7 @@
         <v>18</v>
       </c>
       <c r="C17" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -1734,7 +1806,7 @@
         <v>19</v>
       </c>
       <c r="C18" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -1745,7 +1817,7 @@
         <v>20</v>
       </c>
       <c r="C19" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -1756,7 +1828,7 @@
         <v>21</v>
       </c>
       <c r="C20" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
@@ -1767,7 +1839,7 @@
         <v>22</v>
       </c>
       <c r="C21" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
@@ -1778,7 +1850,7 @@
         <v>23</v>
       </c>
       <c r="C22" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
@@ -1789,7 +1861,7 @@
         <v>24</v>
       </c>
       <c r="C23" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
@@ -1800,7 +1872,7 @@
         <v>25</v>
       </c>
       <c r="C24" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
@@ -1811,7 +1883,7 @@
         <v>26</v>
       </c>
       <c r="C25" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
@@ -1822,7 +1894,7 @@
         <v>27</v>
       </c>
       <c r="C26" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
@@ -1833,7 +1905,7 @@
         <v>28</v>
       </c>
       <c r="C27" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
@@ -1844,7 +1916,7 @@
         <v>29</v>
       </c>
       <c r="C28" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
@@ -1855,7 +1927,7 @@
         <v>30</v>
       </c>
       <c r="C29" t="s">
-        <v>392</v>
+        <v>385</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
@@ -1866,7 +1938,7 @@
         <v>31</v>
       </c>
       <c r="C30" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
@@ -1877,7 +1949,7 @@
         <v>32</v>
       </c>
       <c r="C31" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
@@ -1888,7 +1960,7 @@
         <v>33</v>
       </c>
       <c r="C32" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
@@ -1899,7 +1971,7 @@
         <v>34</v>
       </c>
       <c r="C33" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
@@ -1910,7 +1982,7 @@
         <v>35</v>
       </c>
       <c r="C34" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
@@ -1921,7 +1993,7 @@
         <v>36</v>
       </c>
       <c r="C35" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
@@ -1932,7 +2004,7 @@
         <v>37</v>
       </c>
       <c r="C36" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
@@ -1943,7 +2015,7 @@
         <v>38</v>
       </c>
       <c r="C37" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
@@ -1954,7 +2026,7 @@
         <v>39</v>
       </c>
       <c r="C38" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
@@ -1965,7 +2037,7 @@
         <v>40</v>
       </c>
       <c r="C39" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
@@ -1976,7 +2048,7 @@
         <v>41</v>
       </c>
       <c r="C40" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
@@ -1987,7 +2059,7 @@
         <v>42</v>
       </c>
       <c r="C41" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
@@ -1998,7 +2070,7 @@
         <v>43</v>
       </c>
       <c r="C42" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
@@ -2009,7 +2081,7 @@
         <v>44</v>
       </c>
       <c r="C43" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
@@ -2020,7 +2092,7 @@
         <v>45</v>
       </c>
       <c r="C44" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
@@ -2031,7 +2103,7 @@
         <v>46</v>
       </c>
       <c r="C45" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
@@ -2042,7 +2114,7 @@
         <v>47</v>
       </c>
       <c r="C46" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
@@ -2053,7 +2125,7 @@
         <v>48</v>
       </c>
       <c r="C47" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
@@ -2064,7 +2136,7 @@
         <v>49</v>
       </c>
       <c r="C48" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
@@ -2075,7 +2147,7 @@
         <v>50</v>
       </c>
       <c r="C49" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
@@ -2086,7 +2158,7 @@
         <v>51</v>
       </c>
       <c r="C50" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
@@ -2097,7 +2169,7 @@
         <v>52</v>
       </c>
       <c r="C51" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
@@ -2108,7 +2180,7 @@
         <v>53</v>
       </c>
       <c r="C52" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
@@ -2119,7 +2191,7 @@
         <v>54</v>
       </c>
       <c r="C53" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
@@ -2130,7 +2202,7 @@
         <v>55</v>
       </c>
       <c r="C54" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
@@ -2141,7 +2213,7 @@
         <v>56</v>
       </c>
       <c r="C55" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
@@ -2152,7 +2224,7 @@
         <v>57</v>
       </c>
       <c r="C56" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
@@ -2163,7 +2235,7 @@
         <v>58</v>
       </c>
       <c r="C57" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
@@ -2174,7 +2246,7 @@
         <v>59</v>
       </c>
       <c r="C58" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
@@ -2185,7 +2257,7 @@
         <v>60</v>
       </c>
       <c r="C59" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
@@ -2196,7 +2268,7 @@
         <v>61</v>
       </c>
       <c r="C60" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
@@ -2207,7 +2279,7 @@
         <v>62</v>
       </c>
       <c r="C61" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
@@ -2218,7 +2290,7 @@
         <v>63</v>
       </c>
       <c r="C62" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
@@ -2229,7 +2301,7 @@
         <v>64</v>
       </c>
       <c r="C63" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
@@ -2240,7 +2312,7 @@
         <v>65</v>
       </c>
       <c r="C64" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
@@ -2251,7 +2323,7 @@
         <v>66</v>
       </c>
       <c r="C65" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
@@ -2262,7 +2334,7 @@
         <v>67</v>
       </c>
       <c r="C66" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
@@ -2273,7 +2345,7 @@
         <v>68</v>
       </c>
       <c r="C67" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
@@ -2284,7 +2356,7 @@
         <v>69</v>
       </c>
       <c r="C68" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
@@ -2295,7 +2367,7 @@
         <v>70</v>
       </c>
       <c r="C69" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
@@ -2306,7 +2378,7 @@
         <v>71</v>
       </c>
       <c r="C70" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
@@ -2317,7 +2389,7 @@
         <v>72</v>
       </c>
       <c r="C71" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
@@ -2328,7 +2400,7 @@
         <v>73</v>
       </c>
       <c r="C72" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
@@ -2339,7 +2411,7 @@
         <v>74</v>
       </c>
       <c r="C73" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
@@ -2350,7 +2422,7 @@
         <v>75</v>
       </c>
       <c r="C74" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
@@ -2361,7 +2433,7 @@
         <v>76</v>
       </c>
       <c r="C75" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
@@ -2372,7 +2444,7 @@
         <v>77</v>
       </c>
       <c r="C76" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
@@ -2383,7 +2455,7 @@
         <v>78</v>
       </c>
       <c r="C77" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
@@ -2394,7 +2466,7 @@
         <v>79</v>
       </c>
       <c r="C78" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
@@ -2405,7 +2477,7 @@
         <v>80</v>
       </c>
       <c r="C79" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
@@ -2416,7 +2488,7 @@
         <v>81</v>
       </c>
       <c r="C80" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
@@ -2427,7 +2499,7 @@
         <v>82</v>
       </c>
       <c r="C81" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
@@ -2438,7 +2510,7 @@
         <v>83</v>
       </c>
       <c r="C82" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
@@ -2449,7 +2521,7 @@
         <v>84</v>
       </c>
       <c r="C83" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
@@ -2460,7 +2532,7 @@
         <v>85</v>
       </c>
       <c r="C84" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
@@ -2471,7 +2543,7 @@
         <v>86</v>
       </c>
       <c r="C85" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
@@ -2482,7 +2554,7 @@
         <v>87</v>
       </c>
       <c r="C86" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
@@ -2493,7 +2565,7 @@
         <v>88</v>
       </c>
       <c r="C87" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
@@ -2504,7 +2576,7 @@
         <v>89</v>
       </c>
       <c r="C88" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
@@ -2515,7 +2587,7 @@
         <v>90</v>
       </c>
       <c r="C89" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
@@ -2526,7 +2598,7 @@
         <v>91</v>
       </c>
       <c r="C90" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
@@ -2537,7 +2609,7 @@
         <v>92</v>
       </c>
       <c r="C91" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
@@ -2548,7 +2620,7 @@
         <v>93</v>
       </c>
       <c r="C92" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
@@ -2559,7 +2631,7 @@
         <v>94</v>
       </c>
       <c r="C93" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
@@ -2570,7 +2642,7 @@
         <v>95</v>
       </c>
       <c r="C94" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
@@ -2581,7 +2653,7 @@
         <v>96</v>
       </c>
       <c r="C95" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
@@ -2592,7 +2664,7 @@
         <v>97</v>
       </c>
       <c r="C96" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
@@ -2603,7 +2675,7 @@
         <v>98</v>
       </c>
       <c r="C97" t="s">
-        <v>392</v>
+        <v>385</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
@@ -2614,7 +2686,7 @@
         <v>99</v>
       </c>
       <c r="C98" t="s">
-        <v>392</v>
+        <v>385</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
@@ -2625,7 +2697,7 @@
         <v>100</v>
       </c>
       <c r="C99" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
@@ -2636,7 +2708,7 @@
         <v>101</v>
       </c>
       <c r="C100" t="s">
-        <v>392</v>
+        <v>385</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
@@ -2647,7 +2719,7 @@
         <v>102</v>
       </c>
       <c r="C101" t="s">
-        <v>392</v>
+        <v>385</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
@@ -2658,7 +2730,7 @@
         <v>103</v>
       </c>
       <c r="C102" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.25">
@@ -2669,7 +2741,7 @@
         <v>104</v>
       </c>
       <c r="C103" t="s">
-        <v>392</v>
+        <v>385</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.25">
@@ -2680,7 +2752,7 @@
         <v>105</v>
       </c>
       <c r="C104" t="s">
-        <v>392</v>
+        <v>385</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.25">
@@ -2691,7 +2763,7 @@
         <v>106</v>
       </c>
       <c r="C105" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.25">
@@ -2702,7 +2774,7 @@
         <v>107</v>
       </c>
       <c r="C106" t="s">
-        <v>392</v>
+        <v>385</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.25">
@@ -2713,7 +2785,7 @@
         <v>108</v>
       </c>
       <c r="C107" t="s">
-        <v>392</v>
+        <v>385</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.25">
@@ -2724,7 +2796,7 @@
         <v>109</v>
       </c>
       <c r="C108" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.25">
@@ -2735,7 +2807,7 @@
         <v>110</v>
       </c>
       <c r="C109" t="s">
-        <v>392</v>
+        <v>385</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.25">
@@ -2746,7 +2818,7 @@
         <v>111</v>
       </c>
       <c r="C110" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.25">
@@ -2757,7 +2829,7 @@
         <v>112</v>
       </c>
       <c r="C111" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.25">
@@ -2768,7 +2840,7 @@
         <v>113</v>
       </c>
       <c r="C112" t="s">
-        <v>392</v>
+        <v>385</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.25">
@@ -2779,7 +2851,7 @@
         <v>114</v>
       </c>
       <c r="C113" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.25">
@@ -2790,7 +2862,7 @@
         <v>115</v>
       </c>
       <c r="C114" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.25">
@@ -2801,7 +2873,7 @@
         <v>116</v>
       </c>
       <c r="C115" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.25">
@@ -2812,7 +2884,7 @@
         <v>117</v>
       </c>
       <c r="C116" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.25">
@@ -2823,7 +2895,7 @@
         <v>118</v>
       </c>
       <c r="C117" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.25">
@@ -2834,7 +2906,7 @@
         <v>119</v>
       </c>
       <c r="C118" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.25">
@@ -2845,7 +2917,7 @@
         <v>120</v>
       </c>
       <c r="C119" t="s">
-        <v>392</v>
+        <v>385</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.25">
@@ -2856,7 +2928,7 @@
         <v>121</v>
       </c>
       <c r="C120" t="s">
-        <v>392</v>
+        <v>385</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.25">
@@ -2867,7 +2939,7 @@
         <v>122</v>
       </c>
       <c r="C121" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.25">
@@ -2878,7 +2950,7 @@
         <v>123</v>
       </c>
       <c r="C122" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.25">
@@ -2889,7 +2961,7 @@
         <v>124</v>
       </c>
       <c r="C123" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.25">
@@ -2900,7 +2972,7 @@
         <v>125</v>
       </c>
       <c r="C124" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.25">
@@ -2911,7 +2983,7 @@
         <v>126</v>
       </c>
       <c r="C125" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.25">
@@ -2922,7 +2994,7 @@
         <v>127</v>
       </c>
       <c r="C126" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.25">
@@ -2933,7 +3005,7 @@
         <v>128</v>
       </c>
       <c r="C127" t="s">
-        <v>392</v>
+        <v>385</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.25">
@@ -2944,7 +3016,7 @@
         <v>129</v>
       </c>
       <c r="C128" t="s">
-        <v>392</v>
+        <v>385</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.25">
@@ -2955,7 +3027,7 @@
         <v>130</v>
       </c>
       <c r="C129" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.25">
@@ -2966,7 +3038,7 @@
         <v>131</v>
       </c>
       <c r="C130" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.25">
@@ -2977,7 +3049,7 @@
         <v>132</v>
       </c>
       <c r="C131" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.25">
@@ -2988,7 +3060,7 @@
         <v>133</v>
       </c>
       <c r="C132" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.25">
@@ -2999,7 +3071,7 @@
         <v>134</v>
       </c>
       <c r="C133" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.25">
@@ -3010,7 +3082,7 @@
         <v>135</v>
       </c>
       <c r="C134" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.25">
@@ -3021,7 +3093,7 @@
         <v>136</v>
       </c>
       <c r="C135" t="s">
-        <v>392</v>
+        <v>385</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.25">
@@ -3032,7 +3104,7 @@
         <v>137</v>
       </c>
       <c r="C136" t="s">
-        <v>392</v>
+        <v>385</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.25">
@@ -3043,7 +3115,7 @@
         <v>138</v>
       </c>
       <c r="C137" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.25">
@@ -3054,7 +3126,7 @@
         <v>139</v>
       </c>
       <c r="C138" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.25">
@@ -3065,7 +3137,7 @@
         <v>140</v>
       </c>
       <c r="C139" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.25">
@@ -3076,7 +3148,7 @@
         <v>141</v>
       </c>
       <c r="C140" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.25">
@@ -3087,7 +3159,7 @@
         <v>142</v>
       </c>
       <c r="C141" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.25">
@@ -3098,7 +3170,7 @@
         <v>143</v>
       </c>
       <c r="C142" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.25">
@@ -3109,7 +3181,7 @@
         <v>144</v>
       </c>
       <c r="C143" t="s">
-        <v>392</v>
+        <v>385</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.25">
@@ -3120,7 +3192,7 @@
         <v>145</v>
       </c>
       <c r="C144" t="s">
-        <v>392</v>
+        <v>385</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.25">
@@ -3131,7 +3203,7 @@
         <v>146</v>
       </c>
       <c r="C145" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.25">
@@ -3142,7 +3214,7 @@
         <v>147</v>
       </c>
       <c r="C146" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.25">
@@ -3153,7 +3225,7 @@
         <v>148</v>
       </c>
       <c r="C147" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.25">
@@ -3164,7 +3236,7 @@
         <v>149</v>
       </c>
       <c r="C148" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.25">
@@ -3175,7 +3247,7 @@
         <v>150</v>
       </c>
       <c r="C149" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.25">
@@ -3186,7 +3258,7 @@
         <v>151</v>
       </c>
       <c r="C150" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.25">
@@ -3197,7 +3269,7 @@
         <v>152</v>
       </c>
       <c r="C151" t="s">
-        <v>392</v>
+        <v>385</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.25">
@@ -3208,7 +3280,7 @@
         <v>153</v>
       </c>
       <c r="C152" t="s">
-        <v>392</v>
+        <v>385</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.25">
@@ -3219,7 +3291,7 @@
         <v>154</v>
       </c>
       <c r="C153" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.25">
@@ -3230,7 +3302,7 @@
         <v>155</v>
       </c>
       <c r="C154" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.25">
@@ -3241,7 +3313,7 @@
         <v>156</v>
       </c>
       <c r="C155" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.25">
@@ -3252,7 +3324,7 @@
         <v>157</v>
       </c>
       <c r="C156" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.25">
@@ -3263,7 +3335,7 @@
         <v>158</v>
       </c>
       <c r="C157" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.25">
@@ -3274,7 +3346,7 @@
         <v>159</v>
       </c>
       <c r="C158" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.25">
@@ -3285,7 +3357,7 @@
         <v>160</v>
       </c>
       <c r="C159" t="s">
-        <v>392</v>
+        <v>385</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.25">
@@ -3296,7 +3368,7 @@
         <v>161</v>
       </c>
       <c r="C160" t="s">
-        <v>392</v>
+        <v>385</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.25">
@@ -3307,7 +3379,7 @@
         <v>162</v>
       </c>
       <c r="C161" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.25">
@@ -3318,7 +3390,7 @@
         <v>163</v>
       </c>
       <c r="C162" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.25">
@@ -3329,7 +3401,7 @@
         <v>164</v>
       </c>
       <c r="C163" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.25">
@@ -3340,7 +3412,7 @@
         <v>165</v>
       </c>
       <c r="C164" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.25">
@@ -3351,7 +3423,7 @@
         <v>166</v>
       </c>
       <c r="C165" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.25">
@@ -3362,7 +3434,7 @@
         <v>167</v>
       </c>
       <c r="C166" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.25">
@@ -3373,7 +3445,7 @@
         <v>168</v>
       </c>
       <c r="C167" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.25">
@@ -3384,7 +3456,7 @@
         <v>169</v>
       </c>
       <c r="C168" t="s">
-        <v>392</v>
+        <v>385</v>
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.25">
@@ -3395,7 +3467,7 @@
         <v>170</v>
       </c>
       <c r="C169" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.25">
@@ -3406,7 +3478,7 @@
         <v>171</v>
       </c>
       <c r="C170" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.25">
@@ -3417,7 +3489,7 @@
         <v>172</v>
       </c>
       <c r="C171" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.25">
@@ -3428,7 +3500,7 @@
         <v>173</v>
       </c>
       <c r="C172" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.25">
@@ -3439,7 +3511,7 @@
         <v>174</v>
       </c>
       <c r="C173" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.25">
@@ -3450,7 +3522,7 @@
         <v>175</v>
       </c>
       <c r="C174" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.25">
@@ -3461,7 +3533,7 @@
         <v>176</v>
       </c>
       <c r="C175" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.25">
@@ -3472,7 +3544,7 @@
         <v>177</v>
       </c>
       <c r="C176" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.25">
@@ -3483,7 +3555,7 @@
         <v>178</v>
       </c>
       <c r="C177" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.25">
@@ -3494,7 +3566,7 @@
         <v>179</v>
       </c>
       <c r="C178" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.25">
@@ -3505,7 +3577,7 @@
         <v>180</v>
       </c>
       <c r="C179" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.25">
@@ -3516,7 +3588,7 @@
         <v>181</v>
       </c>
       <c r="C180" t="s">
-        <v>392</v>
+        <v>385</v>
       </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.25">
@@ -3527,7 +3599,7 @@
         <v>182</v>
       </c>
       <c r="C181" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.25">
@@ -3538,7 +3610,7 @@
         <v>183</v>
       </c>
       <c r="C182" t="s">
-        <v>392</v>
+        <v>385</v>
       </c>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.25">
@@ -3549,7 +3621,7 @@
         <v>184</v>
       </c>
       <c r="C183" t="s">
-        <v>392</v>
+        <v>385</v>
       </c>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.25">
@@ -3560,7 +3632,7 @@
         <v>185</v>
       </c>
       <c r="C184" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.25">
@@ -3571,7 +3643,7 @@
         <v>186</v>
       </c>
       <c r="C185" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.25">
@@ -3582,7 +3654,7 @@
         <v>187</v>
       </c>
       <c r="C186" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.25">
@@ -3593,7 +3665,7 @@
         <v>188</v>
       </c>
       <c r="C187" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.25">
@@ -3604,7 +3676,7 @@
         <v>189</v>
       </c>
       <c r="C188" t="s">
-        <v>392</v>
+        <v>385</v>
       </c>
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.25">
@@ -3615,7 +3687,7 @@
         <v>190</v>
       </c>
       <c r="C189" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.25">
@@ -3626,7 +3698,7 @@
         <v>191</v>
       </c>
       <c r="C190" t="s">
-        <v>392</v>
+        <v>385</v>
       </c>
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.25">
@@ -3637,7 +3709,7 @@
         <v>192</v>
       </c>
       <c r="C191" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.25">
@@ -3648,7 +3720,7 @@
         <v>193</v>
       </c>
       <c r="C192" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.25">
@@ -3659,7 +3731,7 @@
         <v>194</v>
       </c>
       <c r="C193" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.25">
@@ -3670,7 +3742,7 @@
         <v>195</v>
       </c>
       <c r="C194" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.25">
@@ -3681,7 +3753,7 @@
         <v>196</v>
       </c>
       <c r="C195" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.25">
@@ -3692,7 +3764,7 @@
         <v>197</v>
       </c>
       <c r="C196" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.25">
@@ -3703,7 +3775,7 @@
         <v>198</v>
       </c>
       <c r="C197" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.25">
@@ -3714,7 +3786,7 @@
         <v>199</v>
       </c>
       <c r="C198" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.25">
@@ -3725,7 +3797,7 @@
         <v>200</v>
       </c>
       <c r="C199" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.25">
@@ -3736,7 +3808,7 @@
         <v>201</v>
       </c>
       <c r="C200" t="s">
-        <v>389</v>
+        <v>382</v>
       </c>
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.25">
@@ -3747,7 +3819,7 @@
         <v>202</v>
       </c>
       <c r="C201" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.25">
@@ -3758,7 +3830,7 @@
         <v>203</v>
       </c>
       <c r="C202" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.25">
@@ -3769,7 +3841,7 @@
         <v>204</v>
       </c>
       <c r="C203" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.25">
@@ -3780,7 +3852,7 @@
         <v>205</v>
       </c>
       <c r="C204" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.25">
@@ -3791,7 +3863,7 @@
         <v>206</v>
       </c>
       <c r="C205" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.25">
@@ -3802,7 +3874,7 @@
         <v>207</v>
       </c>
       <c r="C206" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.25">
@@ -3813,7 +3885,7 @@
         <v>208</v>
       </c>
       <c r="C207" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.25">
@@ -3824,7 +3896,7 @@
         <v>4</v>
       </c>
       <c r="C208" t="s">
-        <v>389</v>
+        <v>382</v>
       </c>
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.25">
@@ -3835,7 +3907,7 @@
         <v>3</v>
       </c>
       <c r="C209" t="s">
-        <v>389</v>
+        <v>382</v>
       </c>
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.25">
@@ -3846,7 +3918,7 @@
         <v>9</v>
       </c>
       <c r="C210" t="s">
-        <v>392</v>
+        <v>385</v>
       </c>
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.25">
@@ -3857,7 +3929,7 @@
         <v>18</v>
       </c>
       <c r="C211" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.25">
@@ -3868,7 +3940,7 @@
         <v>19</v>
       </c>
       <c r="C212" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.25">
@@ -3879,7 +3951,7 @@
         <v>20</v>
       </c>
       <c r="C213" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.25">
@@ -3890,7 +3962,7 @@
         <v>30</v>
       </c>
       <c r="C214" t="s">
-        <v>392</v>
+        <v>385</v>
       </c>
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.25">
@@ -3901,7 +3973,7 @@
         <v>181</v>
       </c>
       <c r="C215" t="s">
-        <v>392</v>
+        <v>385</v>
       </c>
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.25">
@@ -3912,7 +3984,7 @@
         <v>183</v>
       </c>
       <c r="C216" t="s">
-        <v>392</v>
+        <v>385</v>
       </c>
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.25">
@@ -3923,7 +3995,7 @@
         <v>6</v>
       </c>
       <c r="C217" t="s">
-        <v>392</v>
+        <v>385</v>
       </c>
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.25">
@@ -3934,7 +4006,7 @@
         <v>200</v>
       </c>
       <c r="C218" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.25">
@@ -3945,7 +4017,7 @@
         <v>98</v>
       </c>
       <c r="C219" t="s">
-        <v>392</v>
+        <v>385</v>
       </c>
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.25">
@@ -3956,7 +4028,7 @@
         <v>99</v>
       </c>
       <c r="C220" t="s">
-        <v>392</v>
+        <v>385</v>
       </c>
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.25">
@@ -3967,7 +4039,7 @@
         <v>201</v>
       </c>
       <c r="C221" t="s">
-        <v>389</v>
+        <v>382</v>
       </c>
     </row>
     <row r="222" spans="1:3" x14ac:dyDescent="0.25">
@@ -3978,7 +4050,7 @@
         <v>191</v>
       </c>
       <c r="C222" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
     </row>
     <row r="223" spans="1:3" x14ac:dyDescent="0.25">
@@ -3989,7 +4061,7 @@
         <v>192</v>
       </c>
       <c r="C223" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
     </row>
     <row r="224" spans="1:3" x14ac:dyDescent="0.25">
@@ -4000,7 +4072,7 @@
         <v>209</v>
       </c>
       <c r="C224" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.25">
@@ -4011,1745 +4083,1745 @@
         <v>210</v>
       </c>
       <c r="C225" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
-        <v>223</v>
+        <v>211</v>
       </c>
       <c r="B226" t="s">
-        <v>189</v>
+        <v>10</v>
       </c>
       <c r="C226" t="s">
-        <v>392</v>
+        <v>384</v>
       </c>
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
-        <v>223</v>
+        <v>211</v>
       </c>
       <c r="B227" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C227" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
-        <v>223</v>
+        <v>211</v>
       </c>
       <c r="B228" t="s">
-        <v>212</v>
+        <v>14</v>
       </c>
       <c r="C228" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
-        <v>223</v>
+        <v>211</v>
       </c>
       <c r="B229" t="s">
-        <v>213</v>
+        <v>15</v>
       </c>
       <c r="C229" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
-        <v>223</v>
+        <v>211</v>
       </c>
       <c r="B230" t="s">
-        <v>214</v>
+        <v>16</v>
       </c>
       <c r="C230" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
-        <v>223</v>
+        <v>211</v>
       </c>
       <c r="B231" t="s">
-        <v>215</v>
+        <v>17</v>
       </c>
       <c r="C231" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
-        <v>223</v>
+        <v>211</v>
       </c>
       <c r="B232" t="s">
-        <v>216</v>
+        <v>100</v>
       </c>
       <c r="C232" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
-        <v>223</v>
+        <v>211</v>
       </c>
       <c r="B233" t="s">
-        <v>217</v>
+        <v>101</v>
       </c>
       <c r="C233" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
     </row>
     <row r="234" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
-        <v>223</v>
+        <v>211</v>
       </c>
       <c r="B234" t="s">
-        <v>200</v>
+        <v>102</v>
       </c>
       <c r="C234" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
     </row>
     <row r="235" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
-        <v>223</v>
+        <v>211</v>
       </c>
       <c r="B235" t="s">
-        <v>218</v>
+        <v>103</v>
       </c>
       <c r="C235" t="s">
-        <v>392</v>
+        <v>384</v>
       </c>
     </row>
     <row r="236" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
-        <v>223</v>
+        <v>211</v>
       </c>
       <c r="B236" t="s">
-        <v>31</v>
+        <v>104</v>
       </c>
       <c r="C236" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
     </row>
     <row r="237" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
-        <v>223</v>
+        <v>211</v>
       </c>
       <c r="B237" t="s">
-        <v>32</v>
+        <v>105</v>
       </c>
       <c r="C237" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
-        <v>223</v>
+        <v>211</v>
       </c>
       <c r="B238" t="s">
-        <v>33</v>
+        <v>106</v>
       </c>
       <c r="C238" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
     </row>
     <row r="239" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
-        <v>223</v>
+        <v>211</v>
       </c>
       <c r="B239" t="s">
-        <v>34</v>
+        <v>107</v>
       </c>
       <c r="C239" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
     </row>
     <row r="240" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
-        <v>223</v>
+        <v>211</v>
       </c>
       <c r="B240" t="s">
-        <v>35</v>
+        <v>108</v>
       </c>
       <c r="C240" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
     </row>
     <row r="241" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
-        <v>223</v>
+        <v>211</v>
       </c>
       <c r="B241" t="s">
-        <v>36</v>
+        <v>109</v>
       </c>
       <c r="C241" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
     </row>
     <row r="242" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
-        <v>223</v>
+        <v>211</v>
       </c>
       <c r="B242" t="s">
-        <v>37</v>
+        <v>110</v>
       </c>
       <c r="C242" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
     </row>
     <row r="243" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
-        <v>223</v>
+        <v>211</v>
       </c>
       <c r="B243" t="s">
-        <v>38</v>
+        <v>112</v>
       </c>
       <c r="C243" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
     </row>
     <row r="244" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
-        <v>223</v>
+        <v>211</v>
       </c>
       <c r="B244" t="s">
-        <v>39</v>
+        <v>113</v>
       </c>
       <c r="C244" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
     </row>
     <row r="245" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
-        <v>223</v>
+        <v>211</v>
       </c>
       <c r="B245" t="s">
-        <v>40</v>
+        <v>115</v>
       </c>
       <c r="C245" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
     </row>
     <row r="246" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
-        <v>223</v>
+        <v>211</v>
       </c>
       <c r="B246" t="s">
-        <v>41</v>
+        <v>148</v>
       </c>
       <c r="C246" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
     </row>
     <row r="247" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
-        <v>223</v>
+        <v>211</v>
       </c>
       <c r="B247" t="s">
-        <v>42</v>
+        <v>149</v>
       </c>
       <c r="C247" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
     </row>
     <row r="248" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
-        <v>223</v>
+        <v>211</v>
       </c>
       <c r="B248" t="s">
-        <v>43</v>
+        <v>150</v>
       </c>
       <c r="C248" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
     </row>
     <row r="249" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
-        <v>223</v>
+        <v>211</v>
       </c>
       <c r="B249" t="s">
-        <v>44</v>
+        <v>151</v>
       </c>
       <c r="C249" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
     </row>
     <row r="250" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
-        <v>223</v>
+        <v>211</v>
       </c>
       <c r="B250" t="s">
-        <v>219</v>
+        <v>152</v>
       </c>
       <c r="C250" t="s">
-        <v>392</v>
+        <v>384</v>
       </c>
     </row>
     <row r="251" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
-        <v>223</v>
+        <v>211</v>
       </c>
       <c r="B251" t="s">
-        <v>220</v>
+        <v>153</v>
       </c>
       <c r="C251" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
     </row>
     <row r="252" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
-        <v>223</v>
+        <v>211</v>
       </c>
       <c r="B252" t="s">
-        <v>221</v>
+        <v>154</v>
       </c>
       <c r="C252" t="s">
-        <v>392</v>
+        <v>384</v>
       </c>
     </row>
     <row r="253" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
-        <v>223</v>
+        <v>211</v>
       </c>
       <c r="B253" t="s">
-        <v>222</v>
+        <v>155</v>
       </c>
       <c r="C253" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
     </row>
     <row r="254" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
-        <v>225</v>
+        <v>211</v>
       </c>
       <c r="B254" t="s">
-        <v>3</v>
+        <v>156</v>
       </c>
       <c r="C254" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
     </row>
     <row r="255" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
-        <v>225</v>
+        <v>211</v>
       </c>
       <c r="B255" t="s">
-        <v>4</v>
+        <v>157</v>
       </c>
       <c r="C255" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
     </row>
     <row r="256" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
-        <v>225</v>
+        <v>211</v>
       </c>
       <c r="B256" t="s">
-        <v>189</v>
+        <v>158</v>
       </c>
       <c r="C256" t="s">
-        <v>392</v>
+        <v>384</v>
       </c>
     </row>
     <row r="257" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
-        <v>225</v>
+        <v>211</v>
       </c>
       <c r="B257" t="s">
-        <v>12</v>
+        <v>159</v>
       </c>
       <c r="C257" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
     </row>
     <row r="258" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
-        <v>225</v>
+        <v>211</v>
       </c>
       <c r="B258" t="s">
-        <v>212</v>
+        <v>160</v>
       </c>
       <c r="C258" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
     </row>
     <row r="259" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
-        <v>225</v>
+        <v>211</v>
       </c>
       <c r="B259" t="s">
-        <v>213</v>
+        <v>161</v>
       </c>
       <c r="C259" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
     </row>
     <row r="260" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
-        <v>225</v>
+        <v>211</v>
       </c>
       <c r="B260" t="s">
-        <v>214</v>
+        <v>162</v>
       </c>
       <c r="C260" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
     </row>
     <row r="261" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
-        <v>225</v>
+        <v>211</v>
       </c>
       <c r="B261" t="s">
-        <v>224</v>
+        <v>163</v>
       </c>
       <c r="C261" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
     </row>
     <row r="262" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
-        <v>225</v>
+        <v>211</v>
       </c>
       <c r="B262" t="s">
-        <v>216</v>
+        <v>164</v>
       </c>
       <c r="C262" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
     </row>
     <row r="263" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
-        <v>225</v>
+        <v>211</v>
       </c>
       <c r="B263" t="s">
-        <v>217</v>
+        <v>165</v>
       </c>
       <c r="C263" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
     </row>
     <row r="264" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
-        <v>225</v>
+        <v>211</v>
       </c>
       <c r="B264" t="s">
-        <v>200</v>
+        <v>166</v>
       </c>
       <c r="C264" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
     </row>
     <row r="265" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
-        <v>225</v>
+        <v>211</v>
       </c>
       <c r="B265" t="s">
-        <v>218</v>
+        <v>167</v>
       </c>
       <c r="C265" t="s">
-        <v>392</v>
+        <v>384</v>
       </c>
     </row>
     <row r="266" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
-        <v>225</v>
+        <v>211</v>
       </c>
       <c r="B266" t="s">
-        <v>31</v>
+        <v>168</v>
       </c>
       <c r="C266" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
     </row>
     <row r="267" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
-        <v>225</v>
+        <v>211</v>
       </c>
       <c r="B267" t="s">
-        <v>32</v>
+        <v>169</v>
       </c>
       <c r="C267" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
     </row>
     <row r="268" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
-        <v>225</v>
+        <v>211</v>
       </c>
       <c r="B268" t="s">
-        <v>33</v>
+        <v>170</v>
       </c>
       <c r="C268" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
     </row>
     <row r="269" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
-        <v>225</v>
+        <v>211</v>
       </c>
       <c r="B269" t="s">
-        <v>34</v>
+        <v>171</v>
       </c>
       <c r="C269" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
     </row>
     <row r="270" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
-        <v>225</v>
+        <v>211</v>
       </c>
       <c r="B270" t="s">
-        <v>35</v>
+        <v>172</v>
       </c>
       <c r="C270" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
     </row>
     <row r="271" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
-        <v>225</v>
+        <v>211</v>
       </c>
       <c r="B271" t="s">
-        <v>36</v>
+        <v>173</v>
       </c>
       <c r="C271" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
     </row>
     <row r="272" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
-        <v>225</v>
+        <v>211</v>
       </c>
       <c r="B272" t="s">
-        <v>37</v>
+        <v>178</v>
       </c>
       <c r="C272" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
     </row>
     <row r="273" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
-        <v>225</v>
+        <v>211</v>
       </c>
       <c r="B273" t="s">
-        <v>38</v>
+        <v>179</v>
       </c>
       <c r="C273" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
     </row>
     <row r="274" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
-        <v>225</v>
+        <v>211</v>
       </c>
       <c r="B274" t="s">
-        <v>39</v>
+        <v>180</v>
       </c>
       <c r="C274" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
     </row>
     <row r="275" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
-        <v>225</v>
+        <v>211</v>
       </c>
       <c r="B275" t="s">
-        <v>40</v>
+        <v>404</v>
       </c>
       <c r="C275" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
     </row>
     <row r="276" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
-        <v>225</v>
+        <v>211</v>
       </c>
       <c r="B276" t="s">
-        <v>41</v>
+        <v>405</v>
       </c>
       <c r="C276" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
     </row>
     <row r="277" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
-        <v>225</v>
+        <v>211</v>
       </c>
       <c r="B277" t="s">
-        <v>42</v>
+        <v>182</v>
       </c>
       <c r="C277" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
     </row>
     <row r="278" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
-        <v>225</v>
+        <v>211</v>
       </c>
       <c r="B278" t="s">
-        <v>43</v>
+        <v>183</v>
       </c>
       <c r="C278" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
     </row>
     <row r="279" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
-        <v>225</v>
+        <v>211</v>
       </c>
       <c r="B279" t="s">
-        <v>44</v>
+        <v>406</v>
       </c>
       <c r="C279" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
     </row>
     <row r="280" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
-        <v>225</v>
+        <v>211</v>
       </c>
       <c r="B280" t="s">
-        <v>219</v>
+        <v>187</v>
       </c>
       <c r="C280" t="s">
-        <v>392</v>
+        <v>384</v>
       </c>
     </row>
     <row r="281" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
-        <v>225</v>
+        <v>211</v>
       </c>
       <c r="B281" t="s">
-        <v>220</v>
+        <v>114</v>
       </c>
       <c r="C281" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
     </row>
     <row r="282" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
-        <v>225</v>
+        <v>211</v>
       </c>
       <c r="B282" t="s">
-        <v>221</v>
+        <v>25</v>
       </c>
       <c r="C282" t="s">
-        <v>392</v>
+        <v>384</v>
       </c>
     </row>
     <row r="283" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
-        <v>225</v>
+        <v>211</v>
       </c>
       <c r="B283" t="s">
-        <v>222</v>
+        <v>26</v>
       </c>
       <c r="C283" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
     </row>
     <row r="284" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
-        <v>351</v>
-      </c>
-      <c r="B284" t="s">
-        <v>226</v>
+        <v>211</v>
+      </c>
+      <c r="B284" s="2" t="s">
+        <v>6</v>
       </c>
       <c r="C284" t="s">
-        <v>392</v>
+        <v>384</v>
       </c>
     </row>
     <row r="285" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
-        <v>351</v>
-      </c>
-      <c r="B285" t="s">
-        <v>227</v>
+        <v>211</v>
+      </c>
+      <c r="B285" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="C285" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
     </row>
     <row r="286" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
-        <v>351</v>
-      </c>
-      <c r="B286" t="s">
-        <v>228</v>
+        <v>211</v>
+      </c>
+      <c r="B286" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="C286" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
     </row>
     <row r="287" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
-        <v>351</v>
-      </c>
-      <c r="B287" t="s">
-        <v>229</v>
+        <v>211</v>
+      </c>
+      <c r="B287" s="3" t="s">
+        <v>29</v>
       </c>
       <c r="C287" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
     </row>
     <row r="288" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
-        <v>351</v>
-      </c>
-      <c r="B288" t="s">
-        <v>230</v>
+        <v>211</v>
+      </c>
+      <c r="B288" s="3" t="s">
+        <v>30</v>
       </c>
       <c r="C288" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
     </row>
     <row r="289" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
-        <v>351</v>
-      </c>
-      <c r="B289" t="s">
-        <v>231</v>
+        <v>211</v>
+      </c>
+      <c r="B289" s="2" t="s">
+        <v>116</v>
       </c>
       <c r="C289" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
     </row>
     <row r="290" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
-        <v>351</v>
-      </c>
-      <c r="B290" t="s">
-        <v>232</v>
+        <v>211</v>
+      </c>
+      <c r="B290" s="2" t="s">
+        <v>117</v>
       </c>
       <c r="C290" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
     </row>
     <row r="291" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
-        <v>351</v>
-      </c>
-      <c r="B291" t="s">
-        <v>233</v>
+        <v>211</v>
+      </c>
+      <c r="B291" s="2" t="s">
+        <v>118</v>
       </c>
       <c r="C291" t="s">
-        <v>392</v>
+        <v>384</v>
       </c>
     </row>
     <row r="292" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
-        <v>351</v>
-      </c>
-      <c r="B292" t="s">
-        <v>234</v>
+        <v>211</v>
+      </c>
+      <c r="B292" s="2" t="s">
+        <v>119</v>
       </c>
       <c r="C292" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
     </row>
     <row r="293" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
-        <v>351</v>
-      </c>
-      <c r="B293" t="s">
-        <v>235</v>
+        <v>211</v>
+      </c>
+      <c r="B293" s="2" t="s">
+        <v>120</v>
       </c>
       <c r="C293" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
     </row>
     <row r="294" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
-        <v>351</v>
-      </c>
-      <c r="B294" t="s">
-        <v>236</v>
+        <v>211</v>
+      </c>
+      <c r="B294" s="2" t="s">
+        <v>121</v>
       </c>
       <c r="C294" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
     </row>
     <row r="295" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
-        <v>351</v>
-      </c>
-      <c r="B295" t="s">
-        <v>237</v>
+        <v>211</v>
+      </c>
+      <c r="B295" s="2" t="s">
+        <v>122</v>
       </c>
       <c r="C295" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
     </row>
     <row r="296" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
-        <v>351</v>
-      </c>
-      <c r="B296" t="s">
-        <v>238</v>
+        <v>211</v>
+      </c>
+      <c r="B296" s="2" t="s">
+        <v>123</v>
       </c>
       <c r="C296" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
     </row>
     <row r="297" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
-        <v>351</v>
-      </c>
-      <c r="B297" t="s">
-        <v>239</v>
+        <v>211</v>
+      </c>
+      <c r="B297" s="2" t="s">
+        <v>124</v>
       </c>
       <c r="C297" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
     </row>
     <row r="298" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
-        <v>351</v>
-      </c>
-      <c r="B298" t="s">
-        <v>240</v>
+        <v>211</v>
+      </c>
+      <c r="B298" s="2" t="s">
+        <v>125</v>
       </c>
       <c r="C298" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
     </row>
     <row r="299" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
-        <v>351</v>
-      </c>
-      <c r="B299" t="s">
-        <v>241</v>
+        <v>211</v>
+      </c>
+      <c r="B299" s="2" t="s">
+        <v>126</v>
       </c>
       <c r="C299" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
     </row>
     <row r="300" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
-        <v>351</v>
-      </c>
-      <c r="B300" t="s">
-        <v>242</v>
+        <v>211</v>
+      </c>
+      <c r="B300" s="2" t="s">
+        <v>127</v>
       </c>
       <c r="C300" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
     </row>
     <row r="301" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
-        <v>351</v>
-      </c>
-      <c r="B301" t="s">
-        <v>243</v>
+        <v>211</v>
+      </c>
+      <c r="B301" s="2" t="s">
+        <v>128</v>
       </c>
       <c r="C301" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
     </row>
     <row r="302" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
-        <v>351</v>
-      </c>
-      <c r="B302" t="s">
-        <v>244</v>
+        <v>211</v>
+      </c>
+      <c r="B302" s="2" t="s">
+        <v>129</v>
       </c>
       <c r="C302" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
     </row>
     <row r="303" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
-        <v>351</v>
-      </c>
-      <c r="B303" t="s">
-        <v>245</v>
+        <v>211</v>
+      </c>
+      <c r="B303" s="2" t="s">
+        <v>130</v>
       </c>
       <c r="C303" t="s">
-        <v>392</v>
+        <v>384</v>
       </c>
     </row>
     <row r="304" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
-        <v>351</v>
-      </c>
-      <c r="B304" t="s">
-        <v>246</v>
+        <v>211</v>
+      </c>
+      <c r="B304" s="2" t="s">
+        <v>131</v>
       </c>
       <c r="C304" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
     </row>
     <row r="305" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
-        <v>351</v>
-      </c>
-      <c r="B305" t="s">
-        <v>247</v>
+        <v>211</v>
+      </c>
+      <c r="B305" s="2" t="s">
+        <v>132</v>
       </c>
       <c r="C305" t="s">
-        <v>392</v>
+        <v>384</v>
       </c>
     </row>
     <row r="306" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
-        <v>351</v>
-      </c>
-      <c r="B306" t="s">
-        <v>248</v>
+        <v>211</v>
+      </c>
+      <c r="B306" s="2" t="s">
+        <v>133</v>
       </c>
       <c r="C306" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
     </row>
     <row r="307" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
-        <v>351</v>
-      </c>
-      <c r="B307" t="s">
-        <v>249</v>
+        <v>211</v>
+      </c>
+      <c r="B307" s="2" t="s">
+        <v>134</v>
       </c>
       <c r="C307" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
     </row>
     <row r="308" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
-        <v>351</v>
-      </c>
-      <c r="B308" t="s">
-        <v>250</v>
+        <v>211</v>
+      </c>
+      <c r="B308" s="2" t="s">
+        <v>135</v>
       </c>
       <c r="C308" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
     </row>
     <row r="309" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
-        <v>351</v>
-      </c>
-      <c r="B309" t="s">
-        <v>251</v>
+        <v>211</v>
+      </c>
+      <c r="B309" s="2" t="s">
+        <v>136</v>
       </c>
       <c r="C309" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
     </row>
     <row r="310" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
-        <v>351</v>
-      </c>
-      <c r="B310" t="s">
-        <v>252</v>
+        <v>211</v>
+      </c>
+      <c r="B310" s="2" t="s">
+        <v>137</v>
       </c>
       <c r="C310" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
     </row>
     <row r="311" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
-        <v>351</v>
-      </c>
-      <c r="B311" t="s">
-        <v>253</v>
+        <v>211</v>
+      </c>
+      <c r="B311" s="2" t="s">
+        <v>138</v>
       </c>
       <c r="C311" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
     </row>
     <row r="312" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
-        <v>351</v>
-      </c>
-      <c r="B312" t="s">
-        <v>254</v>
+        <v>211</v>
+      </c>
+      <c r="B312" s="2" t="s">
+        <v>139</v>
       </c>
       <c r="C312" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
     </row>
     <row r="313" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
-        <v>351</v>
-      </c>
-      <c r="B313" t="s">
-        <v>255</v>
+        <v>211</v>
+      </c>
+      <c r="B313" s="2" t="s">
+        <v>140</v>
       </c>
       <c r="C313" t="s">
-        <v>392</v>
+        <v>384</v>
       </c>
     </row>
     <row r="314" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
-        <v>351</v>
-      </c>
-      <c r="B314" t="s">
-        <v>256</v>
+        <v>211</v>
+      </c>
+      <c r="B314" s="2" t="s">
+        <v>141</v>
       </c>
       <c r="C314" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
     </row>
     <row r="315" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
-        <v>351</v>
-      </c>
-      <c r="B315" t="s">
-        <v>257</v>
+        <v>211</v>
+      </c>
+      <c r="B315" s="2" t="s">
+        <v>142</v>
       </c>
       <c r="C315" t="s">
-        <v>392</v>
+        <v>384</v>
       </c>
     </row>
     <row r="316" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
-        <v>351</v>
-      </c>
-      <c r="B316" t="s">
-        <v>258</v>
+        <v>211</v>
+      </c>
+      <c r="B316" s="2" t="s">
+        <v>143</v>
       </c>
       <c r="C316" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
     </row>
     <row r="317" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
-        <v>351</v>
-      </c>
-      <c r="B317" t="s">
-        <v>259</v>
+        <v>211</v>
+      </c>
+      <c r="B317" s="2" t="s">
+        <v>144</v>
       </c>
       <c r="C317" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
     </row>
     <row r="318" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
-        <v>351</v>
-      </c>
-      <c r="B318" t="s">
-        <v>260</v>
+        <v>211</v>
+      </c>
+      <c r="B318" s="2" t="s">
+        <v>145</v>
       </c>
       <c r="C318" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
     </row>
     <row r="319" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
-        <v>351</v>
-      </c>
-      <c r="B319" t="s">
-        <v>261</v>
+        <v>211</v>
+      </c>
+      <c r="B319" s="2" t="s">
+        <v>146</v>
       </c>
       <c r="C319" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
     </row>
     <row r="320" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
-        <v>351</v>
-      </c>
-      <c r="B320" t="s">
-        <v>262</v>
+        <v>211</v>
+      </c>
+      <c r="B320" s="2" t="s">
+        <v>147</v>
       </c>
       <c r="C320" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
     </row>
     <row r="321" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
-        <v>351</v>
-      </c>
-      <c r="B321" t="s">
-        <v>263</v>
+        <v>211</v>
+      </c>
+      <c r="B321" s="3" t="s">
+        <v>201</v>
       </c>
       <c r="C321" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
     </row>
     <row r="322" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
-        <v>351</v>
-      </c>
-      <c r="B322" t="s">
-        <v>264</v>
+        <v>211</v>
+      </c>
+      <c r="B322" s="3" t="s">
+        <v>202</v>
       </c>
       <c r="C322" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
     </row>
     <row r="323" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
-        <v>351</v>
-      </c>
-      <c r="B323" t="s">
-        <v>265</v>
+        <v>211</v>
+      </c>
+      <c r="B323" s="2" t="s">
+        <v>407</v>
       </c>
       <c r="C323" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
     </row>
     <row r="324" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
-        <v>351</v>
-      </c>
-      <c r="B324" t="s">
-        <v>266</v>
+        <v>211</v>
+      </c>
+      <c r="B324" s="2" t="s">
+        <v>408</v>
       </c>
       <c r="C324" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
     </row>
     <row r="325" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
-        <v>351</v>
-      </c>
-      <c r="B325" t="s">
-        <v>267</v>
+        <v>211</v>
+      </c>
+      <c r="B325" s="2" t="s">
+        <v>409</v>
       </c>
       <c r="C325" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
     </row>
     <row r="326" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
-        <v>351</v>
+        <v>223</v>
       </c>
       <c r="B326" t="s">
-        <v>268</v>
+        <v>189</v>
       </c>
       <c r="C326" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
     </row>
     <row r="327" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
-        <v>351</v>
+        <v>223</v>
       </c>
       <c r="B327" t="s">
-        <v>269</v>
+        <v>12</v>
       </c>
       <c r="C327" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
     </row>
     <row r="328" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
-        <v>351</v>
+        <v>223</v>
       </c>
       <c r="B328" t="s">
-        <v>270</v>
+        <v>212</v>
       </c>
       <c r="C328" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
     </row>
     <row r="329" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
-        <v>351</v>
+        <v>223</v>
       </c>
       <c r="B329" t="s">
-        <v>271</v>
+        <v>213</v>
       </c>
       <c r="C329" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
     </row>
     <row r="330" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
-        <v>351</v>
+        <v>223</v>
       </c>
       <c r="B330" t="s">
-        <v>272</v>
+        <v>214</v>
       </c>
       <c r="C330" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
     </row>
     <row r="331" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
-        <v>351</v>
+        <v>223</v>
       </c>
       <c r="B331" t="s">
-        <v>273</v>
+        <v>215</v>
       </c>
       <c r="C331" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
     </row>
     <row r="332" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
-        <v>351</v>
+        <v>223</v>
       </c>
       <c r="B332" t="s">
-        <v>274</v>
+        <v>216</v>
       </c>
       <c r="C332" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
     </row>
     <row r="333" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
-        <v>351</v>
+        <v>223</v>
       </c>
       <c r="B333" t="s">
-        <v>275</v>
+        <v>217</v>
       </c>
       <c r="C333" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
     </row>
     <row r="334" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
-        <v>351</v>
+        <v>223</v>
       </c>
       <c r="B334" t="s">
-        <v>276</v>
+        <v>200</v>
       </c>
       <c r="C334" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
     </row>
     <row r="335" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
-        <v>351</v>
+        <v>223</v>
       </c>
       <c r="B335" t="s">
-        <v>277</v>
+        <v>218</v>
       </c>
       <c r="C335" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
     </row>
     <row r="336" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
-        <v>351</v>
+        <v>223</v>
       </c>
       <c r="B336" t="s">
-        <v>278</v>
+        <v>31</v>
       </c>
       <c r="C336" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
     </row>
     <row r="337" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
-        <v>351</v>
+        <v>223</v>
       </c>
       <c r="B337" t="s">
-        <v>279</v>
+        <v>32</v>
       </c>
       <c r="C337" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
     </row>
     <row r="338" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
-        <v>351</v>
+        <v>223</v>
       </c>
       <c r="B338" t="s">
-        <v>280</v>
+        <v>33</v>
       </c>
       <c r="C338" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
     </row>
     <row r="339" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
-        <v>351</v>
+        <v>223</v>
       </c>
       <c r="B339" t="s">
-        <v>281</v>
+        <v>34</v>
       </c>
       <c r="C339" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
     </row>
     <row r="340" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
-        <v>351</v>
+        <v>223</v>
       </c>
       <c r="B340" t="s">
-        <v>282</v>
+        <v>35</v>
       </c>
       <c r="C340" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
     </row>
     <row r="341" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
-        <v>351</v>
+        <v>223</v>
       </c>
       <c r="B341" t="s">
-        <v>283</v>
+        <v>36</v>
       </c>
       <c r="C341" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
     </row>
     <row r="342" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
-        <v>351</v>
+        <v>223</v>
       </c>
       <c r="B342" t="s">
-        <v>284</v>
+        <v>37</v>
       </c>
       <c r="C342" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
     </row>
     <row r="343" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
-        <v>351</v>
+        <v>223</v>
       </c>
       <c r="B343" t="s">
-        <v>285</v>
+        <v>38</v>
       </c>
       <c r="C343" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
     </row>
     <row r="344" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
-        <v>351</v>
+        <v>223</v>
       </c>
       <c r="B344" t="s">
-        <v>286</v>
+        <v>39</v>
       </c>
       <c r="C344" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
     </row>
     <row r="345" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
-        <v>351</v>
+        <v>223</v>
       </c>
       <c r="B345" t="s">
-        <v>287</v>
+        <v>40</v>
       </c>
       <c r="C345" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
     </row>
     <row r="346" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
-        <v>351</v>
+        <v>223</v>
       </c>
       <c r="B346" t="s">
-        <v>288</v>
+        <v>41</v>
       </c>
       <c r="C346" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
     </row>
     <row r="347" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
-        <v>351</v>
+        <v>223</v>
       </c>
       <c r="B347" t="s">
-        <v>289</v>
+        <v>42</v>
       </c>
       <c r="C347" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
     </row>
     <row r="348" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
-        <v>351</v>
+        <v>223</v>
       </c>
       <c r="B348" t="s">
-        <v>290</v>
+        <v>43</v>
       </c>
       <c r="C348" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
     </row>
     <row r="349" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
-        <v>351</v>
+        <v>223</v>
       </c>
       <c r="B349" t="s">
-        <v>291</v>
+        <v>44</v>
       </c>
       <c r="C349" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
     </row>
     <row r="350" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
-        <v>351</v>
+        <v>223</v>
       </c>
       <c r="B350" t="s">
-        <v>292</v>
+        <v>219</v>
       </c>
       <c r="C350" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
     </row>
     <row r="351" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
-        <v>351</v>
+        <v>223</v>
       </c>
       <c r="B351" t="s">
-        <v>293</v>
+        <v>220</v>
       </c>
       <c r="C351" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
     </row>
     <row r="352" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
-        <v>351</v>
+        <v>223</v>
       </c>
       <c r="B352" t="s">
-        <v>294</v>
+        <v>221</v>
       </c>
       <c r="C352" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
     </row>
     <row r="353" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
-        <v>351</v>
+        <v>223</v>
       </c>
       <c r="B353" t="s">
-        <v>295</v>
+        <v>222</v>
       </c>
       <c r="C353" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
     </row>
     <row r="354" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
-        <v>351</v>
+        <v>225</v>
       </c>
       <c r="B354" t="s">
-        <v>296</v>
+        <v>3</v>
       </c>
       <c r="C354" t="s">
-        <v>391</v>
+        <v>382</v>
       </c>
     </row>
     <row r="355" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
-        <v>351</v>
+        <v>225</v>
       </c>
       <c r="B355" t="s">
-        <v>297</v>
+        <v>4</v>
       </c>
       <c r="C355" t="s">
-        <v>391</v>
+        <v>382</v>
       </c>
     </row>
     <row r="356" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
-        <v>351</v>
+        <v>225</v>
       </c>
       <c r="B356" t="s">
-        <v>298</v>
+        <v>189</v>
       </c>
       <c r="C356" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
     </row>
     <row r="357" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
-        <v>351</v>
+        <v>225</v>
       </c>
       <c r="B357" t="s">
-        <v>299</v>
+        <v>12</v>
       </c>
       <c r="C357" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
     </row>
     <row r="358" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
-        <v>351</v>
+        <v>225</v>
       </c>
       <c r="B358" t="s">
-        <v>300</v>
+        <v>212</v>
       </c>
       <c r="C358" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
     </row>
     <row r="359" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
-        <v>351</v>
+        <v>225</v>
       </c>
       <c r="B359" t="s">
-        <v>301</v>
+        <v>213</v>
       </c>
       <c r="C359" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
     </row>
     <row r="360" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
-        <v>351</v>
+        <v>225</v>
       </c>
       <c r="B360" t="s">
-        <v>302</v>
+        <v>214</v>
       </c>
       <c r="C360" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
     </row>
     <row r="361" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
-        <v>351</v>
+        <v>225</v>
       </c>
       <c r="B361" t="s">
-        <v>303</v>
+        <v>224</v>
       </c>
       <c r="C361" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
     </row>
     <row r="362" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
-        <v>351</v>
+        <v>225</v>
       </c>
       <c r="B362" t="s">
-        <v>304</v>
+        <v>216</v>
       </c>
       <c r="C362" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
     </row>
     <row r="363" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
-        <v>351</v>
+        <v>225</v>
       </c>
       <c r="B363" t="s">
-        <v>305</v>
+        <v>217</v>
       </c>
       <c r="C363" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
     </row>
     <row r="364" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
-        <v>351</v>
+        <v>225</v>
       </c>
       <c r="B364" t="s">
-        <v>306</v>
+        <v>200</v>
       </c>
       <c r="C364" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
     </row>
     <row r="365" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
-        <v>351</v>
+        <v>225</v>
       </c>
       <c r="B365" t="s">
-        <v>307</v>
+        <v>218</v>
       </c>
       <c r="C365" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
     </row>
     <row r="366" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
-        <v>351</v>
+        <v>225</v>
       </c>
       <c r="B366" t="s">
-        <v>308</v>
+        <v>31</v>
       </c>
       <c r="C366" t="s">
-        <v>392</v>
+        <v>384</v>
       </c>
     </row>
     <row r="367" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
-        <v>351</v>
+        <v>225</v>
       </c>
       <c r="B367" t="s">
-        <v>309</v>
+        <v>32</v>
       </c>
       <c r="C367" t="s">
-        <v>392</v>
+        <v>384</v>
       </c>
     </row>
     <row r="368" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
-        <v>351</v>
+        <v>225</v>
       </c>
       <c r="B368" t="s">
-        <v>310</v>
+        <v>33</v>
       </c>
       <c r="C368" t="s">
-        <v>392</v>
+        <v>384</v>
       </c>
     </row>
     <row r="369" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
-        <v>351</v>
+        <v>225</v>
       </c>
       <c r="B369" t="s">
-        <v>311</v>
+        <v>34</v>
       </c>
       <c r="C369" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
     </row>
     <row r="370" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
-        <v>351</v>
+        <v>225</v>
       </c>
       <c r="B370" t="s">
-        <v>312</v>
+        <v>35</v>
       </c>
       <c r="C370" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
     </row>
     <row r="371" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
-        <v>351</v>
+        <v>225</v>
       </c>
       <c r="B371" t="s">
-        <v>313</v>
+        <v>36</v>
       </c>
       <c r="C371" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
     </row>
     <row r="372" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
-        <v>351</v>
+        <v>225</v>
       </c>
       <c r="B372" t="s">
-        <v>314</v>
+        <v>37</v>
       </c>
       <c r="C372" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
     </row>
     <row r="373" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
-        <v>351</v>
+        <v>225</v>
       </c>
       <c r="B373" t="s">
-        <v>315</v>
+        <v>38</v>
       </c>
       <c r="C373" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
     </row>
     <row r="374" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A374" t="s">
-        <v>351</v>
+        <v>225</v>
       </c>
       <c r="B374" t="s">
-        <v>316</v>
+        <v>39</v>
       </c>
       <c r="C374" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
     </row>
     <row r="375" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A375" t="s">
-        <v>351</v>
+        <v>225</v>
       </c>
       <c r="B375" t="s">
-        <v>317</v>
+        <v>40</v>
       </c>
       <c r="C375" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
     </row>
     <row r="376" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A376" t="s">
-        <v>351</v>
+        <v>225</v>
       </c>
       <c r="B376" t="s">
-        <v>318</v>
+        <v>41</v>
       </c>
       <c r="C376" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
     </row>
     <row r="377" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
-        <v>351</v>
+        <v>225</v>
       </c>
       <c r="B377" t="s">
-        <v>319</v>
+        <v>42</v>
       </c>
       <c r="C377" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
     </row>
     <row r="378" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A378" t="s">
-        <v>351</v>
+        <v>225</v>
       </c>
       <c r="B378" t="s">
-        <v>320</v>
+        <v>43</v>
       </c>
       <c r="C378" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
     </row>
     <row r="379" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A379" t="s">
-        <v>351</v>
+        <v>225</v>
       </c>
       <c r="B379" t="s">
-        <v>321</v>
+        <v>44</v>
       </c>
       <c r="C379" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
     </row>
     <row r="380" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A380" t="s">
-        <v>351</v>
+        <v>225</v>
       </c>
       <c r="B380" t="s">
-        <v>322</v>
+        <v>219</v>
       </c>
       <c r="C380" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
     </row>
     <row r="381" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A381" t="s">
-        <v>351</v>
+        <v>225</v>
       </c>
       <c r="B381" t="s">
-        <v>323</v>
+        <v>220</v>
       </c>
       <c r="C381" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
     </row>
     <row r="382" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A382" t="s">
-        <v>351</v>
+        <v>225</v>
       </c>
       <c r="B382" t="s">
-        <v>324</v>
+        <v>221</v>
       </c>
       <c r="C382" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
     </row>
     <row r="383" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A383" t="s">
-        <v>351</v>
+        <v>225</v>
       </c>
       <c r="B383" t="s">
-        <v>325</v>
+        <v>222</v>
       </c>
       <c r="C383" t="s">
-        <v>392</v>
+        <v>384</v>
       </c>
     </row>
     <row r="384" spans="1:3" x14ac:dyDescent="0.25">
@@ -5757,10 +5829,10 @@
         <v>351</v>
       </c>
       <c r="B384" t="s">
-        <v>326</v>
+        <v>226</v>
       </c>
       <c r="C384" t="s">
-        <v>392</v>
+        <v>385</v>
       </c>
     </row>
     <row r="385" spans="1:3" x14ac:dyDescent="0.25">
@@ -5768,10 +5840,10 @@
         <v>351</v>
       </c>
       <c r="B385" t="s">
-        <v>327</v>
+        <v>227</v>
       </c>
       <c r="C385" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
     </row>
     <row r="386" spans="1:3" x14ac:dyDescent="0.25">
@@ -5779,10 +5851,10 @@
         <v>351</v>
       </c>
       <c r="B386" t="s">
-        <v>328</v>
+        <v>228</v>
       </c>
       <c r="C386" t="s">
-        <v>392</v>
+        <v>384</v>
       </c>
     </row>
     <row r="387" spans="1:3" x14ac:dyDescent="0.25">
@@ -5790,10 +5862,10 @@
         <v>351</v>
       </c>
       <c r="B387" t="s">
-        <v>329</v>
+        <v>229</v>
       </c>
       <c r="C387" t="s">
-        <v>392</v>
+        <v>384</v>
       </c>
     </row>
     <row r="388" spans="1:3" x14ac:dyDescent="0.25">
@@ -5801,10 +5873,10 @@
         <v>351</v>
       </c>
       <c r="B388" t="s">
-        <v>330</v>
+        <v>230</v>
       </c>
       <c r="C388" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
     </row>
     <row r="389" spans="1:3" x14ac:dyDescent="0.25">
@@ -5812,10 +5884,10 @@
         <v>351</v>
       </c>
       <c r="B389" t="s">
-        <v>331</v>
+        <v>231</v>
       </c>
       <c r="C389" t="s">
-        <v>392</v>
+        <v>384</v>
       </c>
     </row>
     <row r="390" spans="1:3" x14ac:dyDescent="0.25">
@@ -5823,10 +5895,10 @@
         <v>351</v>
       </c>
       <c r="B390" t="s">
-        <v>332</v>
+        <v>232</v>
       </c>
       <c r="C390" t="s">
-        <v>392</v>
+        <v>384</v>
       </c>
     </row>
     <row r="391" spans="1:3" x14ac:dyDescent="0.25">
@@ -5834,10 +5906,10 @@
         <v>351</v>
       </c>
       <c r="B391" t="s">
-        <v>333</v>
+        <v>233</v>
       </c>
       <c r="C391" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
     </row>
     <row r="392" spans="1:3" x14ac:dyDescent="0.25">
@@ -5845,10 +5917,10 @@
         <v>351</v>
       </c>
       <c r="B392" t="s">
-        <v>334</v>
+        <v>234</v>
       </c>
       <c r="C392" t="s">
-        <v>392</v>
+        <v>384</v>
       </c>
     </row>
     <row r="393" spans="1:3" x14ac:dyDescent="0.25">
@@ -5856,10 +5928,10 @@
         <v>351</v>
       </c>
       <c r="B393" t="s">
-        <v>335</v>
+        <v>235</v>
       </c>
       <c r="C393" t="s">
-        <v>392</v>
+        <v>384</v>
       </c>
     </row>
     <row r="394" spans="1:3" x14ac:dyDescent="0.25">
@@ -5867,10 +5939,10 @@
         <v>351</v>
       </c>
       <c r="B394" t="s">
-        <v>336</v>
+        <v>236</v>
       </c>
       <c r="C394" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
     </row>
     <row r="395" spans="1:3" x14ac:dyDescent="0.25">
@@ -5878,10 +5950,10 @@
         <v>351</v>
       </c>
       <c r="B395" t="s">
-        <v>337</v>
+        <v>237</v>
       </c>
       <c r="C395" t="s">
-        <v>392</v>
+        <v>384</v>
       </c>
     </row>
     <row r="396" spans="1:3" x14ac:dyDescent="0.25">
@@ -5889,10 +5961,10 @@
         <v>351</v>
       </c>
       <c r="B396" t="s">
-        <v>338</v>
+        <v>238</v>
       </c>
       <c r="C396" t="s">
-        <v>392</v>
+        <v>384</v>
       </c>
     </row>
     <row r="397" spans="1:3" x14ac:dyDescent="0.25">
@@ -5900,10 +5972,10 @@
         <v>351</v>
       </c>
       <c r="B397" t="s">
-        <v>339</v>
+        <v>239</v>
       </c>
       <c r="C397" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
     </row>
     <row r="398" spans="1:3" x14ac:dyDescent="0.25">
@@ -5911,10 +5983,10 @@
         <v>351</v>
       </c>
       <c r="B398" t="s">
-        <v>340</v>
+        <v>240</v>
       </c>
       <c r="C398" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
     </row>
     <row r="399" spans="1:3" x14ac:dyDescent="0.25">
@@ -5922,10 +5994,10 @@
         <v>351</v>
       </c>
       <c r="B399" t="s">
-        <v>341</v>
+        <v>241</v>
       </c>
       <c r="C399" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
     </row>
     <row r="400" spans="1:3" x14ac:dyDescent="0.25">
@@ -5933,10 +6005,10 @@
         <v>351</v>
       </c>
       <c r="B400" t="s">
-        <v>342</v>
+        <v>242</v>
       </c>
       <c r="C400" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
     </row>
     <row r="401" spans="1:3" x14ac:dyDescent="0.25">
@@ -5944,10 +6016,10 @@
         <v>351</v>
       </c>
       <c r="B401" t="s">
-        <v>343</v>
+        <v>243</v>
       </c>
       <c r="C401" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
     </row>
     <row r="402" spans="1:3" x14ac:dyDescent="0.25">
@@ -5955,10 +6027,10 @@
         <v>351</v>
       </c>
       <c r="B402" t="s">
-        <v>344</v>
+        <v>244</v>
       </c>
       <c r="C402" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
     </row>
     <row r="403" spans="1:3" x14ac:dyDescent="0.25">
@@ -5966,10 +6038,10 @@
         <v>351</v>
       </c>
       <c r="B403" t="s">
-        <v>345</v>
+        <v>245</v>
       </c>
       <c r="C403" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
     </row>
     <row r="404" spans="1:3" x14ac:dyDescent="0.25">
@@ -5977,10 +6049,10 @@
         <v>351</v>
       </c>
       <c r="B404" t="s">
-        <v>346</v>
+        <v>246</v>
       </c>
       <c r="C404" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
     </row>
     <row r="405" spans="1:3" x14ac:dyDescent="0.25">
@@ -5988,10 +6060,10 @@
         <v>351</v>
       </c>
       <c r="B405" t="s">
-        <v>347</v>
+        <v>247</v>
       </c>
       <c r="C405" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
     </row>
     <row r="406" spans="1:3" x14ac:dyDescent="0.25">
@@ -5999,10 +6071,10 @@
         <v>351</v>
       </c>
       <c r="B406" t="s">
-        <v>348</v>
+        <v>248</v>
       </c>
       <c r="C406" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
     </row>
     <row r="407" spans="1:3" x14ac:dyDescent="0.25">
@@ -6010,10 +6082,10 @@
         <v>351</v>
       </c>
       <c r="B407" t="s">
-        <v>349</v>
+        <v>249</v>
       </c>
       <c r="C407" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
     </row>
     <row r="408" spans="1:3" x14ac:dyDescent="0.25">
@@ -6021,14 +6093,1114 @@
         <v>351</v>
       </c>
       <c r="B408" t="s">
+        <v>250</v>
+      </c>
+      <c r="C408" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="409" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A409" t="s">
+        <v>351</v>
+      </c>
+      <c r="B409" t="s">
+        <v>251</v>
+      </c>
+      <c r="C409" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="410" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A410" t="s">
+        <v>351</v>
+      </c>
+      <c r="B410" t="s">
+        <v>252</v>
+      </c>
+      <c r="C410" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="411" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A411" t="s">
+        <v>351</v>
+      </c>
+      <c r="B411" t="s">
+        <v>253</v>
+      </c>
+      <c r="C411" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="412" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A412" t="s">
+        <v>351</v>
+      </c>
+      <c r="B412" t="s">
+        <v>254</v>
+      </c>
+      <c r="C412" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="413" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A413" t="s">
+        <v>351</v>
+      </c>
+      <c r="B413" t="s">
+        <v>255</v>
+      </c>
+      <c r="C413" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="414" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A414" t="s">
+        <v>351</v>
+      </c>
+      <c r="B414" t="s">
+        <v>256</v>
+      </c>
+      <c r="C414" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="415" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A415" t="s">
+        <v>351</v>
+      </c>
+      <c r="B415" t="s">
+        <v>257</v>
+      </c>
+      <c r="C415" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="416" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A416" t="s">
+        <v>351</v>
+      </c>
+      <c r="B416" t="s">
+        <v>258</v>
+      </c>
+      <c r="C416" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="417" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A417" t="s">
+        <v>351</v>
+      </c>
+      <c r="B417" t="s">
+        <v>259</v>
+      </c>
+      <c r="C417" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="418" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A418" t="s">
+        <v>351</v>
+      </c>
+      <c r="B418" t="s">
+        <v>260</v>
+      </c>
+      <c r="C418" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="419" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A419" t="s">
+        <v>351</v>
+      </c>
+      <c r="B419" t="s">
+        <v>261</v>
+      </c>
+      <c r="C419" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="420" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A420" t="s">
+        <v>351</v>
+      </c>
+      <c r="B420" t="s">
+        <v>262</v>
+      </c>
+      <c r="C420" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="421" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A421" t="s">
+        <v>351</v>
+      </c>
+      <c r="B421" t="s">
+        <v>263</v>
+      </c>
+      <c r="C421" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="422" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A422" t="s">
+        <v>351</v>
+      </c>
+      <c r="B422" t="s">
+        <v>264</v>
+      </c>
+      <c r="C422" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="423" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A423" t="s">
+        <v>351</v>
+      </c>
+      <c r="B423" t="s">
+        <v>265</v>
+      </c>
+      <c r="C423" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="424" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A424" t="s">
+        <v>351</v>
+      </c>
+      <c r="B424" t="s">
+        <v>266</v>
+      </c>
+      <c r="C424" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="425" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A425" t="s">
+        <v>351</v>
+      </c>
+      <c r="B425" t="s">
+        <v>267</v>
+      </c>
+      <c r="C425" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="426" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A426" t="s">
+        <v>351</v>
+      </c>
+      <c r="B426" t="s">
+        <v>268</v>
+      </c>
+      <c r="C426" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="427" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A427" t="s">
+        <v>351</v>
+      </c>
+      <c r="B427" t="s">
+        <v>269</v>
+      </c>
+      <c r="C427" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="428" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A428" t="s">
+        <v>351</v>
+      </c>
+      <c r="B428" t="s">
+        <v>270</v>
+      </c>
+      <c r="C428" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="429" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A429" t="s">
+        <v>351</v>
+      </c>
+      <c r="B429" t="s">
+        <v>271</v>
+      </c>
+      <c r="C429" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="430" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A430" t="s">
+        <v>351</v>
+      </c>
+      <c r="B430" t="s">
+        <v>272</v>
+      </c>
+      <c r="C430" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="431" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A431" t="s">
+        <v>351</v>
+      </c>
+      <c r="B431" t="s">
+        <v>273</v>
+      </c>
+      <c r="C431" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="432" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A432" t="s">
+        <v>351</v>
+      </c>
+      <c r="B432" t="s">
+        <v>274</v>
+      </c>
+      <c r="C432" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="433" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A433" t="s">
+        <v>351</v>
+      </c>
+      <c r="B433" t="s">
+        <v>275</v>
+      </c>
+      <c r="C433" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="434" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A434" t="s">
+        <v>351</v>
+      </c>
+      <c r="B434" t="s">
+        <v>276</v>
+      </c>
+      <c r="C434" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="435" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A435" t="s">
+        <v>351</v>
+      </c>
+      <c r="B435" t="s">
+        <v>277</v>
+      </c>
+      <c r="C435" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="436" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A436" t="s">
+        <v>351</v>
+      </c>
+      <c r="B436" t="s">
+        <v>278</v>
+      </c>
+      <c r="C436" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="437" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A437" t="s">
+        <v>351</v>
+      </c>
+      <c r="B437" t="s">
+        <v>279</v>
+      </c>
+      <c r="C437" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="438" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A438" t="s">
+        <v>351</v>
+      </c>
+      <c r="B438" t="s">
+        <v>280</v>
+      </c>
+      <c r="C438" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="439" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A439" t="s">
+        <v>351</v>
+      </c>
+      <c r="B439" t="s">
+        <v>281</v>
+      </c>
+      <c r="C439" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="440" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A440" t="s">
+        <v>351</v>
+      </c>
+      <c r="B440" t="s">
+        <v>282</v>
+      </c>
+      <c r="C440" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="441" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A441" t="s">
+        <v>351</v>
+      </c>
+      <c r="B441" t="s">
+        <v>283</v>
+      </c>
+      <c r="C441" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="442" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A442" t="s">
+        <v>351</v>
+      </c>
+      <c r="B442" t="s">
+        <v>284</v>
+      </c>
+      <c r="C442" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="443" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A443" t="s">
+        <v>351</v>
+      </c>
+      <c r="B443" t="s">
+        <v>285</v>
+      </c>
+      <c r="C443" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="444" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A444" t="s">
+        <v>351</v>
+      </c>
+      <c r="B444" t="s">
+        <v>286</v>
+      </c>
+      <c r="C444" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="445" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A445" t="s">
+        <v>351</v>
+      </c>
+      <c r="B445" t="s">
+        <v>287</v>
+      </c>
+      <c r="C445" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="446" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A446" t="s">
+        <v>351</v>
+      </c>
+      <c r="B446" t="s">
+        <v>288</v>
+      </c>
+      <c r="C446" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="447" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A447" t="s">
+        <v>351</v>
+      </c>
+      <c r="B447" t="s">
+        <v>289</v>
+      </c>
+      <c r="C447" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="448" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A448" t="s">
+        <v>351</v>
+      </c>
+      <c r="B448" t="s">
+        <v>290</v>
+      </c>
+      <c r="C448" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="449" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A449" t="s">
+        <v>351</v>
+      </c>
+      <c r="B449" t="s">
+        <v>291</v>
+      </c>
+      <c r="C449" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="450" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A450" t="s">
+        <v>351</v>
+      </c>
+      <c r="B450" t="s">
+        <v>292</v>
+      </c>
+      <c r="C450" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="451" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A451" t="s">
+        <v>351</v>
+      </c>
+      <c r="B451" t="s">
+        <v>293</v>
+      </c>
+      <c r="C451" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="452" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A452" t="s">
+        <v>351</v>
+      </c>
+      <c r="B452" t="s">
+        <v>294</v>
+      </c>
+      <c r="C452" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="453" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A453" t="s">
+        <v>351</v>
+      </c>
+      <c r="B453" t="s">
+        <v>295</v>
+      </c>
+      <c r="C453" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="454" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A454" t="s">
+        <v>351</v>
+      </c>
+      <c r="B454" t="s">
+        <v>296</v>
+      </c>
+      <c r="C454" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="455" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A455" t="s">
+        <v>351</v>
+      </c>
+      <c r="B455" t="s">
+        <v>297</v>
+      </c>
+      <c r="C455" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="456" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A456" t="s">
+        <v>351</v>
+      </c>
+      <c r="B456" t="s">
+        <v>298</v>
+      </c>
+      <c r="C456" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="457" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A457" t="s">
+        <v>351</v>
+      </c>
+      <c r="B457" t="s">
+        <v>299</v>
+      </c>
+      <c r="C457" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="458" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A458" t="s">
+        <v>351</v>
+      </c>
+      <c r="B458" t="s">
+        <v>300</v>
+      </c>
+      <c r="C458" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="459" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A459" t="s">
+        <v>351</v>
+      </c>
+      <c r="B459" t="s">
+        <v>301</v>
+      </c>
+      <c r="C459" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="460" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A460" t="s">
+        <v>351</v>
+      </c>
+      <c r="B460" t="s">
+        <v>302</v>
+      </c>
+      <c r="C460" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="461" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A461" t="s">
+        <v>351</v>
+      </c>
+      <c r="B461" t="s">
+        <v>303</v>
+      </c>
+      <c r="C461" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="462" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A462" t="s">
+        <v>351</v>
+      </c>
+      <c r="B462" t="s">
+        <v>304</v>
+      </c>
+      <c r="C462" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="463" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A463" t="s">
+        <v>351</v>
+      </c>
+      <c r="B463" t="s">
+        <v>305</v>
+      </c>
+      <c r="C463" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="464" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A464" t="s">
+        <v>351</v>
+      </c>
+      <c r="B464" t="s">
+        <v>306</v>
+      </c>
+      <c r="C464" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="465" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A465" t="s">
+        <v>351</v>
+      </c>
+      <c r="B465" t="s">
+        <v>307</v>
+      </c>
+      <c r="C465" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="466" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A466" t="s">
+        <v>351</v>
+      </c>
+      <c r="B466" t="s">
+        <v>308</v>
+      </c>
+      <c r="C466" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="467" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A467" t="s">
+        <v>351</v>
+      </c>
+      <c r="B467" t="s">
+        <v>309</v>
+      </c>
+      <c r="C467" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="468" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A468" t="s">
+        <v>351</v>
+      </c>
+      <c r="B468" t="s">
+        <v>310</v>
+      </c>
+      <c r="C468" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="469" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A469" t="s">
+        <v>351</v>
+      </c>
+      <c r="B469" t="s">
+        <v>311</v>
+      </c>
+      <c r="C469" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="470" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A470" t="s">
+        <v>351</v>
+      </c>
+      <c r="B470" t="s">
+        <v>312</v>
+      </c>
+      <c r="C470" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="471" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A471" t="s">
+        <v>351</v>
+      </c>
+      <c r="B471" t="s">
+        <v>313</v>
+      </c>
+      <c r="C471" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="472" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A472" t="s">
+        <v>351</v>
+      </c>
+      <c r="B472" t="s">
+        <v>314</v>
+      </c>
+      <c r="C472" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="473" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A473" t="s">
+        <v>351</v>
+      </c>
+      <c r="B473" t="s">
+        <v>315</v>
+      </c>
+      <c r="C473" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="474" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A474" t="s">
+        <v>351</v>
+      </c>
+      <c r="B474" t="s">
+        <v>316</v>
+      </c>
+      <c r="C474" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="475" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A475" t="s">
+        <v>351</v>
+      </c>
+      <c r="B475" t="s">
+        <v>317</v>
+      </c>
+      <c r="C475" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="476" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A476" t="s">
+        <v>351</v>
+      </c>
+      <c r="B476" t="s">
+        <v>318</v>
+      </c>
+      <c r="C476" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="477" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A477" t="s">
+        <v>351</v>
+      </c>
+      <c r="B477" t="s">
+        <v>319</v>
+      </c>
+      <c r="C477" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="478" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A478" t="s">
+        <v>351</v>
+      </c>
+      <c r="B478" t="s">
+        <v>320</v>
+      </c>
+      <c r="C478" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="479" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A479" t="s">
+        <v>351</v>
+      </c>
+      <c r="B479" t="s">
+        <v>321</v>
+      </c>
+      <c r="C479" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="480" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A480" t="s">
+        <v>351</v>
+      </c>
+      <c r="B480" t="s">
+        <v>322</v>
+      </c>
+      <c r="C480" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="481" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A481" t="s">
+        <v>351</v>
+      </c>
+      <c r="B481" t="s">
+        <v>323</v>
+      </c>
+      <c r="C481" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="482" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A482" t="s">
+        <v>351</v>
+      </c>
+      <c r="B482" t="s">
+        <v>324</v>
+      </c>
+      <c r="C482" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="483" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A483" t="s">
+        <v>351</v>
+      </c>
+      <c r="B483" t="s">
+        <v>325</v>
+      </c>
+      <c r="C483" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="484" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A484" t="s">
+        <v>351</v>
+      </c>
+      <c r="B484" t="s">
+        <v>326</v>
+      </c>
+      <c r="C484" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="485" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A485" t="s">
+        <v>351</v>
+      </c>
+      <c r="B485" t="s">
+        <v>327</v>
+      </c>
+      <c r="C485" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="486" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A486" t="s">
+        <v>351</v>
+      </c>
+      <c r="B486" t="s">
+        <v>328</v>
+      </c>
+      <c r="C486" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="487" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A487" t="s">
+        <v>351</v>
+      </c>
+      <c r="B487" t="s">
+        <v>329</v>
+      </c>
+      <c r="C487" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="488" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A488" t="s">
+        <v>351</v>
+      </c>
+      <c r="B488" t="s">
+        <v>330</v>
+      </c>
+      <c r="C488" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="489" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A489" t="s">
+        <v>351</v>
+      </c>
+      <c r="B489" t="s">
+        <v>331</v>
+      </c>
+      <c r="C489" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="490" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A490" t="s">
+        <v>351</v>
+      </c>
+      <c r="B490" t="s">
+        <v>332</v>
+      </c>
+      <c r="C490" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="491" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A491" t="s">
+        <v>351</v>
+      </c>
+      <c r="B491" t="s">
+        <v>333</v>
+      </c>
+      <c r="C491" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="492" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A492" t="s">
+        <v>351</v>
+      </c>
+      <c r="B492" t="s">
+        <v>334</v>
+      </c>
+      <c r="C492" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="493" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A493" t="s">
+        <v>351</v>
+      </c>
+      <c r="B493" t="s">
+        <v>335</v>
+      </c>
+      <c r="C493" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="494" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A494" t="s">
+        <v>351</v>
+      </c>
+      <c r="B494" t="s">
+        <v>336</v>
+      </c>
+      <c r="C494" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="495" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A495" t="s">
+        <v>351</v>
+      </c>
+      <c r="B495" t="s">
+        <v>337</v>
+      </c>
+      <c r="C495" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="496" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A496" t="s">
+        <v>351</v>
+      </c>
+      <c r="B496" t="s">
+        <v>338</v>
+      </c>
+      <c r="C496" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="497" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A497" t="s">
+        <v>351</v>
+      </c>
+      <c r="B497" t="s">
+        <v>339</v>
+      </c>
+      <c r="C497" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="498" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A498" t="s">
+        <v>351</v>
+      </c>
+      <c r="B498" t="s">
+        <v>340</v>
+      </c>
+      <c r="C498" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="499" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A499" t="s">
+        <v>351</v>
+      </c>
+      <c r="B499" t="s">
+        <v>341</v>
+      </c>
+      <c r="C499" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="500" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A500" t="s">
+        <v>351</v>
+      </c>
+      <c r="B500" t="s">
+        <v>342</v>
+      </c>
+      <c r="C500" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="501" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A501" t="s">
+        <v>351</v>
+      </c>
+      <c r="B501" t="s">
+        <v>343</v>
+      </c>
+      <c r="C501" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="502" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A502" t="s">
+        <v>351</v>
+      </c>
+      <c r="B502" t="s">
+        <v>344</v>
+      </c>
+      <c r="C502" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="503" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A503" t="s">
+        <v>351</v>
+      </c>
+      <c r="B503" t="s">
+        <v>345</v>
+      </c>
+      <c r="C503" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="504" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A504" t="s">
+        <v>351</v>
+      </c>
+      <c r="B504" t="s">
+        <v>346</v>
+      </c>
+      <c r="C504" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="505" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A505" t="s">
+        <v>351</v>
+      </c>
+      <c r="B505" t="s">
+        <v>347</v>
+      </c>
+      <c r="C505" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="506" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A506" t="s">
+        <v>351</v>
+      </c>
+      <c r="B506" t="s">
+        <v>348</v>
+      </c>
+      <c r="C506" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="507" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A507" t="s">
+        <v>351</v>
+      </c>
+      <c r="B507" t="s">
+        <v>349</v>
+      </c>
+      <c r="C507" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="508" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A508" t="s">
+        <v>351</v>
+      </c>
+      <c r="B508" t="s">
         <v>350</v>
       </c>
-      <c r="C408" t="s">
-        <v>392</v>
+      <c r="C508" t="s">
+        <v>385</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:C408"/>
+  <autoFilter ref="A1:C508"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -6036,14 +7208,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I8"/>
+  <dimension ref="A1:I10"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="21.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="67.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="202.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -6080,7 +7254,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>369</v>
+        <v>397</v>
       </c>
       <c r="C2" t="s">
         <v>357</v>
@@ -6108,8 +7282,8 @@
       <c r="A3" t="s">
         <v>211</v>
       </c>
-      <c r="B3" t="s">
-        <v>368</v>
+      <c r="B3" s="1" t="s">
+        <v>398</v>
       </c>
       <c r="C3" t="s">
         <v>357</v>
@@ -6137,8 +7311,8 @@
       <c r="A4" t="s">
         <v>223</v>
       </c>
-      <c r="B4" t="s">
-        <v>365</v>
+      <c r="B4" s="1" t="s">
+        <v>399</v>
       </c>
       <c r="C4" t="s">
         <v>357</v>
@@ -6167,7 +7341,7 @@
         <v>225</v>
       </c>
       <c r="B5" t="s">
-        <v>366</v>
+        <v>400</v>
       </c>
       <c r="C5" t="s">
         <v>357</v>
@@ -6195,8 +7369,8 @@
       <c r="A6" t="s">
         <v>351</v>
       </c>
-      <c r="B6" t="s">
-        <v>367</v>
+      <c r="B6" s="1" t="s">
+        <v>401</v>
       </c>
       <c r="C6" t="s">
         <v>357</v>
@@ -6222,10 +7396,10 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="B7" t="s">
-        <v>370</v>
+        <v>394</v>
       </c>
       <c r="C7" t="s">
         <v>357</v>
@@ -6251,10 +7425,10 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
       <c r="B8" t="s">
-        <v>373</v>
+        <v>395</v>
       </c>
       <c r="C8" t="s">
         <v>357</v>
@@ -6278,34 +7452,102 @@
         <v>357</v>
       </c>
     </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>390</v>
+      </c>
+      <c r="B9" t="s">
+        <v>396</v>
+      </c>
+      <c r="C9" t="s">
+        <v>357</v>
+      </c>
+      <c r="D9" t="s">
+        <v>357</v>
+      </c>
+      <c r="E9" t="s">
+        <v>357</v>
+      </c>
+      <c r="F9" t="s">
+        <v>357</v>
+      </c>
+      <c r="G9" t="s">
+        <v>357</v>
+      </c>
+      <c r="H9" t="s">
+        <v>357</v>
+      </c>
+      <c r="I9" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>402</v>
+      </c>
+      <c r="B10" t="s">
+        <v>403</v>
+      </c>
+      <c r="C10" t="s">
+        <v>357</v>
+      </c>
+      <c r="D10" t="s">
+        <v>357</v>
+      </c>
+      <c r="E10" t="s">
+        <v>357</v>
+      </c>
+      <c r="F10" t="s">
+        <v>357</v>
+      </c>
+      <c r="G10" t="s">
+        <v>357</v>
+      </c>
+      <c r="H10" t="s">
+        <v>357</v>
+      </c>
+      <c r="I10" t="s">
+        <v>357</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B7" r:id="rId1" display="\\Ncr-a_irbv2s\irbv2\PHAC\IDPCB\CIRID\VIPS-SAR\EMERGENCY PREPAREDNESS AND RESPONSE HC4\EMERGENCY EVENT\WUHAN UNKNOWN PNEU - 2020\DATA AND ANALYSIS\DATABASE\MS ACCESS\OUTPUT/db_errs"/>
+    <hyperlink ref="B8" r:id="rId2" display="\\Ncr-a_irbv2s\irbv2\PHAC\IDPCB\CIRID\VIPS-SAR\EMERGENCY PREPAREDNESS AND RESPONSE HC4\EMERGENCY EVENT\WUHAN UNKNOWN PNEU - 2020\DATA AND ANALYSIS\DATABASE\MS ACCESS\OUTPUT/epi_curves"/>
+    <hyperlink ref="B9" r:id="rId3" display="\\Ncr-a_irbv2s\irbv2\PHAC\IDPCB\CIRID\VIPS-SAR\EMERGENCY PREPAREDNESS AND RESPONSE HC4\EMERGENCY EVENT\WUHAN UNKNOWN PNEU - 2020\DATA AND ANALYSIS\DATABASE\MS ACCESS\OUTPUT/by_age_prov"/>
+    <hyperlink ref="B2" r:id="rId4" display="\\Ncr-a_irbv2s\irbv2\PHAC\IDPCB\CIRID\VIPS-SAR\EMERGENCY PREPAREDNESS AND RESPONSE HC4\EMERGENCY EVENT\WUHAN UNKNOWN PNEU - 2020\DATA AND ANALYSIS\DATABASE\MS ACCESS\OUTPUT/qry"/>
+    <hyperlink ref="B3" r:id="rId5" display="\\Ncr-a_irbv2s\irbv2\PHAC\IDPCB\CIRID\VIPS-SAR\EMERGENCY PREPAREDNESS AND RESPONSE HC4\EMERGENCY EVENT\WUHAN UNKNOWN PNEU - 2020\DATA AND ANALYSIS\PHAC MODELLING\Domestic data"/>
+    <hyperlink ref="B10" r:id="rId6" display="\\Ncr-a_irbv2s\irbv2\PHAC\IDPCB\CIRID\VIPS-SAR\EMERGENCY PREPAREDNESS AND RESPONSE HC4\EMERGENCY EVENT\WUHAN UNKNOWN PNEU - 2020\DATA AND ANALYSIS\DATABASE\MS ACCESS\OUTPUT/by_age_prov"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId7"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="14.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="31.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>374</v>
+        <v>367</v>
       </c>
       <c r="B1" t="s">
+        <v>368</v>
+      </c>
+      <c r="C1" t="s">
         <v>375</v>
-      </c>
-      <c r="C1" t="s">
-        <v>382</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -6313,10 +7555,10 @@
         <v>30</v>
       </c>
       <c r="B2" t="s">
+        <v>369</v>
+      </c>
+      <c r="C2" t="s">
         <v>376</v>
-      </c>
-      <c r="C2" t="s">
-        <v>383</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -6324,10 +7566,10 @@
         <v>9</v>
       </c>
       <c r="B3" t="s">
+        <v>370</v>
+      </c>
+      <c r="C3" t="s">
         <v>377</v>
-      </c>
-      <c r="C3" t="s">
-        <v>384</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -6335,10 +7577,10 @@
         <v>201</v>
       </c>
       <c r="B4" t="s">
+        <v>371</v>
+      </c>
+      <c r="C4" t="s">
         <v>378</v>
-      </c>
-      <c r="C4" t="s">
-        <v>385</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -6346,10 +7588,10 @@
         <v>97</v>
       </c>
       <c r="B5" t="s">
+        <v>372</v>
+      </c>
+      <c r="C5" t="s">
         <v>379</v>
-      </c>
-      <c r="C5" t="s">
-        <v>386</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -6357,10 +7599,10 @@
         <v>22</v>
       </c>
       <c r="B6" t="s">
+        <v>373</v>
+      </c>
+      <c r="C6" t="s">
         <v>380</v>
-      </c>
-      <c r="C6" t="s">
-        <v>387</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -6368,10 +7610,42 @@
         <v>100</v>
       </c>
       <c r="B7" t="s">
+        <v>374</v>
+      </c>
+      <c r="C7" t="s">
         <v>381</v>
       </c>
-      <c r="C7" t="s">
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>386</v>
+      </c>
+      <c r="B8" t="s">
         <v>388</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>387</v>
+      </c>
+      <c r="B9" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>391</v>
+      </c>
+      <c r="B10" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>36</v>
+      </c>
+      <c r="B11" t="s">
+        <v>393</v>
       </c>
     </row>
   </sheetData>

--- a/end_of_day_reports_input.xlsx
+++ b/end_of_day_reports_input.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11970"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11970" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="input" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1653" uniqueCount="410">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1671" uniqueCount="418">
   <si>
     <t>report</t>
   </si>
@@ -1260,13 +1260,37 @@
   </si>
   <si>
     <t>Occupation_other</t>
+  </si>
+  <si>
+    <t>//Ncr-a_irbv2s/irbv2/PHAC/IDPCB/CIRID/VIPS-SAR/EMERGENCY PREPAREDNESS AND RESPONSE HC4/EMERGENCY EVENT/WUHAN UNKNOWN PNEU - 2020/DATA AND ANALYSIS/DATABASE/MS ACCESS/OUTPUT/percent_time</t>
+  </si>
+  <si>
+    <t>percent_by_time</t>
+  </si>
+  <si>
+    <t>ETHNICITY</t>
+  </si>
+  <si>
+    <t>Ethnicity</t>
+  </si>
+  <si>
+    <t>ASYMPTOMATIC</t>
+  </si>
+  <si>
+    <t>Current Outcome</t>
+  </si>
+  <si>
+    <t>ijn</t>
+  </si>
+  <si>
+    <t>\\Ncr-a_irbv2s\irbv2\PHAC\IDPCB\CIRID\VIPS-SAR\EMERGENCY PREPAREDNESS AND RESPONSE HC4\EMERGENCY EVENT\WUHAN UNKNOWN PNEU - 2020\DATA AND ANALYSIS\CANADA CASE REPORTS\IJN</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1287,6 +1311,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1310,13 +1340,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1600,8 +1631,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C508"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M27" sqref="M27"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7208,10 +7239,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I10"/>
+  <dimension ref="A1:I12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7346,24 +7377,6 @@
       <c r="C5" t="s">
         <v>357</v>
       </c>
-      <c r="D5" t="s">
-        <v>357</v>
-      </c>
-      <c r="E5" t="s">
-        <v>357</v>
-      </c>
-      <c r="F5" t="s">
-        <v>357</v>
-      </c>
-      <c r="G5" t="s">
-        <v>357</v>
-      </c>
-      <c r="H5" t="s">
-        <v>357</v>
-      </c>
-      <c r="I5" t="s">
-        <v>357</v>
-      </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -7507,6 +7520,64 @@
         <v>357</v>
       </c>
       <c r="I10" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>411</v>
+      </c>
+      <c r="B11" t="s">
+        <v>410</v>
+      </c>
+      <c r="C11" t="s">
+        <v>357</v>
+      </c>
+      <c r="D11" t="s">
+        <v>357</v>
+      </c>
+      <c r="E11" t="s">
+        <v>357</v>
+      </c>
+      <c r="F11" t="s">
+        <v>357</v>
+      </c>
+      <c r="G11" t="s">
+        <v>357</v>
+      </c>
+      <c r="H11" t="s">
+        <v>357</v>
+      </c>
+      <c r="I11" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>416</v>
+      </c>
+      <c r="B12" t="s">
+        <v>417</v>
+      </c>
+      <c r="C12" t="s">
+        <v>357</v>
+      </c>
+      <c r="D12" t="s">
+        <v>357</v>
+      </c>
+      <c r="E12" t="s">
+        <v>357</v>
+      </c>
+      <c r="F12" t="s">
+        <v>357</v>
+      </c>
+      <c r="G12" t="s">
+        <v>357</v>
+      </c>
+      <c r="H12" t="s">
+        <v>357</v>
+      </c>
+      <c r="I12" t="s">
         <v>357</v>
       </c>
     </row>
@@ -7518,18 +7589,19 @@
     <hyperlink ref="B2" r:id="rId4" display="\\Ncr-a_irbv2s\irbv2\PHAC\IDPCB\CIRID\VIPS-SAR\EMERGENCY PREPAREDNESS AND RESPONSE HC4\EMERGENCY EVENT\WUHAN UNKNOWN PNEU - 2020\DATA AND ANALYSIS\DATABASE\MS ACCESS\OUTPUT/qry"/>
     <hyperlink ref="B3" r:id="rId5" display="\\Ncr-a_irbv2s\irbv2\PHAC\IDPCB\CIRID\VIPS-SAR\EMERGENCY PREPAREDNESS AND RESPONSE HC4\EMERGENCY EVENT\WUHAN UNKNOWN PNEU - 2020\DATA AND ANALYSIS\PHAC MODELLING\Domestic data"/>
     <hyperlink ref="B10" r:id="rId6" display="\\Ncr-a_irbv2s\irbv2\PHAC\IDPCB\CIRID\VIPS-SAR\EMERGENCY PREPAREDNESS AND RESPONSE HC4\EMERGENCY EVENT\WUHAN UNKNOWN PNEU - 2020\DATA AND ANALYSIS\DATABASE\MS ACCESS\OUTPUT/by_age_prov"/>
+    <hyperlink ref="B11" r:id="rId7" display="\\Ncr-a_irbv2s\irbv2\PHAC\IDPCB\CIRID\VIPS-SAR\EMERGENCY PREPAREDNESS AND RESPONSE HC4\EMERGENCY EVENT\WUHAN UNKNOWN PNEU - 2020\DATA AND ANALYSIS\DATABASE\MS ACCESS\OUTPUT/epi_curves"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId7"/>
+  <pageSetup orientation="portrait" r:id="rId8"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7648,8 +7720,33 @@
         <v>393</v>
       </c>
     </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
+        <v>412</v>
+      </c>
+      <c r="B12" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
+        <v>414</v>
+      </c>
+      <c r="B13" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>109</v>
+      </c>
+      <c r="B14" t="s">
+        <v>415</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/end_of_day_reports_input.xlsx
+++ b/end_of_day_reports_input.xlsx
@@ -1670,8 +1670,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F508"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="E50" sqref="E50"/>
+    <sheetView tabSelected="1" topLeftCell="A313" workbookViewId="0">
+      <selection activeCell="D322" sqref="D322"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3575,7 +3575,7 @@
         <v>383</v>
       </c>
       <c r="D95" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="E95" t="s">
         <v>429</v>
@@ -11856,7 +11856,7 @@
   <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/end_of_day_reports_input.xlsx
+++ b/end_of_day_reports_input.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11970"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11970" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="input" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3206" uniqueCount="431">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3206" uniqueCount="432">
   <si>
     <t>report</t>
   </si>
@@ -1253,45 +1253,9 @@
     <t>CountSummary</t>
   </si>
   <si>
-    <t>C:/Users/hswerdfe/Desktop/output/Domestic data</t>
-  </si>
-  <si>
-    <t>C:/Users/hswerdfe/Desktop/output/SituationalAwareness Dashboard Daily Extract</t>
-  </si>
-  <si>
-    <t>C:/Users/hswerdfe/Desktop/output/DATA AND ANALYSIS/STATCAN</t>
-  </si>
-  <si>
-    <t>C:/Users/hswerdfe/Desktop/output/WHO</t>
-  </si>
-  <si>
-    <t>C:/Users/hswerdfe/Desktop/output/db_errs</t>
-  </si>
-  <si>
-    <t>C:/Users/hswerdfe/Desktop/output/epi_curves</t>
-  </si>
-  <si>
-    <t>C:/Users/hswerdfe/Desktop/output/by_age_prov</t>
-  </si>
-  <si>
-    <t>C:/Users/hswerdfe/Desktop/output/completeness</t>
-  </si>
-  <si>
-    <t>C:/Users/hswerdfe/Desktop/output/percent_time</t>
-  </si>
-  <si>
-    <t>C:/Users/hswerdfe/Desktop/output/IJN</t>
-  </si>
-  <si>
-    <t>C:/Users/hswerdfe/Desktop/output/CountSummary</t>
-  </si>
-  <si>
     <t>CopyLocation</t>
   </si>
   <si>
-    <t>C:/Users/hswerdfe/Desktop/output/SituationalAwareness Dashboard Daily Extract2</t>
-  </si>
-  <si>
     <t>str_to_lower</t>
   </si>
   <si>
@@ -1323,6 +1287,45 @@
   </si>
   <si>
     <t>clean_it</t>
+  </si>
+  <si>
+    <t>//Ncr-a_irbv2s/IRBV2/PHAC/IDPCB/CIRID/VIPS-SAR/EMERGENCY PREPAREDNESS AND RESPONSE HC4/EMERGENCY EVENT/WUHAN UNKNOWN PNEU - 2020/DATA AND ANALYSIS/SAS_Analysis/Domestic data</t>
+  </si>
+  <si>
+    <t>//Ncr-a_irbv2s/IRBV2/PHAC/IDPCB/CIRID/VIPS-SAR/EMERGENCY PREPAREDNESS AND RESPONSE HC4/EMERGENCY EVENT/WUHAN UNKNOWN PNEU - 2020/DATA AND ANALYSIS/PHAC MODELLING/Domestic data</t>
+  </si>
+  <si>
+    <t>//Ncr-a_irbv2s/IRBV2/PHAC/IDPCB/CIRID/VIPS-SAR/EMERGENCY PREPAREDNESS AND RESPONSE HC4/EMERGENCY EVENT/WUHAN UNKNOWN PNEU - 2020/DATA AND ANALYSIS/Data Requests/SituationalAwareness Dashboard Daily Extract</t>
+  </si>
+  <si>
+    <t>L:/HPOC/Active Events/001-20 COVID-19/Dashboard</t>
+  </si>
+  <si>
+    <t>//Ncr-a_irbv2s/IRBV2/PHAC/IDPCB/CIRID/VIPS-SAR/EMERGENCY PREPAREDNESS AND RESPONSE HC4/EMERGENCY EVENT/WUHAN UNKNOWN PNEU - 2020/DATA AND ANALYSIS/SAS_Analysis/STATCAN</t>
+  </si>
+  <si>
+    <t>//Ncr-a_irbv2s/IRBV2/PHAC/IDPCB/CIRID/VIPS-SAR/EMERGENCY PREPAREDNESS AND RESPONSE HC4/EMERGENCY EVENT/WUHAN UNKNOWN PNEU - 2020/DATA AND ANALYSIS/DATABASE/OUTPUTS/WHO</t>
+  </si>
+  <si>
+    <t>//Ncr-a_irbv2s/IRBV2/PHAC/IDPCB/CIRID/VIPS-SAR/EMERGENCY PREPAREDNESS AND RESPONSE HC4/EMERGENCY EVENT/WUHAN UNKNOWN PNEU - 2020/DATA AND ANALYSIS/DATABASE/MS ACCESS/OUTPUT/db_errs</t>
+  </si>
+  <si>
+    <t>//Ncr-a_irbv2s/IRBV2/PHAC/IDPCB/CIRID/VIPS-SAR/EMERGENCY PREPAREDNESS AND RESPONSE HC4/EMERGENCY EVENT/WUHAN UNKNOWN PNEU - 2020/DATA AND ANALYSIS/DATABASE/MS ACCESS/OUTPUT/epi_curves</t>
+  </si>
+  <si>
+    <t>//Ncr-a_irbv2s/IRBV2/PHAC/IDPCB/CIRID/VIPS-SAR/EMERGENCY PREPAREDNESS AND RESPONSE HC4/EMERGENCY EVENT/WUHAN UNKNOWN PNEU - 2020/DATA AND ANALYSIS/DATABASE/MS ACCESS/OUTPUT/by_age_prov</t>
+  </si>
+  <si>
+    <t>//Ncr-a_irbv2s/IRBV2/PHAC/IDPCB/CIRID/VIPS-SAR/EMERGENCY PREPAREDNESS AND RESPONSE HC4/EMERGENCY EVENT/WUHAN UNKNOWN PNEU - 2020/DATA AND ANALYSIS/DATABASE/MS ACCESS/OUTPUT/completeness</t>
+  </si>
+  <si>
+    <t>//Ncr-a_irbv2s/IRBV2/PHAC/IDPCB/CIRID/VIPS-SAR/EMERGENCY PREPAREDNESS AND RESPONSE HC4/EMERGENCY EVENT/WUHAN UNKNOWN PNEU - 2020/DATA AND ANALYSIS/DATABASE/MS ACCESS/OUTPUT/percent_time</t>
+  </si>
+  <si>
+    <t>//Ncr-a_irbv2s/IRBV2/PHAC/IDPCB/CIRID/VIPS-SAR/EMERGENCY PREPAREDNESS AND RESPONSE HC4/EMERGENCY EVENT/WUHAN UNKNOWN PNEU - 2020/DATA AND ANALYSIS/CANADA CASE REPORTS/IJN</t>
+  </si>
+  <si>
+    <t>//Ncr-a_irbv2s/IRBV2/PHAC/IDPCB/CIRID/VIPS-SAR/EMERGENCY PREPAREDNESS AND RESPONSE HC4/EMERGENCY EVENT/WUHAN UNKNOWN PNEU - 2020/DATA AND ANALYSIS/DATABASE/MS ACCESS/OUTPUT/CountSummary</t>
   </si>
 </sst>
 </file>
@@ -1670,8 +1673,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F508"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A313" workbookViewId="0">
-      <selection activeCell="D322" sqref="D322"/>
+    <sheetView topLeftCell="A313" workbookViewId="0">
+      <selection activeCell="E323" sqref="E323"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1692,16 +1695,16 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>430</v>
+        <v>418</v>
       </c>
       <c r="D1" t="s">
-        <v>421</v>
+        <v>409</v>
       </c>
       <c r="E1" t="s">
-        <v>422</v>
+        <v>410</v>
       </c>
       <c r="F1" t="s">
-        <v>423</v>
+        <v>411</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -1715,13 +1718,13 @@
         <v>382</v>
       </c>
       <c r="D2" t="s">
-        <v>427</v>
+        <v>415</v>
       </c>
       <c r="E2" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="F2" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -1735,13 +1738,13 @@
         <v>382</v>
       </c>
       <c r="D3" t="s">
-        <v>427</v>
+        <v>415</v>
       </c>
       <c r="E3" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="F3" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -1755,13 +1758,13 @@
         <v>382</v>
       </c>
       <c r="D4" t="s">
-        <v>427</v>
+        <v>415</v>
       </c>
       <c r="E4" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="F4" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -1775,13 +1778,13 @@
         <v>384</v>
       </c>
       <c r="D5" t="s">
-        <v>427</v>
+        <v>415</v>
       </c>
       <c r="E5" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="F5" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -1795,13 +1798,13 @@
         <v>383</v>
       </c>
       <c r="D6" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
       <c r="E6" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="F6" t="s">
-        <v>420</v>
+        <v>408</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -1815,13 +1818,13 @@
         <v>383</v>
       </c>
       <c r="D7" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
       <c r="E7" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="F7" t="s">
-        <v>420</v>
+        <v>408</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -1835,13 +1838,13 @@
         <v>384</v>
       </c>
       <c r="D8" t="s">
-        <v>425</v>
+        <v>413</v>
       </c>
       <c r="E8" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="F8" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -1855,13 +1858,13 @@
         <v>383</v>
       </c>
       <c r="D9" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
       <c r="E9" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="F9" t="s">
-        <v>420</v>
+        <v>408</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -1875,13 +1878,13 @@
         <v>383</v>
       </c>
       <c r="D10" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
       <c r="E10" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="F10" t="s">
-        <v>420</v>
+        <v>408</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -1895,13 +1898,13 @@
         <v>383</v>
       </c>
       <c r="D11" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
       <c r="E11" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="F11" t="s">
-        <v>420</v>
+        <v>408</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -1915,13 +1918,13 @@
         <v>383</v>
       </c>
       <c r="D12" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
       <c r="E12" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="F12" t="s">
-        <v>420</v>
+        <v>408</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -1935,13 +1938,13 @@
         <v>383</v>
       </c>
       <c r="D13" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
       <c r="E13" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="F13" t="s">
-        <v>420</v>
+        <v>408</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -1955,13 +1958,13 @@
         <v>384</v>
       </c>
       <c r="D14" t="s">
-        <v>425</v>
+        <v>413</v>
       </c>
       <c r="E14" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="F14" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -1975,13 +1978,13 @@
         <v>384</v>
       </c>
       <c r="D15" t="s">
-        <v>425</v>
+        <v>413</v>
       </c>
       <c r="E15" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="F15" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -1995,13 +1998,13 @@
         <v>383</v>
       </c>
       <c r="D16" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
       <c r="E16" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="F16" t="s">
-        <v>420</v>
+        <v>408</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -2015,13 +2018,13 @@
         <v>383</v>
       </c>
       <c r="D17" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
       <c r="E17" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="F17" t="s">
-        <v>420</v>
+        <v>408</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -2035,13 +2038,13 @@
         <v>383</v>
       </c>
       <c r="D18" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
       <c r="E18" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="F18" t="s">
-        <v>420</v>
+        <v>408</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -2055,13 +2058,13 @@
         <v>383</v>
       </c>
       <c r="D19" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
       <c r="E19" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="F19" t="s">
-        <v>420</v>
+        <v>408</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -2075,13 +2078,13 @@
         <v>383</v>
       </c>
       <c r="D20" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
       <c r="E20" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="F20" t="s">
-        <v>420</v>
+        <v>408</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -2095,13 +2098,13 @@
         <v>383</v>
       </c>
       <c r="D21" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
       <c r="E21" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="F21" t="s">
-        <v>420</v>
+        <v>408</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -2115,13 +2118,13 @@
         <v>383</v>
       </c>
       <c r="D22" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
       <c r="E22" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="F22" t="s">
-        <v>420</v>
+        <v>408</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -2135,13 +2138,13 @@
         <v>383</v>
       </c>
       <c r="D23" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
       <c r="E23" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="F23" t="s">
-        <v>420</v>
+        <v>408</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -2155,13 +2158,13 @@
         <v>383</v>
       </c>
       <c r="D24" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
       <c r="E24" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="F24" t="s">
-        <v>420</v>
+        <v>408</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -2175,13 +2178,13 @@
         <v>383</v>
       </c>
       <c r="D25" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
       <c r="E25" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="F25" t="s">
-        <v>420</v>
+        <v>408</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -2195,13 +2198,13 @@
         <v>383</v>
       </c>
       <c r="D26" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
       <c r="E26" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="F26" t="s">
-        <v>420</v>
+        <v>408</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
@@ -2215,13 +2218,13 @@
         <v>383</v>
       </c>
       <c r="D27" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
       <c r="E27" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="F27" t="s">
-        <v>420</v>
+        <v>408</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
@@ -2235,13 +2238,13 @@
         <v>383</v>
       </c>
       <c r="D28" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
       <c r="E28" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="F28" t="s">
-        <v>420</v>
+        <v>408</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
@@ -2255,13 +2258,13 @@
         <v>384</v>
       </c>
       <c r="D29" t="s">
-        <v>425</v>
+        <v>413</v>
       </c>
       <c r="E29" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="F29" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
@@ -2275,13 +2278,13 @@
         <v>383</v>
       </c>
       <c r="D30" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
       <c r="E30" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="F30" t="s">
-        <v>420</v>
+        <v>408</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
@@ -2295,13 +2298,13 @@
         <v>383</v>
       </c>
       <c r="D31" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
       <c r="E31" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="F31" t="s">
-        <v>420</v>
+        <v>408</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
@@ -2315,13 +2318,13 @@
         <v>383</v>
       </c>
       <c r="D32" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
       <c r="E32" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="F32" t="s">
-        <v>420</v>
+        <v>408</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
@@ -2335,13 +2338,13 @@
         <v>383</v>
       </c>
       <c r="D33" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
       <c r="E33" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="F33" t="s">
-        <v>420</v>
+        <v>408</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
@@ -2355,13 +2358,13 @@
         <v>383</v>
       </c>
       <c r="D34" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
       <c r="E34" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="F34" t="s">
-        <v>420</v>
+        <v>408</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
@@ -2375,13 +2378,13 @@
         <v>383</v>
       </c>
       <c r="D35" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
       <c r="E35" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="F35" t="s">
-        <v>420</v>
+        <v>408</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
@@ -2395,13 +2398,13 @@
         <v>383</v>
       </c>
       <c r="D36" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
       <c r="E36" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="F36" t="s">
-        <v>420</v>
+        <v>408</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
@@ -2415,13 +2418,13 @@
         <v>383</v>
       </c>
       <c r="D37" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
       <c r="E37" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="F37" t="s">
-        <v>420</v>
+        <v>408</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
@@ -2435,13 +2438,13 @@
         <v>383</v>
       </c>
       <c r="D38" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
       <c r="E38" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="F38" t="s">
-        <v>420</v>
+        <v>408</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
@@ -2455,13 +2458,13 @@
         <v>383</v>
       </c>
       <c r="D39" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
       <c r="E39" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="F39" t="s">
-        <v>420</v>
+        <v>408</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
@@ -2475,13 +2478,13 @@
         <v>383</v>
       </c>
       <c r="D40" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
       <c r="E40" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="F40" t="s">
-        <v>420</v>
+        <v>408</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
@@ -2495,13 +2498,13 @@
         <v>383</v>
       </c>
       <c r="D41" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
       <c r="E41" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="F41" t="s">
-        <v>420</v>
+        <v>408</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
@@ -2515,13 +2518,13 @@
         <v>384</v>
       </c>
       <c r="D42" t="s">
-        <v>425</v>
+        <v>413</v>
       </c>
       <c r="E42" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="F42" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
@@ -2535,13 +2538,13 @@
         <v>383</v>
       </c>
       <c r="D43" t="s">
-        <v>424</v>
+        <v>412</v>
       </c>
       <c r="E43" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="F43" t="s">
-        <v>420</v>
+        <v>408</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
@@ -2555,13 +2558,13 @@
         <v>383</v>
       </c>
       <c r="D44" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
       <c r="E44" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="F44" t="s">
-        <v>420</v>
+        <v>408</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
@@ -2575,13 +2578,13 @@
         <v>383</v>
       </c>
       <c r="D45" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
       <c r="E45" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="F45" t="s">
-        <v>420</v>
+        <v>408</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
@@ -2595,13 +2598,13 @@
         <v>383</v>
       </c>
       <c r="D46" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
       <c r="E46" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="F46" t="s">
-        <v>420</v>
+        <v>408</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
@@ -2615,13 +2618,13 @@
         <v>383</v>
       </c>
       <c r="D47" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
       <c r="E47" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="F47" t="s">
-        <v>420</v>
+        <v>408</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
@@ -2635,13 +2638,13 @@
         <v>383</v>
       </c>
       <c r="D48" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
       <c r="E48" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="F48" t="s">
-        <v>420</v>
+        <v>408</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
@@ -2655,13 +2658,13 @@
         <v>383</v>
       </c>
       <c r="D49" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
       <c r="E49" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="F49" t="s">
-        <v>420</v>
+        <v>408</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
@@ -2675,13 +2678,13 @@
         <v>383</v>
       </c>
       <c r="D50" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
       <c r="E50" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="F50" t="s">
-        <v>420</v>
+        <v>408</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
@@ -2695,13 +2698,13 @@
         <v>383</v>
       </c>
       <c r="D51" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
       <c r="E51" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="F51" t="s">
-        <v>420</v>
+        <v>408</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
@@ -2715,13 +2718,13 @@
         <v>383</v>
       </c>
       <c r="D52" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
       <c r="E52" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="F52" t="s">
-        <v>420</v>
+        <v>408</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
@@ -2735,13 +2738,13 @@
         <v>383</v>
       </c>
       <c r="D53" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
       <c r="E53" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="F53" t="s">
-        <v>420</v>
+        <v>408</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
@@ -2755,13 +2758,13 @@
         <v>383</v>
       </c>
       <c r="D54" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
       <c r="E54" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="F54" t="s">
-        <v>420</v>
+        <v>408</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
@@ -2775,13 +2778,13 @@
         <v>383</v>
       </c>
       <c r="D55" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
       <c r="E55" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="F55" t="s">
-        <v>420</v>
+        <v>408</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
@@ -2795,13 +2798,13 @@
         <v>383</v>
       </c>
       <c r="D56" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
       <c r="E56" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="F56" t="s">
-        <v>420</v>
+        <v>408</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
@@ -2815,13 +2818,13 @@
         <v>383</v>
       </c>
       <c r="D57" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
       <c r="E57" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="F57" t="s">
-        <v>420</v>
+        <v>408</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
@@ -2835,13 +2838,13 @@
         <v>383</v>
       </c>
       <c r="D58" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
       <c r="E58" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="F58" t="s">
-        <v>420</v>
+        <v>408</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
@@ -2855,13 +2858,13 @@
         <v>383</v>
       </c>
       <c r="D59" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
       <c r="E59" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="F59" t="s">
-        <v>420</v>
+        <v>408</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
@@ -2875,13 +2878,13 @@
         <v>383</v>
       </c>
       <c r="D60" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
       <c r="E60" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="F60" t="s">
-        <v>420</v>
+        <v>408</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
@@ -2895,13 +2898,13 @@
         <v>383</v>
       </c>
       <c r="D61" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
       <c r="E61" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="F61" t="s">
-        <v>420</v>
+        <v>408</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
@@ -2915,13 +2918,13 @@
         <v>383</v>
       </c>
       <c r="D62" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
       <c r="E62" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="F62" t="s">
-        <v>420</v>
+        <v>408</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
@@ -2935,13 +2938,13 @@
         <v>383</v>
       </c>
       <c r="D63" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
       <c r="E63" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="F63" t="s">
-        <v>420</v>
+        <v>408</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
@@ -2955,13 +2958,13 @@
         <v>383</v>
       </c>
       <c r="D64" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
       <c r="E64" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="F64" t="s">
-        <v>420</v>
+        <v>408</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
@@ -2975,13 +2978,13 @@
         <v>383</v>
       </c>
       <c r="D65" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
       <c r="E65" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="F65" t="s">
-        <v>420</v>
+        <v>408</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
@@ -2995,13 +2998,13 @@
         <v>383</v>
       </c>
       <c r="D66" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
       <c r="E66" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="F66" t="s">
-        <v>420</v>
+        <v>408</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
@@ -3015,13 +3018,13 @@
         <v>383</v>
       </c>
       <c r="D67" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
       <c r="E67" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="F67" t="s">
-        <v>420</v>
+        <v>408</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
@@ -3035,13 +3038,13 @@
         <v>383</v>
       </c>
       <c r="D68" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
       <c r="E68" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="F68" t="s">
-        <v>420</v>
+        <v>408</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
@@ -3055,13 +3058,13 @@
         <v>383</v>
       </c>
       <c r="D69" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
       <c r="E69" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="F69" t="s">
-        <v>420</v>
+        <v>408</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
@@ -3075,13 +3078,13 @@
         <v>383</v>
       </c>
       <c r="D70" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
       <c r="E70" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="F70" t="s">
-        <v>420</v>
+        <v>408</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
@@ -3095,13 +3098,13 @@
         <v>383</v>
       </c>
       <c r="D71" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
       <c r="E71" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="F71" t="s">
-        <v>420</v>
+        <v>408</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
@@ -3115,13 +3118,13 @@
         <v>383</v>
       </c>
       <c r="D72" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
       <c r="E72" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="F72" t="s">
-        <v>420</v>
+        <v>408</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
@@ -3135,13 +3138,13 @@
         <v>383</v>
       </c>
       <c r="D73" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
       <c r="E73" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="F73" t="s">
-        <v>420</v>
+        <v>408</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
@@ -3155,13 +3158,13 @@
         <v>383</v>
       </c>
       <c r="D74" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
       <c r="E74" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="F74" t="s">
-        <v>420</v>
+        <v>408</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
@@ -3175,13 +3178,13 @@
         <v>383</v>
       </c>
       <c r="D75" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
       <c r="E75" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="F75" t="s">
-        <v>420</v>
+        <v>408</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
@@ -3195,13 +3198,13 @@
         <v>383</v>
       </c>
       <c r="D76" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
       <c r="E76" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="F76" t="s">
-        <v>420</v>
+        <v>408</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
@@ -3215,13 +3218,13 @@
         <v>383</v>
       </c>
       <c r="D77" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
       <c r="E77" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="F77" t="s">
-        <v>420</v>
+        <v>408</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
@@ -3235,13 +3238,13 @@
         <v>383</v>
       </c>
       <c r="D78" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
       <c r="E78" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="F78" t="s">
-        <v>420</v>
+        <v>408</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
@@ -3255,13 +3258,13 @@
         <v>383</v>
       </c>
       <c r="D79" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
       <c r="E79" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="F79" t="s">
-        <v>420</v>
+        <v>408</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
@@ -3275,13 +3278,13 @@
         <v>383</v>
       </c>
       <c r="D80" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
       <c r="E80" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="F80" t="s">
-        <v>420</v>
+        <v>408</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
@@ -3295,13 +3298,13 @@
         <v>383</v>
       </c>
       <c r="D81" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
       <c r="E81" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="F81" t="s">
-        <v>420</v>
+        <v>408</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
@@ -3315,13 +3318,13 @@
         <v>383</v>
       </c>
       <c r="D82" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
       <c r="E82" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="F82" t="s">
-        <v>420</v>
+        <v>408</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
@@ -3335,13 +3338,13 @@
         <v>383</v>
       </c>
       <c r="D83" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
       <c r="E83" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="F83" t="s">
-        <v>420</v>
+        <v>408</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
@@ -3355,13 +3358,13 @@
         <v>383</v>
       </c>
       <c r="D84" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
       <c r="E84" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="F84" t="s">
-        <v>420</v>
+        <v>408</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
@@ -3375,13 +3378,13 @@
         <v>383</v>
       </c>
       <c r="D85" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
       <c r="E85" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="F85" t="s">
-        <v>420</v>
+        <v>408</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
@@ -3395,13 +3398,13 @@
         <v>383</v>
       </c>
       <c r="D86" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
       <c r="E86" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="F86" t="s">
-        <v>420</v>
+        <v>408</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
@@ -3415,13 +3418,13 @@
         <v>383</v>
       </c>
       <c r="D87" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
       <c r="E87" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="F87" t="s">
-        <v>420</v>
+        <v>408</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
@@ -3435,13 +3438,13 @@
         <v>383</v>
       </c>
       <c r="D88" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
       <c r="E88" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="F88" t="s">
-        <v>420</v>
+        <v>408</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
@@ -3455,13 +3458,13 @@
         <v>383</v>
       </c>
       <c r="D89" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
       <c r="E89" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="F89" t="s">
-        <v>420</v>
+        <v>408</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
@@ -3475,13 +3478,13 @@
         <v>383</v>
       </c>
       <c r="D90" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
       <c r="E90" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="F90" t="s">
-        <v>420</v>
+        <v>408</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
@@ -3495,13 +3498,13 @@
         <v>383</v>
       </c>
       <c r="D91" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
       <c r="E91" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="F91" t="s">
-        <v>420</v>
+        <v>408</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
@@ -3515,13 +3518,13 @@
         <v>383</v>
       </c>
       <c r="D92" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
       <c r="E92" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="F92" t="s">
-        <v>420</v>
+        <v>408</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
@@ -3535,13 +3538,13 @@
         <v>383</v>
       </c>
       <c r="D93" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
       <c r="E93" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="F93" t="s">
-        <v>420</v>
+        <v>408</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
@@ -3555,13 +3558,13 @@
         <v>383</v>
       </c>
       <c r="D94" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
       <c r="E94" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="F94" t="s">
-        <v>420</v>
+        <v>408</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
@@ -3575,13 +3578,13 @@
         <v>383</v>
       </c>
       <c r="D95" t="s">
-        <v>424</v>
+        <v>412</v>
       </c>
       <c r="E95" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="F95" t="s">
-        <v>420</v>
+        <v>408</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
@@ -3595,13 +3598,13 @@
         <v>383</v>
       </c>
       <c r="D96" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
       <c r="E96" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="F96" t="s">
-        <v>420</v>
+        <v>408</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.25">
@@ -3615,13 +3618,13 @@
         <v>384</v>
       </c>
       <c r="D97" t="s">
-        <v>425</v>
+        <v>413</v>
       </c>
       <c r="E97" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="F97" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.25">
@@ -3635,13 +3638,13 @@
         <v>384</v>
       </c>
       <c r="D98" t="s">
-        <v>425</v>
+        <v>413</v>
       </c>
       <c r="E98" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="F98" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.25">
@@ -3655,13 +3658,13 @@
         <v>383</v>
       </c>
       <c r="D99" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
       <c r="E99" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="F99" t="s">
-        <v>420</v>
+        <v>408</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.25">
@@ -3675,13 +3678,13 @@
         <v>384</v>
       </c>
       <c r="D100" t="s">
-        <v>425</v>
+        <v>413</v>
       </c>
       <c r="E100" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="F100" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.25">
@@ -3695,13 +3698,13 @@
         <v>384</v>
       </c>
       <c r="D101" t="s">
-        <v>425</v>
+        <v>413</v>
       </c>
       <c r="E101" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="F101" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.25">
@@ -3715,13 +3718,13 @@
         <v>383</v>
       </c>
       <c r="D102" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
       <c r="E102" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="F102" t="s">
-        <v>420</v>
+        <v>408</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.25">
@@ -3735,13 +3738,13 @@
         <v>384</v>
       </c>
       <c r="D103" t="s">
-        <v>425</v>
+        <v>413</v>
       </c>
       <c r="E103" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="F103" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.25">
@@ -3755,13 +3758,13 @@
         <v>384</v>
       </c>
       <c r="D104" t="s">
-        <v>425</v>
+        <v>413</v>
       </c>
       <c r="E104" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="F104" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.25">
@@ -3775,13 +3778,13 @@
         <v>383</v>
       </c>
       <c r="D105" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
       <c r="E105" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="F105" t="s">
-        <v>420</v>
+        <v>408</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.25">
@@ -3795,13 +3798,13 @@
         <v>384</v>
       </c>
       <c r="D106" t="s">
-        <v>425</v>
+        <v>413</v>
       </c>
       <c r="E106" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="F106" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.25">
@@ -3815,13 +3818,13 @@
         <v>384</v>
       </c>
       <c r="D107" t="s">
-        <v>425</v>
+        <v>413</v>
       </c>
       <c r="E107" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="F107" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.25">
@@ -3835,13 +3838,13 @@
         <v>383</v>
       </c>
       <c r="D108" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
       <c r="E108" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="F108" t="s">
-        <v>420</v>
+        <v>408</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.25">
@@ -3855,13 +3858,13 @@
         <v>384</v>
       </c>
       <c r="D109" t="s">
-        <v>425</v>
+        <v>413</v>
       </c>
       <c r="E109" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="F109" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.25">
@@ -3875,13 +3878,13 @@
         <v>383</v>
       </c>
       <c r="D110" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
       <c r="E110" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="F110" t="s">
-        <v>420</v>
+        <v>408</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.25">
@@ -3895,13 +3898,13 @@
         <v>383</v>
       </c>
       <c r="D111" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
       <c r="E111" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="F111" t="s">
-        <v>420</v>
+        <v>408</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.25">
@@ -3915,13 +3918,13 @@
         <v>384</v>
       </c>
       <c r="D112" t="s">
-        <v>425</v>
+        <v>413</v>
       </c>
       <c r="E112" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="F112" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.25">
@@ -3935,13 +3938,13 @@
         <v>383</v>
       </c>
       <c r="D113" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
       <c r="E113" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="F113" t="s">
-        <v>420</v>
+        <v>408</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.25">
@@ -3955,13 +3958,13 @@
         <v>383</v>
       </c>
       <c r="D114" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
       <c r="E114" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="F114" t="s">
-        <v>420</v>
+        <v>408</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.25">
@@ -3975,13 +3978,13 @@
         <v>383</v>
       </c>
       <c r="D115" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
       <c r="E115" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="F115" t="s">
-        <v>420</v>
+        <v>408</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.25">
@@ -3995,13 +3998,13 @@
         <v>383</v>
       </c>
       <c r="D116" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
       <c r="E116" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="F116" t="s">
-        <v>420</v>
+        <v>408</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.25">
@@ -4015,13 +4018,13 @@
         <v>383</v>
       </c>
       <c r="D117" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
       <c r="E117" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="F117" t="s">
-        <v>420</v>
+        <v>408</v>
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.25">
@@ -4035,13 +4038,13 @@
         <v>383</v>
       </c>
       <c r="D118" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
       <c r="E118" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="F118" t="s">
-        <v>420</v>
+        <v>408</v>
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.25">
@@ -4055,13 +4058,13 @@
         <v>384</v>
       </c>
       <c r="D119" t="s">
-        <v>425</v>
+        <v>413</v>
       </c>
       <c r="E119" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="F119" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.25">
@@ -4075,13 +4078,13 @@
         <v>384</v>
       </c>
       <c r="D120" t="s">
-        <v>425</v>
+        <v>413</v>
       </c>
       <c r="E120" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="F120" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.25">
@@ -4095,13 +4098,13 @@
         <v>383</v>
       </c>
       <c r="D121" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
       <c r="E121" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="F121" t="s">
-        <v>420</v>
+        <v>408</v>
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.25">
@@ -4115,13 +4118,13 @@
         <v>383</v>
       </c>
       <c r="D122" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
       <c r="E122" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="F122" t="s">
-        <v>420</v>
+        <v>408</v>
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.25">
@@ -4135,13 +4138,13 @@
         <v>383</v>
       </c>
       <c r="D123" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
       <c r="E123" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="F123" t="s">
-        <v>420</v>
+        <v>408</v>
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.25">
@@ -4155,13 +4158,13 @@
         <v>383</v>
       </c>
       <c r="D124" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
       <c r="E124" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="F124" t="s">
-        <v>420</v>
+        <v>408</v>
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.25">
@@ -4175,13 +4178,13 @@
         <v>383</v>
       </c>
       <c r="D125" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
       <c r="E125" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="F125" t="s">
-        <v>420</v>
+        <v>408</v>
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.25">
@@ -4195,13 +4198,13 @@
         <v>383</v>
       </c>
       <c r="D126" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
       <c r="E126" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="F126" t="s">
-        <v>420</v>
+        <v>408</v>
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.25">
@@ -4215,13 +4218,13 @@
         <v>384</v>
       </c>
       <c r="D127" t="s">
-        <v>425</v>
+        <v>413</v>
       </c>
       <c r="E127" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="F127" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.25">
@@ -4235,13 +4238,13 @@
         <v>384</v>
       </c>
       <c r="D128" t="s">
-        <v>425</v>
+        <v>413</v>
       </c>
       <c r="E128" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="F128" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.25">
@@ -4255,13 +4258,13 @@
         <v>383</v>
       </c>
       <c r="D129" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
       <c r="E129" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="F129" t="s">
-        <v>420</v>
+        <v>408</v>
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.25">
@@ -4275,13 +4278,13 @@
         <v>383</v>
       </c>
       <c r="D130" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
       <c r="E130" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="F130" t="s">
-        <v>420</v>
+        <v>408</v>
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.25">
@@ -4295,13 +4298,13 @@
         <v>383</v>
       </c>
       <c r="D131" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
       <c r="E131" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="F131" t="s">
-        <v>420</v>
+        <v>408</v>
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.25">
@@ -4315,13 +4318,13 @@
         <v>383</v>
       </c>
       <c r="D132" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
       <c r="E132" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="F132" t="s">
-        <v>420</v>
+        <v>408</v>
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.25">
@@ -4335,13 +4338,13 @@
         <v>383</v>
       </c>
       <c r="D133" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
       <c r="E133" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="F133" t="s">
-        <v>420</v>
+        <v>408</v>
       </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.25">
@@ -4355,13 +4358,13 @@
         <v>383</v>
       </c>
       <c r="D134" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
       <c r="E134" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="F134" t="s">
-        <v>420</v>
+        <v>408</v>
       </c>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.25">
@@ -4375,13 +4378,13 @@
         <v>384</v>
       </c>
       <c r="D135" t="s">
-        <v>425</v>
+        <v>413</v>
       </c>
       <c r="E135" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="F135" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.25">
@@ -4395,13 +4398,13 @@
         <v>384</v>
       </c>
       <c r="D136" t="s">
-        <v>425</v>
+        <v>413</v>
       </c>
       <c r="E136" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="F136" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.25">
@@ -4415,13 +4418,13 @@
         <v>383</v>
       </c>
       <c r="D137" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
       <c r="E137" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="F137" t="s">
-        <v>420</v>
+        <v>408</v>
       </c>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.25">
@@ -4435,13 +4438,13 @@
         <v>383</v>
       </c>
       <c r="D138" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
       <c r="E138" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="F138" t="s">
-        <v>420</v>
+        <v>408</v>
       </c>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.25">
@@ -4455,13 +4458,13 @@
         <v>383</v>
       </c>
       <c r="D139" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
       <c r="E139" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="F139" t="s">
-        <v>420</v>
+        <v>408</v>
       </c>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.25">
@@ -4475,13 +4478,13 @@
         <v>383</v>
       </c>
       <c r="D140" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
       <c r="E140" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="F140" t="s">
-        <v>420</v>
+        <v>408</v>
       </c>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.25">
@@ -4495,13 +4498,13 @@
         <v>383</v>
       </c>
       <c r="D141" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
       <c r="E141" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="F141" t="s">
-        <v>420</v>
+        <v>408</v>
       </c>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.25">
@@ -4515,13 +4518,13 @@
         <v>383</v>
       </c>
       <c r="D142" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
       <c r="E142" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="F142" t="s">
-        <v>420</v>
+        <v>408</v>
       </c>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.25">
@@ -4535,13 +4538,13 @@
         <v>384</v>
       </c>
       <c r="D143" t="s">
-        <v>425</v>
+        <v>413</v>
       </c>
       <c r="E143" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="F143" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.25">
@@ -4555,13 +4558,13 @@
         <v>384</v>
       </c>
       <c r="D144" t="s">
-        <v>425</v>
+        <v>413</v>
       </c>
       <c r="E144" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="F144" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.25">
@@ -4575,13 +4578,13 @@
         <v>383</v>
       </c>
       <c r="D145" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
       <c r="E145" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="F145" t="s">
-        <v>420</v>
+        <v>408</v>
       </c>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.25">
@@ -4595,13 +4598,13 @@
         <v>383</v>
       </c>
       <c r="D146" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
       <c r="E146" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="F146" t="s">
-        <v>420</v>
+        <v>408</v>
       </c>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.25">
@@ -4615,13 +4618,13 @@
         <v>383</v>
       </c>
       <c r="D147" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
       <c r="E147" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="F147" t="s">
-        <v>420</v>
+        <v>408</v>
       </c>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.25">
@@ -4635,13 +4638,13 @@
         <v>383</v>
       </c>
       <c r="D148" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
       <c r="E148" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="F148" t="s">
-        <v>420</v>
+        <v>408</v>
       </c>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.25">
@@ -4655,13 +4658,13 @@
         <v>383</v>
       </c>
       <c r="D149" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
       <c r="E149" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="F149" t="s">
-        <v>420</v>
+        <v>408</v>
       </c>
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.25">
@@ -4675,13 +4678,13 @@
         <v>383</v>
       </c>
       <c r="D150" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
       <c r="E150" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="F150" t="s">
-        <v>420</v>
+        <v>408</v>
       </c>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.25">
@@ -4695,13 +4698,13 @@
         <v>384</v>
       </c>
       <c r="D151" t="s">
-        <v>425</v>
+        <v>413</v>
       </c>
       <c r="E151" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="F151" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.25">
@@ -4715,13 +4718,13 @@
         <v>384</v>
       </c>
       <c r="D152" t="s">
-        <v>425</v>
+        <v>413</v>
       </c>
       <c r="E152" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="F152" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.25">
@@ -4735,13 +4738,13 @@
         <v>383</v>
       </c>
       <c r="D153" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
       <c r="E153" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="F153" t="s">
-        <v>420</v>
+        <v>408</v>
       </c>
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.25">
@@ -4755,13 +4758,13 @@
         <v>383</v>
       </c>
       <c r="D154" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
       <c r="E154" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="F154" t="s">
-        <v>420</v>
+        <v>408</v>
       </c>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.25">
@@ -4775,13 +4778,13 @@
         <v>383</v>
       </c>
       <c r="D155" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
       <c r="E155" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="F155" t="s">
-        <v>420</v>
+        <v>408</v>
       </c>
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.25">
@@ -4795,13 +4798,13 @@
         <v>383</v>
       </c>
       <c r="D156" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
       <c r="E156" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="F156" t="s">
-        <v>420</v>
+        <v>408</v>
       </c>
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.25">
@@ -4815,13 +4818,13 @@
         <v>383</v>
       </c>
       <c r="D157" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
       <c r="E157" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="F157" t="s">
-        <v>420</v>
+        <v>408</v>
       </c>
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.25">
@@ -4835,13 +4838,13 @@
         <v>383</v>
       </c>
       <c r="D158" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
       <c r="E158" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="F158" t="s">
-        <v>420</v>
+        <v>408</v>
       </c>
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.25">
@@ -4855,13 +4858,13 @@
         <v>384</v>
       </c>
       <c r="D159" t="s">
-        <v>425</v>
+        <v>413</v>
       </c>
       <c r="E159" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="F159" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.25">
@@ -4875,13 +4878,13 @@
         <v>384</v>
       </c>
       <c r="D160" t="s">
-        <v>425</v>
+        <v>413</v>
       </c>
       <c r="E160" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="F160" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.25">
@@ -4895,13 +4898,13 @@
         <v>383</v>
       </c>
       <c r="D161" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
       <c r="E161" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="F161" t="s">
-        <v>420</v>
+        <v>408</v>
       </c>
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.25">
@@ -4915,13 +4918,13 @@
         <v>383</v>
       </c>
       <c r="D162" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
       <c r="E162" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="F162" t="s">
-        <v>420</v>
+        <v>408</v>
       </c>
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.25">
@@ -4935,13 +4938,13 @@
         <v>383</v>
       </c>
       <c r="D163" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
       <c r="E163" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="F163" t="s">
-        <v>420</v>
+        <v>408</v>
       </c>
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.25">
@@ -4955,13 +4958,13 @@
         <v>383</v>
       </c>
       <c r="D164" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
       <c r="E164" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="F164" t="s">
-        <v>420</v>
+        <v>408</v>
       </c>
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.25">
@@ -4975,13 +4978,13 @@
         <v>383</v>
       </c>
       <c r="D165" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
       <c r="E165" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="F165" t="s">
-        <v>420</v>
+        <v>408</v>
       </c>
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.25">
@@ -4995,13 +4998,13 @@
         <v>383</v>
       </c>
       <c r="D166" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
       <c r="E166" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="F166" t="s">
-        <v>420</v>
+        <v>408</v>
       </c>
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.25">
@@ -5015,13 +5018,13 @@
         <v>383</v>
       </c>
       <c r="D167" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
       <c r="E167" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="F167" t="s">
-        <v>420</v>
+        <v>408</v>
       </c>
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.25">
@@ -5035,13 +5038,13 @@
         <v>384</v>
       </c>
       <c r="D168" t="s">
-        <v>425</v>
+        <v>413</v>
       </c>
       <c r="E168" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="F168" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.25">
@@ -5055,13 +5058,13 @@
         <v>383</v>
       </c>
       <c r="D169" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
       <c r="E169" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="F169" t="s">
-        <v>420</v>
+        <v>408</v>
       </c>
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.25">
@@ -5075,13 +5078,13 @@
         <v>383</v>
       </c>
       <c r="D170" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
       <c r="E170" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="F170" t="s">
-        <v>420</v>
+        <v>408</v>
       </c>
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.25">
@@ -5095,13 +5098,13 @@
         <v>383</v>
       </c>
       <c r="D171" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
       <c r="E171" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="F171" t="s">
-        <v>420</v>
+        <v>408</v>
       </c>
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.25">
@@ -5115,13 +5118,13 @@
         <v>383</v>
       </c>
       <c r="D172" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
       <c r="E172" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="F172" t="s">
-        <v>420</v>
+        <v>408</v>
       </c>
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.25">
@@ -5135,13 +5138,13 @@
         <v>383</v>
       </c>
       <c r="D173" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
       <c r="E173" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="F173" t="s">
-        <v>420</v>
+        <v>408</v>
       </c>
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.25">
@@ -5155,13 +5158,13 @@
         <v>383</v>
       </c>
       <c r="D174" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
       <c r="E174" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="F174" t="s">
-        <v>420</v>
+        <v>408</v>
       </c>
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.25">
@@ -5175,13 +5178,13 @@
         <v>383</v>
       </c>
       <c r="D175" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
       <c r="E175" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="F175" t="s">
-        <v>420</v>
+        <v>408</v>
       </c>
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.25">
@@ -5195,13 +5198,13 @@
         <v>383</v>
       </c>
       <c r="D176" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
       <c r="E176" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="F176" t="s">
-        <v>420</v>
+        <v>408</v>
       </c>
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.25">
@@ -5215,13 +5218,13 @@
         <v>383</v>
       </c>
       <c r="D177" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
       <c r="E177" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="F177" t="s">
-        <v>420</v>
+        <v>408</v>
       </c>
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.25">
@@ -5235,13 +5238,13 @@
         <v>383</v>
       </c>
       <c r="D178" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
       <c r="E178" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="F178" t="s">
-        <v>420</v>
+        <v>408</v>
       </c>
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.25">
@@ -5255,13 +5258,13 @@
         <v>383</v>
       </c>
       <c r="D179" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
       <c r="E179" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="F179" t="s">
-        <v>420</v>
+        <v>408</v>
       </c>
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.25">
@@ -5275,13 +5278,13 @@
         <v>384</v>
       </c>
       <c r="D180" t="s">
-        <v>425</v>
+        <v>413</v>
       </c>
       <c r="E180" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="F180" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.25">
@@ -5295,13 +5298,13 @@
         <v>383</v>
       </c>
       <c r="D181" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
       <c r="E181" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="F181" t="s">
-        <v>420</v>
+        <v>408</v>
       </c>
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.25">
@@ -5315,13 +5318,13 @@
         <v>384</v>
       </c>
       <c r="D182" t="s">
-        <v>425</v>
+        <v>413</v>
       </c>
       <c r="E182" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="F182" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.25">
@@ -5335,13 +5338,13 @@
         <v>384</v>
       </c>
       <c r="D183" t="s">
-        <v>425</v>
+        <v>413</v>
       </c>
       <c r="E183" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="F183" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.25">
@@ -5355,13 +5358,13 @@
         <v>383</v>
       </c>
       <c r="D184" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
       <c r="E184" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="F184" t="s">
-        <v>420</v>
+        <v>408</v>
       </c>
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.25">
@@ -5375,13 +5378,13 @@
         <v>383</v>
       </c>
       <c r="D185" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
       <c r="E185" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="F185" t="s">
-        <v>420</v>
+        <v>408</v>
       </c>
     </row>
     <row r="186" spans="1:6" x14ac:dyDescent="0.25">
@@ -5395,13 +5398,13 @@
         <v>383</v>
       </c>
       <c r="D186" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
       <c r="E186" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="F186" t="s">
-        <v>420</v>
+        <v>408</v>
       </c>
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.25">
@@ -5415,13 +5418,13 @@
         <v>383</v>
       </c>
       <c r="D187" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
       <c r="E187" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="F187" t="s">
-        <v>420</v>
+        <v>408</v>
       </c>
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.25">
@@ -5435,13 +5438,13 @@
         <v>384</v>
       </c>
       <c r="D188" t="s">
-        <v>425</v>
+        <v>413</v>
       </c>
       <c r="E188" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="F188" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.25">
@@ -5455,13 +5458,13 @@
         <v>383</v>
       </c>
       <c r="D189" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
       <c r="E189" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="F189" t="s">
-        <v>420</v>
+        <v>408</v>
       </c>
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.25">
@@ -5475,13 +5478,13 @@
         <v>384</v>
       </c>
       <c r="D190" t="s">
-        <v>425</v>
+        <v>413</v>
       </c>
       <c r="E190" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="F190" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
     </row>
     <row r="191" spans="1:6" x14ac:dyDescent="0.25">
@@ -5495,13 +5498,13 @@
         <v>383</v>
       </c>
       <c r="D191" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
       <c r="E191" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="F191" t="s">
-        <v>420</v>
+        <v>408</v>
       </c>
     </row>
     <row r="192" spans="1:6" x14ac:dyDescent="0.25">
@@ -5515,13 +5518,13 @@
         <v>383</v>
       </c>
       <c r="D192" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
       <c r="E192" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="F192" t="s">
-        <v>420</v>
+        <v>408</v>
       </c>
     </row>
     <row r="193" spans="1:6" x14ac:dyDescent="0.25">
@@ -5535,13 +5538,13 @@
         <v>383</v>
       </c>
       <c r="D193" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
       <c r="E193" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="F193" t="s">
-        <v>420</v>
+        <v>408</v>
       </c>
     </row>
     <row r="194" spans="1:6" x14ac:dyDescent="0.25">
@@ -5555,13 +5558,13 @@
         <v>383</v>
       </c>
       <c r="D194" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
       <c r="E194" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="F194" t="s">
-        <v>420</v>
+        <v>408</v>
       </c>
     </row>
     <row r="195" spans="1:6" x14ac:dyDescent="0.25">
@@ -5575,13 +5578,13 @@
         <v>383</v>
       </c>
       <c r="D195" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
       <c r="E195" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="F195" t="s">
-        <v>420</v>
+        <v>408</v>
       </c>
     </row>
     <row r="196" spans="1:6" x14ac:dyDescent="0.25">
@@ -5595,13 +5598,13 @@
         <v>383</v>
       </c>
       <c r="D196" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
       <c r="E196" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="F196" t="s">
-        <v>420</v>
+        <v>408</v>
       </c>
     </row>
     <row r="197" spans="1:6" x14ac:dyDescent="0.25">
@@ -5615,13 +5618,13 @@
         <v>383</v>
       </c>
       <c r="D197" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
       <c r="E197" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="F197" t="s">
-        <v>420</v>
+        <v>408</v>
       </c>
     </row>
     <row r="198" spans="1:6" x14ac:dyDescent="0.25">
@@ -5635,13 +5638,13 @@
         <v>383</v>
       </c>
       <c r="D198" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
       <c r="E198" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="F198" t="s">
-        <v>420</v>
+        <v>408</v>
       </c>
     </row>
     <row r="199" spans="1:6" x14ac:dyDescent="0.25">
@@ -5655,13 +5658,13 @@
         <v>383</v>
       </c>
       <c r="D199" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
       <c r="E199" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="F199" t="s">
-        <v>420</v>
+        <v>408</v>
       </c>
     </row>
     <row r="200" spans="1:6" x14ac:dyDescent="0.25">
@@ -5672,16 +5675,16 @@
         <v>201</v>
       </c>
       <c r="C200" t="s">
-        <v>428</v>
+        <v>416</v>
       </c>
       <c r="D200" t="s">
-        <v>427</v>
+        <v>415</v>
       </c>
       <c r="E200" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="F200" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
     </row>
     <row r="201" spans="1:6" x14ac:dyDescent="0.25">
@@ -5695,13 +5698,13 @@
         <v>383</v>
       </c>
       <c r="D201" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
       <c r="E201" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="F201" t="s">
-        <v>420</v>
+        <v>408</v>
       </c>
     </row>
     <row r="202" spans="1:6" x14ac:dyDescent="0.25">
@@ -5715,13 +5718,13 @@
         <v>383</v>
       </c>
       <c r="D202" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
       <c r="E202" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="F202" t="s">
-        <v>420</v>
+        <v>408</v>
       </c>
     </row>
     <row r="203" spans="1:6" x14ac:dyDescent="0.25">
@@ -5735,13 +5738,13 @@
         <v>383</v>
       </c>
       <c r="D203" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
       <c r="E203" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="F203" t="s">
-        <v>420</v>
+        <v>408</v>
       </c>
     </row>
     <row r="204" spans="1:6" x14ac:dyDescent="0.25">
@@ -5755,13 +5758,13 @@
         <v>383</v>
       </c>
       <c r="D204" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
       <c r="E204" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="F204" t="s">
-        <v>420</v>
+        <v>408</v>
       </c>
     </row>
     <row r="205" spans="1:6" x14ac:dyDescent="0.25">
@@ -5775,13 +5778,13 @@
         <v>383</v>
       </c>
       <c r="D205" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
       <c r="E205" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="F205" t="s">
-        <v>420</v>
+        <v>408</v>
       </c>
     </row>
     <row r="206" spans="1:6" x14ac:dyDescent="0.25">
@@ -5795,13 +5798,13 @@
         <v>383</v>
       </c>
       <c r="D206" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
       <c r="E206" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="F206" t="s">
-        <v>420</v>
+        <v>408</v>
       </c>
     </row>
     <row r="207" spans="1:6" x14ac:dyDescent="0.25">
@@ -5815,13 +5818,13 @@
         <v>383</v>
       </c>
       <c r="D207" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
       <c r="E207" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="F207" t="s">
-        <v>420</v>
+        <v>408</v>
       </c>
     </row>
     <row r="208" spans="1:6" x14ac:dyDescent="0.25">
@@ -5835,13 +5838,13 @@
         <v>382</v>
       </c>
       <c r="D208" t="s">
-        <v>425</v>
+        <v>413</v>
       </c>
       <c r="E208" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="F208" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
     </row>
     <row r="209" spans="1:6" x14ac:dyDescent="0.25">
@@ -5855,13 +5858,13 @@
         <v>382</v>
       </c>
       <c r="D209" t="s">
-        <v>425</v>
+        <v>413</v>
       </c>
       <c r="E209" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="F209" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
     </row>
     <row r="210" spans="1:6" x14ac:dyDescent="0.25">
@@ -5875,13 +5878,13 @@
         <v>384</v>
       </c>
       <c r="D210" t="s">
-        <v>425</v>
+        <v>413</v>
       </c>
       <c r="E210" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="F210" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
     </row>
     <row r="211" spans="1:6" x14ac:dyDescent="0.25">
@@ -5895,13 +5898,13 @@
         <v>383</v>
       </c>
       <c r="D211" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
       <c r="E211" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="F211" t="s">
-        <v>420</v>
+        <v>408</v>
       </c>
     </row>
     <row r="212" spans="1:6" x14ac:dyDescent="0.25">
@@ -5915,13 +5918,13 @@
         <v>383</v>
       </c>
       <c r="D212" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
       <c r="E212" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="F212" t="s">
-        <v>420</v>
+        <v>408</v>
       </c>
     </row>
     <row r="213" spans="1:6" x14ac:dyDescent="0.25">
@@ -5935,13 +5938,13 @@
         <v>383</v>
       </c>
       <c r="D213" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
       <c r="E213" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="F213" t="s">
-        <v>420</v>
+        <v>408</v>
       </c>
     </row>
     <row r="214" spans="1:6" x14ac:dyDescent="0.25">
@@ -5955,13 +5958,13 @@
         <v>384</v>
       </c>
       <c r="D214" t="s">
-        <v>425</v>
+        <v>413</v>
       </c>
       <c r="E214" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="F214" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
     </row>
     <row r="215" spans="1:6" x14ac:dyDescent="0.25">
@@ -5975,13 +5978,13 @@
         <v>384</v>
       </c>
       <c r="D215" t="s">
-        <v>425</v>
+        <v>413</v>
       </c>
       <c r="E215" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="F215" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
     </row>
     <row r="216" spans="1:6" x14ac:dyDescent="0.25">
@@ -5995,13 +5998,13 @@
         <v>384</v>
       </c>
       <c r="D216" t="s">
-        <v>425</v>
+        <v>413</v>
       </c>
       <c r="E216" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="F216" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
     </row>
     <row r="217" spans="1:6" x14ac:dyDescent="0.25">
@@ -6015,13 +6018,13 @@
         <v>384</v>
       </c>
       <c r="D217" t="s">
-        <v>425</v>
+        <v>413</v>
       </c>
       <c r="E217" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="F217" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
     </row>
     <row r="218" spans="1:6" x14ac:dyDescent="0.25">
@@ -6035,13 +6038,13 @@
         <v>383</v>
       </c>
       <c r="D218" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
       <c r="E218" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="F218" t="s">
-        <v>420</v>
+        <v>408</v>
       </c>
     </row>
     <row r="219" spans="1:6" x14ac:dyDescent="0.25">
@@ -6055,13 +6058,13 @@
         <v>384</v>
       </c>
       <c r="D219" t="s">
-        <v>425</v>
+        <v>413</v>
       </c>
       <c r="E219" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="F219" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
     </row>
     <row r="220" spans="1:6" x14ac:dyDescent="0.25">
@@ -6075,13 +6078,13 @@
         <v>384</v>
       </c>
       <c r="D220" t="s">
-        <v>425</v>
+        <v>413</v>
       </c>
       <c r="E220" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="F220" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
     </row>
     <row r="221" spans="1:6" x14ac:dyDescent="0.25">
@@ -6092,16 +6095,16 @@
         <v>201</v>
       </c>
       <c r="C221" t="s">
-        <v>428</v>
+        <v>416</v>
       </c>
       <c r="D221" t="s">
-        <v>427</v>
+        <v>415</v>
       </c>
       <c r="E221" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="F221" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
     </row>
     <row r="222" spans="1:6" x14ac:dyDescent="0.25">
@@ -6115,13 +6118,13 @@
         <v>383</v>
       </c>
       <c r="D222" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
       <c r="E222" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="F222" t="s">
-        <v>420</v>
+        <v>408</v>
       </c>
     </row>
     <row r="223" spans="1:6" x14ac:dyDescent="0.25">
@@ -6135,13 +6138,13 @@
         <v>383</v>
       </c>
       <c r="D223" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
       <c r="E223" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="F223" t="s">
-        <v>420</v>
+        <v>408</v>
       </c>
     </row>
     <row r="224" spans="1:6" x14ac:dyDescent="0.25">
@@ -6155,13 +6158,13 @@
         <v>383</v>
       </c>
       <c r="D224" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
       <c r="E224" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="F224" t="s">
-        <v>420</v>
+        <v>408</v>
       </c>
     </row>
     <row r="225" spans="1:6" x14ac:dyDescent="0.25">
@@ -6175,13 +6178,13 @@
         <v>383</v>
       </c>
       <c r="D225" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
       <c r="E225" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="F225" t="s">
-        <v>420</v>
+        <v>408</v>
       </c>
     </row>
     <row r="226" spans="1:6" x14ac:dyDescent="0.25">
@@ -6195,13 +6198,13 @@
         <v>383</v>
       </c>
       <c r="D226" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
       <c r="E226" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="F226" t="s">
-        <v>420</v>
+        <v>408</v>
       </c>
     </row>
     <row r="227" spans="1:6" x14ac:dyDescent="0.25">
@@ -6215,13 +6218,13 @@
         <v>383</v>
       </c>
       <c r="D227" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
       <c r="E227" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="F227" t="s">
-        <v>420</v>
+        <v>408</v>
       </c>
     </row>
     <row r="228" spans="1:6" x14ac:dyDescent="0.25">
@@ -6235,13 +6238,13 @@
         <v>383</v>
       </c>
       <c r="D228" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
       <c r="E228" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="F228" t="s">
-        <v>420</v>
+        <v>408</v>
       </c>
     </row>
     <row r="229" spans="1:6" x14ac:dyDescent="0.25">
@@ -6255,13 +6258,13 @@
         <v>383</v>
       </c>
       <c r="D229" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
       <c r="E229" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="F229" t="s">
-        <v>420</v>
+        <v>408</v>
       </c>
     </row>
     <row r="230" spans="1:6" x14ac:dyDescent="0.25">
@@ -6275,13 +6278,13 @@
         <v>383</v>
       </c>
       <c r="D230" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
       <c r="E230" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="F230" t="s">
-        <v>420</v>
+        <v>408</v>
       </c>
     </row>
     <row r="231" spans="1:6" x14ac:dyDescent="0.25">
@@ -6295,13 +6298,13 @@
         <v>383</v>
       </c>
       <c r="D231" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
       <c r="E231" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="F231" t="s">
-        <v>420</v>
+        <v>408</v>
       </c>
     </row>
     <row r="232" spans="1:6" x14ac:dyDescent="0.25">
@@ -6315,13 +6318,13 @@
         <v>383</v>
       </c>
       <c r="D232" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
       <c r="E232" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="F232" t="s">
-        <v>420</v>
+        <v>408</v>
       </c>
     </row>
     <row r="233" spans="1:6" x14ac:dyDescent="0.25">
@@ -6335,13 +6338,13 @@
         <v>383</v>
       </c>
       <c r="D233" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
       <c r="E233" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="F233" t="s">
-        <v>420</v>
+        <v>408</v>
       </c>
     </row>
     <row r="234" spans="1:6" x14ac:dyDescent="0.25">
@@ -6355,13 +6358,13 @@
         <v>383</v>
       </c>
       <c r="D234" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
       <c r="E234" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="F234" t="s">
-        <v>420</v>
+        <v>408</v>
       </c>
     </row>
     <row r="235" spans="1:6" x14ac:dyDescent="0.25">
@@ -6375,13 +6378,13 @@
         <v>383</v>
       </c>
       <c r="D235" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
       <c r="E235" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="F235" t="s">
-        <v>420</v>
+        <v>408</v>
       </c>
     </row>
     <row r="236" spans="1:6" x14ac:dyDescent="0.25">
@@ -6395,13 +6398,13 @@
         <v>383</v>
       </c>
       <c r="D236" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
       <c r="E236" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="F236" t="s">
-        <v>420</v>
+        <v>408</v>
       </c>
     </row>
     <row r="237" spans="1:6" x14ac:dyDescent="0.25">
@@ -6415,13 +6418,13 @@
         <v>383</v>
       </c>
       <c r="D237" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
       <c r="E237" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="F237" t="s">
-        <v>420</v>
+        <v>408</v>
       </c>
     </row>
     <row r="238" spans="1:6" x14ac:dyDescent="0.25">
@@ -6435,13 +6438,13 @@
         <v>383</v>
       </c>
       <c r="D238" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
       <c r="E238" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="F238" t="s">
-        <v>420</v>
+        <v>408</v>
       </c>
     </row>
     <row r="239" spans="1:6" x14ac:dyDescent="0.25">
@@ -6455,13 +6458,13 @@
         <v>383</v>
       </c>
       <c r="D239" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
       <c r="E239" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="F239" t="s">
-        <v>420</v>
+        <v>408</v>
       </c>
     </row>
     <row r="240" spans="1:6" x14ac:dyDescent="0.25">
@@ -6475,13 +6478,13 @@
         <v>383</v>
       </c>
       <c r="D240" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
       <c r="E240" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="F240" t="s">
-        <v>420</v>
+        <v>408</v>
       </c>
     </row>
     <row r="241" spans="1:6" x14ac:dyDescent="0.25">
@@ -6495,13 +6498,13 @@
         <v>383</v>
       </c>
       <c r="D241" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
       <c r="E241" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="F241" t="s">
-        <v>420</v>
+        <v>408</v>
       </c>
     </row>
     <row r="242" spans="1:6" x14ac:dyDescent="0.25">
@@ -6515,13 +6518,13 @@
         <v>383</v>
       </c>
       <c r="D242" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
       <c r="E242" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="F242" t="s">
-        <v>420</v>
+        <v>408</v>
       </c>
     </row>
     <row r="243" spans="1:6" x14ac:dyDescent="0.25">
@@ -6535,13 +6538,13 @@
         <v>383</v>
       </c>
       <c r="D243" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
       <c r="E243" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="F243" t="s">
-        <v>420</v>
+        <v>408</v>
       </c>
     </row>
     <row r="244" spans="1:6" x14ac:dyDescent="0.25">
@@ -6555,13 +6558,13 @@
         <v>383</v>
       </c>
       <c r="D244" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
       <c r="E244" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="F244" t="s">
-        <v>420</v>
+        <v>408</v>
       </c>
     </row>
     <row r="245" spans="1:6" x14ac:dyDescent="0.25">
@@ -6575,13 +6578,13 @@
         <v>383</v>
       </c>
       <c r="D245" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
       <c r="E245" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="F245" t="s">
-        <v>420</v>
+        <v>408</v>
       </c>
     </row>
     <row r="246" spans="1:6" x14ac:dyDescent="0.25">
@@ -6595,13 +6598,13 @@
         <v>383</v>
       </c>
       <c r="D246" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
       <c r="E246" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="F246" t="s">
-        <v>420</v>
+        <v>408</v>
       </c>
     </row>
     <row r="247" spans="1:6" x14ac:dyDescent="0.25">
@@ -6615,13 +6618,13 @@
         <v>383</v>
       </c>
       <c r="D247" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
       <c r="E247" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="F247" t="s">
-        <v>420</v>
+        <v>408</v>
       </c>
     </row>
     <row r="248" spans="1:6" x14ac:dyDescent="0.25">
@@ -6635,13 +6638,13 @@
         <v>383</v>
       </c>
       <c r="D248" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
       <c r="E248" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="F248" t="s">
-        <v>420</v>
+        <v>408</v>
       </c>
     </row>
     <row r="249" spans="1:6" x14ac:dyDescent="0.25">
@@ -6655,13 +6658,13 @@
         <v>383</v>
       </c>
       <c r="D249" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
       <c r="E249" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="F249" t="s">
-        <v>420</v>
+        <v>408</v>
       </c>
     </row>
     <row r="250" spans="1:6" x14ac:dyDescent="0.25">
@@ -6675,13 +6678,13 @@
         <v>383</v>
       </c>
       <c r="D250" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
       <c r="E250" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="F250" t="s">
-        <v>420</v>
+        <v>408</v>
       </c>
     </row>
     <row r="251" spans="1:6" x14ac:dyDescent="0.25">
@@ -6695,13 +6698,13 @@
         <v>383</v>
       </c>
       <c r="D251" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
       <c r="E251" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="F251" t="s">
-        <v>420</v>
+        <v>408</v>
       </c>
     </row>
     <row r="252" spans="1:6" x14ac:dyDescent="0.25">
@@ -6715,13 +6718,13 @@
         <v>383</v>
       </c>
       <c r="D252" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
       <c r="E252" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="F252" t="s">
-        <v>420</v>
+        <v>408</v>
       </c>
     </row>
     <row r="253" spans="1:6" x14ac:dyDescent="0.25">
@@ -6735,13 +6738,13 @@
         <v>383</v>
       </c>
       <c r="D253" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
       <c r="E253" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="F253" t="s">
-        <v>420</v>
+        <v>408</v>
       </c>
     </row>
     <row r="254" spans="1:6" x14ac:dyDescent="0.25">
@@ -6755,13 +6758,13 @@
         <v>383</v>
       </c>
       <c r="D254" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
       <c r="E254" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="F254" t="s">
-        <v>420</v>
+        <v>408</v>
       </c>
     </row>
     <row r="255" spans="1:6" x14ac:dyDescent="0.25">
@@ -6775,13 +6778,13 @@
         <v>383</v>
       </c>
       <c r="D255" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
       <c r="E255" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="F255" t="s">
-        <v>420</v>
+        <v>408</v>
       </c>
     </row>
     <row r="256" spans="1:6" x14ac:dyDescent="0.25">
@@ -6795,13 +6798,13 @@
         <v>383</v>
       </c>
       <c r="D256" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
       <c r="E256" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="F256" t="s">
-        <v>420</v>
+        <v>408</v>
       </c>
     </row>
     <row r="257" spans="1:6" x14ac:dyDescent="0.25">
@@ -6815,13 +6818,13 @@
         <v>383</v>
       </c>
       <c r="D257" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
       <c r="E257" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="F257" t="s">
-        <v>420</v>
+        <v>408</v>
       </c>
     </row>
     <row r="258" spans="1:6" x14ac:dyDescent="0.25">
@@ -6835,13 +6838,13 @@
         <v>383</v>
       </c>
       <c r="D258" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
       <c r="E258" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="F258" t="s">
-        <v>420</v>
+        <v>408</v>
       </c>
     </row>
     <row r="259" spans="1:6" x14ac:dyDescent="0.25">
@@ -6855,13 +6858,13 @@
         <v>383</v>
       </c>
       <c r="D259" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
       <c r="E259" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="F259" t="s">
-        <v>420</v>
+        <v>408</v>
       </c>
     </row>
     <row r="260" spans="1:6" x14ac:dyDescent="0.25">
@@ -6875,13 +6878,13 @@
         <v>383</v>
       </c>
       <c r="D260" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
       <c r="E260" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="F260" t="s">
-        <v>420</v>
+        <v>408</v>
       </c>
     </row>
     <row r="261" spans="1:6" x14ac:dyDescent="0.25">
@@ -6895,13 +6898,13 @@
         <v>383</v>
       </c>
       <c r="D261" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
       <c r="E261" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="F261" t="s">
-        <v>420</v>
+        <v>408</v>
       </c>
     </row>
     <row r="262" spans="1:6" x14ac:dyDescent="0.25">
@@ -6915,13 +6918,13 @@
         <v>383</v>
       </c>
       <c r="D262" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
       <c r="E262" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="F262" t="s">
-        <v>420</v>
+        <v>408</v>
       </c>
     </row>
     <row r="263" spans="1:6" x14ac:dyDescent="0.25">
@@ -6935,13 +6938,13 @@
         <v>383</v>
       </c>
       <c r="D263" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
       <c r="E263" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="F263" t="s">
-        <v>420</v>
+        <v>408</v>
       </c>
     </row>
     <row r="264" spans="1:6" x14ac:dyDescent="0.25">
@@ -6955,13 +6958,13 @@
         <v>383</v>
       </c>
       <c r="D264" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
       <c r="E264" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="F264" t="s">
-        <v>420</v>
+        <v>408</v>
       </c>
     </row>
     <row r="265" spans="1:6" x14ac:dyDescent="0.25">
@@ -6975,13 +6978,13 @@
         <v>383</v>
       </c>
       <c r="D265" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
       <c r="E265" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="F265" t="s">
-        <v>420</v>
+        <v>408</v>
       </c>
     </row>
     <row r="266" spans="1:6" x14ac:dyDescent="0.25">
@@ -6995,13 +6998,13 @@
         <v>383</v>
       </c>
       <c r="D266" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
       <c r="E266" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="F266" t="s">
-        <v>420</v>
+        <v>408</v>
       </c>
     </row>
     <row r="267" spans="1:6" x14ac:dyDescent="0.25">
@@ -7015,13 +7018,13 @@
         <v>383</v>
       </c>
       <c r="D267" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
       <c r="E267" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="F267" t="s">
-        <v>420</v>
+        <v>408</v>
       </c>
     </row>
     <row r="268" spans="1:6" x14ac:dyDescent="0.25">
@@ -7035,13 +7038,13 @@
         <v>383</v>
       </c>
       <c r="D268" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
       <c r="E268" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="F268" t="s">
-        <v>420</v>
+        <v>408</v>
       </c>
     </row>
     <row r="269" spans="1:6" x14ac:dyDescent="0.25">
@@ -7055,13 +7058,13 @@
         <v>383</v>
       </c>
       <c r="D269" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
       <c r="E269" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="F269" t="s">
-        <v>420</v>
+        <v>408</v>
       </c>
     </row>
     <row r="270" spans="1:6" x14ac:dyDescent="0.25">
@@ -7075,13 +7078,13 @@
         <v>383</v>
       </c>
       <c r="D270" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
       <c r="E270" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="F270" t="s">
-        <v>420</v>
+        <v>408</v>
       </c>
     </row>
     <row r="271" spans="1:6" x14ac:dyDescent="0.25">
@@ -7095,13 +7098,13 @@
         <v>383</v>
       </c>
       <c r="D271" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
       <c r="E271" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="F271" t="s">
-        <v>420</v>
+        <v>408</v>
       </c>
     </row>
     <row r="272" spans="1:6" x14ac:dyDescent="0.25">
@@ -7115,13 +7118,13 @@
         <v>383</v>
       </c>
       <c r="D272" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
       <c r="E272" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="F272" t="s">
-        <v>420</v>
+        <v>408</v>
       </c>
     </row>
     <row r="273" spans="1:6" x14ac:dyDescent="0.25">
@@ -7135,13 +7138,13 @@
         <v>383</v>
       </c>
       <c r="D273" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
       <c r="E273" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="F273" t="s">
-        <v>420</v>
+        <v>408</v>
       </c>
     </row>
     <row r="274" spans="1:6" x14ac:dyDescent="0.25">
@@ -7155,13 +7158,13 @@
         <v>383</v>
       </c>
       <c r="D274" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
       <c r="E274" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="F274" t="s">
-        <v>420</v>
+        <v>408</v>
       </c>
     </row>
     <row r="275" spans="1:6" x14ac:dyDescent="0.25">
@@ -7175,13 +7178,13 @@
         <v>383</v>
       </c>
       <c r="D275" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
       <c r="E275" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="F275" t="s">
-        <v>420</v>
+        <v>408</v>
       </c>
     </row>
     <row r="276" spans="1:6" x14ac:dyDescent="0.25">
@@ -7195,13 +7198,13 @@
         <v>383</v>
       </c>
       <c r="D276" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
       <c r="E276" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="F276" t="s">
-        <v>420</v>
+        <v>408</v>
       </c>
     </row>
     <row r="277" spans="1:6" x14ac:dyDescent="0.25">
@@ -7215,13 +7218,13 @@
         <v>383</v>
       </c>
       <c r="D277" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
       <c r="E277" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="F277" t="s">
-        <v>420</v>
+        <v>408</v>
       </c>
     </row>
     <row r="278" spans="1:6" x14ac:dyDescent="0.25">
@@ -7235,13 +7238,13 @@
         <v>383</v>
       </c>
       <c r="D278" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
       <c r="E278" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="F278" t="s">
-        <v>420</v>
+        <v>408</v>
       </c>
     </row>
     <row r="279" spans="1:6" x14ac:dyDescent="0.25">
@@ -7255,13 +7258,13 @@
         <v>383</v>
       </c>
       <c r="D279" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
       <c r="E279" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="F279" t="s">
-        <v>420</v>
+        <v>408</v>
       </c>
     </row>
     <row r="280" spans="1:6" x14ac:dyDescent="0.25">
@@ -7275,13 +7278,13 @@
         <v>383</v>
       </c>
       <c r="D280" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
       <c r="E280" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="F280" t="s">
-        <v>420</v>
+        <v>408</v>
       </c>
     </row>
     <row r="281" spans="1:6" x14ac:dyDescent="0.25">
@@ -7295,13 +7298,13 @@
         <v>383</v>
       </c>
       <c r="D281" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
       <c r="E281" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="F281" t="s">
-        <v>420</v>
+        <v>408</v>
       </c>
     </row>
     <row r="282" spans="1:6" x14ac:dyDescent="0.25">
@@ -7315,13 +7318,13 @@
         <v>383</v>
       </c>
       <c r="D282" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
       <c r="E282" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="F282" t="s">
-        <v>420</v>
+        <v>408</v>
       </c>
     </row>
     <row r="283" spans="1:6" x14ac:dyDescent="0.25">
@@ -7335,13 +7338,13 @@
         <v>383</v>
       </c>
       <c r="D283" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
       <c r="E283" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="F283" t="s">
-        <v>420</v>
+        <v>408</v>
       </c>
     </row>
     <row r="284" spans="1:6" x14ac:dyDescent="0.25">
@@ -7355,13 +7358,13 @@
         <v>383</v>
       </c>
       <c r="D284" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
       <c r="E284" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="F284" t="s">
-        <v>420</v>
+        <v>408</v>
       </c>
     </row>
     <row r="285" spans="1:6" x14ac:dyDescent="0.25">
@@ -7375,13 +7378,13 @@
         <v>383</v>
       </c>
       <c r="D285" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
       <c r="E285" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="F285" t="s">
-        <v>420</v>
+        <v>408</v>
       </c>
     </row>
     <row r="286" spans="1:6" x14ac:dyDescent="0.25">
@@ -7395,13 +7398,13 @@
         <v>383</v>
       </c>
       <c r="D286" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
       <c r="E286" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="F286" t="s">
-        <v>420</v>
+        <v>408</v>
       </c>
     </row>
     <row r="287" spans="1:6" x14ac:dyDescent="0.25">
@@ -7415,13 +7418,13 @@
         <v>383</v>
       </c>
       <c r="D287" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
       <c r="E287" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="F287" t="s">
-        <v>420</v>
+        <v>408</v>
       </c>
     </row>
     <row r="288" spans="1:6" x14ac:dyDescent="0.25">
@@ -7435,13 +7438,13 @@
         <v>383</v>
       </c>
       <c r="D288" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
       <c r="E288" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="F288" t="s">
-        <v>420</v>
+        <v>408</v>
       </c>
     </row>
     <row r="289" spans="1:6" x14ac:dyDescent="0.25">
@@ -7455,13 +7458,13 @@
         <v>383</v>
       </c>
       <c r="D289" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
       <c r="E289" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="F289" t="s">
-        <v>420</v>
+        <v>408</v>
       </c>
     </row>
     <row r="290" spans="1:6" x14ac:dyDescent="0.25">
@@ -7475,13 +7478,13 @@
         <v>383</v>
       </c>
       <c r="D290" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
       <c r="E290" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="F290" t="s">
-        <v>420</v>
+        <v>408</v>
       </c>
     </row>
     <row r="291" spans="1:6" x14ac:dyDescent="0.25">
@@ -7495,13 +7498,13 @@
         <v>383</v>
       </c>
       <c r="D291" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
       <c r="E291" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="F291" t="s">
-        <v>420</v>
+        <v>408</v>
       </c>
     </row>
     <row r="292" spans="1:6" x14ac:dyDescent="0.25">
@@ -7515,13 +7518,13 @@
         <v>383</v>
       </c>
       <c r="D292" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
       <c r="E292" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="F292" t="s">
-        <v>420</v>
+        <v>408</v>
       </c>
     </row>
     <row r="293" spans="1:6" x14ac:dyDescent="0.25">
@@ -7535,13 +7538,13 @@
         <v>383</v>
       </c>
       <c r="D293" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
       <c r="E293" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="F293" t="s">
-        <v>420</v>
+        <v>408</v>
       </c>
     </row>
     <row r="294" spans="1:6" x14ac:dyDescent="0.25">
@@ -7555,13 +7558,13 @@
         <v>383</v>
       </c>
       <c r="D294" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
       <c r="E294" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="F294" t="s">
-        <v>420</v>
+        <v>408</v>
       </c>
     </row>
     <row r="295" spans="1:6" x14ac:dyDescent="0.25">
@@ -7575,13 +7578,13 @@
         <v>383</v>
       </c>
       <c r="D295" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
       <c r="E295" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="F295" t="s">
-        <v>420</v>
+        <v>408</v>
       </c>
     </row>
     <row r="296" spans="1:6" x14ac:dyDescent="0.25">
@@ -7595,13 +7598,13 @@
         <v>383</v>
       </c>
       <c r="D296" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
       <c r="E296" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="F296" t="s">
-        <v>420</v>
+        <v>408</v>
       </c>
     </row>
     <row r="297" spans="1:6" x14ac:dyDescent="0.25">
@@ -7615,13 +7618,13 @@
         <v>383</v>
       </c>
       <c r="D297" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
       <c r="E297" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="F297" t="s">
-        <v>420</v>
+        <v>408</v>
       </c>
     </row>
     <row r="298" spans="1:6" x14ac:dyDescent="0.25">
@@ -7635,13 +7638,13 @@
         <v>383</v>
       </c>
       <c r="D298" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
       <c r="E298" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="F298" t="s">
-        <v>420</v>
+        <v>408</v>
       </c>
     </row>
     <row r="299" spans="1:6" x14ac:dyDescent="0.25">
@@ -7655,13 +7658,13 @@
         <v>383</v>
       </c>
       <c r="D299" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
       <c r="E299" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="F299" t="s">
-        <v>420</v>
+        <v>408</v>
       </c>
     </row>
     <row r="300" spans="1:6" x14ac:dyDescent="0.25">
@@ -7675,13 +7678,13 @@
         <v>383</v>
       </c>
       <c r="D300" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
       <c r="E300" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="F300" t="s">
-        <v>420</v>
+        <v>408</v>
       </c>
     </row>
     <row r="301" spans="1:6" x14ac:dyDescent="0.25">
@@ -7695,13 +7698,13 @@
         <v>383</v>
       </c>
       <c r="D301" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
       <c r="E301" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="F301" t="s">
-        <v>420</v>
+        <v>408</v>
       </c>
     </row>
     <row r="302" spans="1:6" x14ac:dyDescent="0.25">
@@ -7715,13 +7718,13 @@
         <v>383</v>
       </c>
       <c r="D302" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
       <c r="E302" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="F302" t="s">
-        <v>420</v>
+        <v>408</v>
       </c>
     </row>
     <row r="303" spans="1:6" x14ac:dyDescent="0.25">
@@ -7735,13 +7738,13 @@
         <v>383</v>
       </c>
       <c r="D303" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
       <c r="E303" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="F303" t="s">
-        <v>420</v>
+        <v>408</v>
       </c>
     </row>
     <row r="304" spans="1:6" x14ac:dyDescent="0.25">
@@ -7755,13 +7758,13 @@
         <v>383</v>
       </c>
       <c r="D304" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
       <c r="E304" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="F304" t="s">
-        <v>420</v>
+        <v>408</v>
       </c>
     </row>
     <row r="305" spans="1:6" x14ac:dyDescent="0.25">
@@ -7775,13 +7778,13 @@
         <v>383</v>
       </c>
       <c r="D305" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
       <c r="E305" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="F305" t="s">
-        <v>420</v>
+        <v>408</v>
       </c>
     </row>
     <row r="306" spans="1:6" x14ac:dyDescent="0.25">
@@ -7795,13 +7798,13 @@
         <v>383</v>
       </c>
       <c r="D306" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
       <c r="E306" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="F306" t="s">
-        <v>420</v>
+        <v>408</v>
       </c>
     </row>
     <row r="307" spans="1:6" x14ac:dyDescent="0.25">
@@ -7815,13 +7818,13 @@
         <v>383</v>
       </c>
       <c r="D307" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
       <c r="E307" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="F307" t="s">
-        <v>420</v>
+        <v>408</v>
       </c>
     </row>
     <row r="308" spans="1:6" x14ac:dyDescent="0.25">
@@ -7835,13 +7838,13 @@
         <v>383</v>
       </c>
       <c r="D308" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
       <c r="E308" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="F308" t="s">
-        <v>420</v>
+        <v>408</v>
       </c>
     </row>
     <row r="309" spans="1:6" x14ac:dyDescent="0.25">
@@ -7855,13 +7858,13 @@
         <v>383</v>
       </c>
       <c r="D309" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
       <c r="E309" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="F309" t="s">
-        <v>420</v>
+        <v>408</v>
       </c>
     </row>
     <row r="310" spans="1:6" x14ac:dyDescent="0.25">
@@ -7875,13 +7878,13 @@
         <v>383</v>
       </c>
       <c r="D310" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
       <c r="E310" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="F310" t="s">
-        <v>420</v>
+        <v>408</v>
       </c>
     </row>
     <row r="311" spans="1:6" x14ac:dyDescent="0.25">
@@ -7895,13 +7898,13 @@
         <v>383</v>
       </c>
       <c r="D311" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
       <c r="E311" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="F311" t="s">
-        <v>420</v>
+        <v>408</v>
       </c>
     </row>
     <row r="312" spans="1:6" x14ac:dyDescent="0.25">
@@ -7915,13 +7918,13 @@
         <v>383</v>
       </c>
       <c r="D312" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
       <c r="E312" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="F312" t="s">
-        <v>420</v>
+        <v>408</v>
       </c>
     </row>
     <row r="313" spans="1:6" x14ac:dyDescent="0.25">
@@ -7935,13 +7938,13 @@
         <v>383</v>
       </c>
       <c r="D313" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
       <c r="E313" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="F313" t="s">
-        <v>420</v>
+        <v>408</v>
       </c>
     </row>
     <row r="314" spans="1:6" x14ac:dyDescent="0.25">
@@ -7955,13 +7958,13 @@
         <v>383</v>
       </c>
       <c r="D314" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
       <c r="E314" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="F314" t="s">
-        <v>420</v>
+        <v>408</v>
       </c>
     </row>
     <row r="315" spans="1:6" x14ac:dyDescent="0.25">
@@ -7975,13 +7978,13 @@
         <v>383</v>
       </c>
       <c r="D315" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
       <c r="E315" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="F315" t="s">
-        <v>420</v>
+        <v>408</v>
       </c>
     </row>
     <row r="316" spans="1:6" x14ac:dyDescent="0.25">
@@ -7995,13 +7998,13 @@
         <v>383</v>
       </c>
       <c r="D316" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
       <c r="E316" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="F316" t="s">
-        <v>420</v>
+        <v>408</v>
       </c>
     </row>
     <row r="317" spans="1:6" x14ac:dyDescent="0.25">
@@ -8015,13 +8018,13 @@
         <v>383</v>
       </c>
       <c r="D317" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
       <c r="E317" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="F317" t="s">
-        <v>420</v>
+        <v>408</v>
       </c>
     </row>
     <row r="318" spans="1:6" x14ac:dyDescent="0.25">
@@ -8035,13 +8038,13 @@
         <v>383</v>
       </c>
       <c r="D318" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
       <c r="E318" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="F318" t="s">
-        <v>420</v>
+        <v>408</v>
       </c>
     </row>
     <row r="319" spans="1:6" x14ac:dyDescent="0.25">
@@ -8055,13 +8058,13 @@
         <v>383</v>
       </c>
       <c r="D319" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
       <c r="E319" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="F319" t="s">
-        <v>420</v>
+        <v>408</v>
       </c>
     </row>
     <row r="320" spans="1:6" x14ac:dyDescent="0.25">
@@ -8075,13 +8078,13 @@
         <v>383</v>
       </c>
       <c r="D320" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
       <c r="E320" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="F320" t="s">
-        <v>420</v>
+        <v>408</v>
       </c>
     </row>
     <row r="321" spans="1:6" x14ac:dyDescent="0.25">
@@ -8095,13 +8098,13 @@
         <v>383</v>
       </c>
       <c r="D321" t="s">
-        <v>427</v>
+        <v>415</v>
       </c>
       <c r="E321" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="F321" t="s">
-        <v>420</v>
+        <v>408</v>
       </c>
     </row>
     <row r="322" spans="1:6" x14ac:dyDescent="0.25">
@@ -8115,13 +8118,13 @@
         <v>383</v>
       </c>
       <c r="D322" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
       <c r="E322" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="F322" t="s">
-        <v>420</v>
+        <v>408</v>
       </c>
     </row>
     <row r="323" spans="1:6" x14ac:dyDescent="0.25">
@@ -8135,13 +8138,13 @@
         <v>383</v>
       </c>
       <c r="D323" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
       <c r="E323" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="F323" t="s">
-        <v>420</v>
+        <v>408</v>
       </c>
     </row>
     <row r="324" spans="1:6" x14ac:dyDescent="0.25">
@@ -8155,13 +8158,13 @@
         <v>383</v>
       </c>
       <c r="D324" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
       <c r="E324" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="F324" t="s">
-        <v>420</v>
+        <v>408</v>
       </c>
     </row>
     <row r="325" spans="1:6" x14ac:dyDescent="0.25">
@@ -8175,13 +8178,13 @@
         <v>383</v>
       </c>
       <c r="D325" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
       <c r="E325" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="F325" t="s">
-        <v>420</v>
+        <v>408</v>
       </c>
     </row>
     <row r="326" spans="1:6" x14ac:dyDescent="0.25">
@@ -8195,13 +8198,13 @@
         <v>384</v>
       </c>
       <c r="D326" t="s">
-        <v>425</v>
+        <v>413</v>
       </c>
       <c r="E326" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="F326" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
     </row>
     <row r="327" spans="1:6" x14ac:dyDescent="0.25">
@@ -8215,13 +8218,13 @@
         <v>383</v>
       </c>
       <c r="D327" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
       <c r="E327" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="F327" t="s">
-        <v>420</v>
+        <v>408</v>
       </c>
     </row>
     <row r="328" spans="1:6" x14ac:dyDescent="0.25">
@@ -8235,13 +8238,13 @@
         <v>383</v>
       </c>
       <c r="D328" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
       <c r="E328" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="F328" t="s">
-        <v>420</v>
+        <v>408</v>
       </c>
     </row>
     <row r="329" spans="1:6" x14ac:dyDescent="0.25">
@@ -8255,13 +8258,13 @@
         <v>383</v>
       </c>
       <c r="D329" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
       <c r="E329" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="F329" t="s">
-        <v>420</v>
+        <v>408</v>
       </c>
     </row>
     <row r="330" spans="1:6" x14ac:dyDescent="0.25">
@@ -8275,13 +8278,13 @@
         <v>383</v>
       </c>
       <c r="D330" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
       <c r="E330" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="F330" t="s">
-        <v>420</v>
+        <v>408</v>
       </c>
     </row>
     <row r="331" spans="1:6" x14ac:dyDescent="0.25">
@@ -8295,13 +8298,13 @@
         <v>383</v>
       </c>
       <c r="D331" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
       <c r="E331" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="F331" t="s">
-        <v>420</v>
+        <v>408</v>
       </c>
     </row>
     <row r="332" spans="1:6" x14ac:dyDescent="0.25">
@@ -8315,13 +8318,13 @@
         <v>383</v>
       </c>
       <c r="D332" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
       <c r="E332" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="F332" t="s">
-        <v>420</v>
+        <v>408</v>
       </c>
     </row>
     <row r="333" spans="1:6" x14ac:dyDescent="0.25">
@@ -8335,13 +8338,13 @@
         <v>383</v>
       </c>
       <c r="D333" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
       <c r="E333" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="F333" t="s">
-        <v>420</v>
+        <v>408</v>
       </c>
     </row>
     <row r="334" spans="1:6" x14ac:dyDescent="0.25">
@@ -8355,13 +8358,13 @@
         <v>383</v>
       </c>
       <c r="D334" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
       <c r="E334" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="F334" t="s">
-        <v>420</v>
+        <v>408</v>
       </c>
     </row>
     <row r="335" spans="1:6" x14ac:dyDescent="0.25">
@@ -8375,13 +8378,13 @@
         <v>384</v>
       </c>
       <c r="D335" t="s">
-        <v>425</v>
+        <v>413</v>
       </c>
       <c r="E335" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="F335" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
     </row>
     <row r="336" spans="1:6" x14ac:dyDescent="0.25">
@@ -8395,13 +8398,13 @@
         <v>383</v>
       </c>
       <c r="D336" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
       <c r="E336" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="F336" t="s">
-        <v>420</v>
+        <v>408</v>
       </c>
     </row>
     <row r="337" spans="1:6" x14ac:dyDescent="0.25">
@@ -8415,13 +8418,13 @@
         <v>383</v>
       </c>
       <c r="D337" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
       <c r="E337" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="F337" t="s">
-        <v>420</v>
+        <v>408</v>
       </c>
     </row>
     <row r="338" spans="1:6" x14ac:dyDescent="0.25">
@@ -8435,13 +8438,13 @@
         <v>383</v>
       </c>
       <c r="D338" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
       <c r="E338" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="F338" t="s">
-        <v>420</v>
+        <v>408</v>
       </c>
     </row>
     <row r="339" spans="1:6" x14ac:dyDescent="0.25">
@@ -8455,13 +8458,13 @@
         <v>383</v>
       </c>
       <c r="D339" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
       <c r="E339" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="F339" t="s">
-        <v>420</v>
+        <v>408</v>
       </c>
     </row>
     <row r="340" spans="1:6" x14ac:dyDescent="0.25">
@@ -8475,13 +8478,13 @@
         <v>383</v>
       </c>
       <c r="D340" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
       <c r="E340" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="F340" t="s">
-        <v>420</v>
+        <v>408</v>
       </c>
     </row>
     <row r="341" spans="1:6" x14ac:dyDescent="0.25">
@@ -8495,13 +8498,13 @@
         <v>383</v>
       </c>
       <c r="D341" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
       <c r="E341" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="F341" t="s">
-        <v>420</v>
+        <v>408</v>
       </c>
     </row>
     <row r="342" spans="1:6" x14ac:dyDescent="0.25">
@@ -8515,13 +8518,13 @@
         <v>383</v>
       </c>
       <c r="D342" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
       <c r="E342" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="F342" t="s">
-        <v>420</v>
+        <v>408</v>
       </c>
     </row>
     <row r="343" spans="1:6" x14ac:dyDescent="0.25">
@@ -8535,13 +8538,13 @@
         <v>383</v>
       </c>
       <c r="D343" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
       <c r="E343" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="F343" t="s">
-        <v>420</v>
+        <v>408</v>
       </c>
     </row>
     <row r="344" spans="1:6" x14ac:dyDescent="0.25">
@@ -8555,13 +8558,13 @@
         <v>383</v>
       </c>
       <c r="D344" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
       <c r="E344" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="F344" t="s">
-        <v>420</v>
+        <v>408</v>
       </c>
     </row>
     <row r="345" spans="1:6" x14ac:dyDescent="0.25">
@@ -8575,13 +8578,13 @@
         <v>383</v>
       </c>
       <c r="D345" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
       <c r="E345" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="F345" t="s">
-        <v>420</v>
+        <v>408</v>
       </c>
     </row>
     <row r="346" spans="1:6" x14ac:dyDescent="0.25">
@@ -8595,13 +8598,13 @@
         <v>383</v>
       </c>
       <c r="D346" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
       <c r="E346" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="F346" t="s">
-        <v>420</v>
+        <v>408</v>
       </c>
     </row>
     <row r="347" spans="1:6" x14ac:dyDescent="0.25">
@@ -8615,13 +8618,13 @@
         <v>383</v>
       </c>
       <c r="D347" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
       <c r="E347" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="F347" t="s">
-        <v>420</v>
+        <v>408</v>
       </c>
     </row>
     <row r="348" spans="1:6" x14ac:dyDescent="0.25">
@@ -8635,13 +8638,13 @@
         <v>383</v>
       </c>
       <c r="D348" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
       <c r="E348" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="F348" t="s">
-        <v>420</v>
+        <v>408</v>
       </c>
     </row>
     <row r="349" spans="1:6" x14ac:dyDescent="0.25">
@@ -8655,13 +8658,13 @@
         <v>383</v>
       </c>
       <c r="D349" t="s">
-        <v>425</v>
+        <v>413</v>
       </c>
       <c r="E349" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="F349" t="s">
-        <v>420</v>
+        <v>408</v>
       </c>
     </row>
     <row r="350" spans="1:6" x14ac:dyDescent="0.25">
@@ -8675,13 +8678,13 @@
         <v>384</v>
       </c>
       <c r="D350" t="s">
-        <v>425</v>
+        <v>413</v>
       </c>
       <c r="E350" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="F350" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
     </row>
     <row r="351" spans="1:6" x14ac:dyDescent="0.25">
@@ -8695,13 +8698,13 @@
         <v>383</v>
       </c>
       <c r="D351" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
       <c r="E351" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="F351" t="s">
-        <v>420</v>
+        <v>408</v>
       </c>
     </row>
     <row r="352" spans="1:6" x14ac:dyDescent="0.25">
@@ -8715,13 +8718,13 @@
         <v>384</v>
       </c>
       <c r="D352" t="s">
-        <v>425</v>
+        <v>413</v>
       </c>
       <c r="E352" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="F352" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
     </row>
     <row r="353" spans="1:6" x14ac:dyDescent="0.25">
@@ -8735,13 +8738,13 @@
         <v>383</v>
       </c>
       <c r="D353" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
       <c r="E353" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="F353" t="s">
-        <v>420</v>
+        <v>408</v>
       </c>
     </row>
     <row r="354" spans="1:6" x14ac:dyDescent="0.25">
@@ -8755,13 +8758,13 @@
         <v>382</v>
       </c>
       <c r="D354" t="s">
-        <v>425</v>
+        <v>413</v>
       </c>
       <c r="E354" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="F354" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
     </row>
     <row r="355" spans="1:6" x14ac:dyDescent="0.25">
@@ -8775,13 +8778,13 @@
         <v>382</v>
       </c>
       <c r="D355" t="s">
-        <v>425</v>
+        <v>413</v>
       </c>
       <c r="E355" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="F355" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
     </row>
     <row r="356" spans="1:6" x14ac:dyDescent="0.25">
@@ -8795,13 +8798,13 @@
         <v>384</v>
       </c>
       <c r="D356" t="s">
-        <v>425</v>
+        <v>413</v>
       </c>
       <c r="E356" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="F356" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
     </row>
     <row r="357" spans="1:6" x14ac:dyDescent="0.25">
@@ -8815,13 +8818,13 @@
         <v>383</v>
       </c>
       <c r="D357" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
       <c r="E357" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="F357" t="s">
-        <v>420</v>
+        <v>408</v>
       </c>
     </row>
     <row r="358" spans="1:6" x14ac:dyDescent="0.25">
@@ -8835,13 +8838,13 @@
         <v>383</v>
       </c>
       <c r="D358" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
       <c r="E358" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="F358" t="s">
-        <v>420</v>
+        <v>408</v>
       </c>
     </row>
     <row r="359" spans="1:6" x14ac:dyDescent="0.25">
@@ -8855,13 +8858,13 @@
         <v>383</v>
       </c>
       <c r="D359" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
       <c r="E359" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="F359" t="s">
-        <v>420</v>
+        <v>408</v>
       </c>
     </row>
     <row r="360" spans="1:6" x14ac:dyDescent="0.25">
@@ -8875,13 +8878,13 @@
         <v>383</v>
       </c>
       <c r="D360" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
       <c r="E360" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="F360" t="s">
-        <v>420</v>
+        <v>408</v>
       </c>
     </row>
     <row r="361" spans="1:6" x14ac:dyDescent="0.25">
@@ -8895,13 +8898,13 @@
         <v>383</v>
       </c>
       <c r="D361" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
       <c r="E361" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="F361" t="s">
-        <v>420</v>
+        <v>408</v>
       </c>
     </row>
     <row r="362" spans="1:6" x14ac:dyDescent="0.25">
@@ -8915,13 +8918,13 @@
         <v>383</v>
       </c>
       <c r="D362" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
       <c r="E362" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="F362" t="s">
-        <v>420</v>
+        <v>408</v>
       </c>
     </row>
     <row r="363" spans="1:6" x14ac:dyDescent="0.25">
@@ -8935,13 +8938,13 @@
         <v>383</v>
       </c>
       <c r="D363" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
       <c r="E363" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="F363" t="s">
-        <v>420</v>
+        <v>408</v>
       </c>
     </row>
     <row r="364" spans="1:6" x14ac:dyDescent="0.25">
@@ -8955,13 +8958,13 @@
         <v>383</v>
       </c>
       <c r="D364" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
       <c r="E364" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="F364" t="s">
-        <v>420</v>
+        <v>408</v>
       </c>
     </row>
     <row r="365" spans="1:6" x14ac:dyDescent="0.25">
@@ -8975,13 +8978,13 @@
         <v>384</v>
       </c>
       <c r="D365" t="s">
-        <v>425</v>
+        <v>413</v>
       </c>
       <c r="E365" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="F365" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
     </row>
     <row r="366" spans="1:6" x14ac:dyDescent="0.25">
@@ -8995,13 +8998,13 @@
         <v>383</v>
       </c>
       <c r="D366" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
       <c r="E366" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="F366" t="s">
-        <v>420</v>
+        <v>408</v>
       </c>
     </row>
     <row r="367" spans="1:6" x14ac:dyDescent="0.25">
@@ -9015,13 +9018,13 @@
         <v>383</v>
       </c>
       <c r="D367" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
       <c r="E367" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="F367" t="s">
-        <v>420</v>
+        <v>408</v>
       </c>
     </row>
     <row r="368" spans="1:6" x14ac:dyDescent="0.25">
@@ -9035,13 +9038,13 @@
         <v>383</v>
       </c>
       <c r="D368" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
       <c r="E368" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="F368" t="s">
-        <v>420</v>
+        <v>408</v>
       </c>
     </row>
     <row r="369" spans="1:6" x14ac:dyDescent="0.25">
@@ -9055,13 +9058,13 @@
         <v>383</v>
       </c>
       <c r="D369" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
       <c r="E369" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="F369" t="s">
-        <v>420</v>
+        <v>408</v>
       </c>
     </row>
     <row r="370" spans="1:6" x14ac:dyDescent="0.25">
@@ -9075,13 +9078,13 @@
         <v>383</v>
       </c>
       <c r="D370" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
       <c r="E370" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="F370" t="s">
-        <v>420</v>
+        <v>408</v>
       </c>
     </row>
     <row r="371" spans="1:6" x14ac:dyDescent="0.25">
@@ -9095,13 +9098,13 @@
         <v>383</v>
       </c>
       <c r="D371" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
       <c r="E371" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="F371" t="s">
-        <v>420</v>
+        <v>408</v>
       </c>
     </row>
     <row r="372" spans="1:6" x14ac:dyDescent="0.25">
@@ -9115,13 +9118,13 @@
         <v>383</v>
       </c>
       <c r="D372" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
       <c r="E372" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="F372" t="s">
-        <v>420</v>
+        <v>408</v>
       </c>
     </row>
     <row r="373" spans="1:6" x14ac:dyDescent="0.25">
@@ -9135,13 +9138,13 @@
         <v>383</v>
       </c>
       <c r="D373" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
       <c r="E373" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="F373" t="s">
-        <v>420</v>
+        <v>408</v>
       </c>
     </row>
     <row r="374" spans="1:6" x14ac:dyDescent="0.25">
@@ -9155,13 +9158,13 @@
         <v>383</v>
       </c>
       <c r="D374" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
       <c r="E374" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="F374" t="s">
-        <v>420</v>
+        <v>408</v>
       </c>
     </row>
     <row r="375" spans="1:6" x14ac:dyDescent="0.25">
@@ -9175,13 +9178,13 @@
         <v>383</v>
       </c>
       <c r="D375" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
       <c r="E375" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="F375" t="s">
-        <v>420</v>
+        <v>408</v>
       </c>
     </row>
     <row r="376" spans="1:6" x14ac:dyDescent="0.25">
@@ -9195,13 +9198,13 @@
         <v>383</v>
       </c>
       <c r="D376" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
       <c r="E376" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="F376" t="s">
-        <v>420</v>
+        <v>408</v>
       </c>
     </row>
     <row r="377" spans="1:6" x14ac:dyDescent="0.25">
@@ -9215,13 +9218,13 @@
         <v>383</v>
       </c>
       <c r="D377" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
       <c r="E377" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="F377" t="s">
-        <v>420</v>
+        <v>408</v>
       </c>
     </row>
     <row r="378" spans="1:6" x14ac:dyDescent="0.25">
@@ -9235,13 +9238,13 @@
         <v>383</v>
       </c>
       <c r="D378" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
       <c r="E378" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="F378" t="s">
-        <v>420</v>
+        <v>408</v>
       </c>
     </row>
     <row r="379" spans="1:6" x14ac:dyDescent="0.25">
@@ -9255,13 +9258,13 @@
         <v>383</v>
       </c>
       <c r="D379" t="s">
-        <v>425</v>
+        <v>413</v>
       </c>
       <c r="E379" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="F379" t="s">
-        <v>420</v>
+        <v>408</v>
       </c>
     </row>
     <row r="380" spans="1:6" x14ac:dyDescent="0.25">
@@ -9275,13 +9278,13 @@
         <v>384</v>
       </c>
       <c r="D380" t="s">
-        <v>425</v>
+        <v>413</v>
       </c>
       <c r="E380" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="F380" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
     </row>
     <row r="381" spans="1:6" x14ac:dyDescent="0.25">
@@ -9295,13 +9298,13 @@
         <v>383</v>
       </c>
       <c r="D381" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
       <c r="E381" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="F381" t="s">
-        <v>420</v>
+        <v>408</v>
       </c>
     </row>
     <row r="382" spans="1:6" x14ac:dyDescent="0.25">
@@ -9315,13 +9318,13 @@
         <v>384</v>
       </c>
       <c r="D382" t="s">
-        <v>425</v>
+        <v>413</v>
       </c>
       <c r="E382" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="F382" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
     </row>
     <row r="383" spans="1:6" x14ac:dyDescent="0.25">
@@ -9335,13 +9338,13 @@
         <v>383</v>
       </c>
       <c r="D383" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
       <c r="E383" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="F383" t="s">
-        <v>420</v>
+        <v>408</v>
       </c>
     </row>
     <row r="384" spans="1:6" x14ac:dyDescent="0.25">
@@ -9355,13 +9358,13 @@
         <v>384</v>
       </c>
       <c r="D384" t="s">
-        <v>425</v>
+        <v>413</v>
       </c>
       <c r="E384" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="F384" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
     </row>
     <row r="385" spans="1:6" x14ac:dyDescent="0.25">
@@ -9375,13 +9378,13 @@
         <v>383</v>
       </c>
       <c r="D385" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
       <c r="E385" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="F385" t="s">
-        <v>420</v>
+        <v>408</v>
       </c>
     </row>
     <row r="386" spans="1:6" x14ac:dyDescent="0.25">
@@ -9395,13 +9398,13 @@
         <v>383</v>
       </c>
       <c r="D386" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
       <c r="E386" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="F386" t="s">
-        <v>420</v>
+        <v>408</v>
       </c>
     </row>
     <row r="387" spans="1:6" x14ac:dyDescent="0.25">
@@ -9415,13 +9418,13 @@
         <v>383</v>
       </c>
       <c r="D387" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
       <c r="E387" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="F387" t="s">
-        <v>420</v>
+        <v>408</v>
       </c>
     </row>
     <row r="388" spans="1:6" x14ac:dyDescent="0.25">
@@ -9435,13 +9438,13 @@
         <v>383</v>
       </c>
       <c r="D388" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
       <c r="E388" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="F388" t="s">
-        <v>420</v>
+        <v>408</v>
       </c>
     </row>
     <row r="389" spans="1:6" x14ac:dyDescent="0.25">
@@ -9455,13 +9458,13 @@
         <v>383</v>
       </c>
       <c r="D389" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
       <c r="E389" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="F389" t="s">
-        <v>420</v>
+        <v>408</v>
       </c>
     </row>
     <row r="390" spans="1:6" x14ac:dyDescent="0.25">
@@ -9475,13 +9478,13 @@
         <v>383</v>
       </c>
       <c r="D390" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
       <c r="E390" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="F390" t="s">
-        <v>420</v>
+        <v>408</v>
       </c>
     </row>
     <row r="391" spans="1:6" x14ac:dyDescent="0.25">
@@ -9495,13 +9498,13 @@
         <v>384</v>
       </c>
       <c r="D391" t="s">
-        <v>425</v>
+        <v>413</v>
       </c>
       <c r="E391" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="F391" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
     </row>
     <row r="392" spans="1:6" x14ac:dyDescent="0.25">
@@ -9515,13 +9518,13 @@
         <v>383</v>
       </c>
       <c r="D392" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
       <c r="E392" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="F392" t="s">
-        <v>420</v>
+        <v>408</v>
       </c>
     </row>
     <row r="393" spans="1:6" x14ac:dyDescent="0.25">
@@ -9535,13 +9538,13 @@
         <v>383</v>
       </c>
       <c r="D393" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
       <c r="E393" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="F393" t="s">
-        <v>420</v>
+        <v>408</v>
       </c>
     </row>
     <row r="394" spans="1:6" x14ac:dyDescent="0.25">
@@ -9555,13 +9558,13 @@
         <v>383</v>
       </c>
       <c r="D394" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
       <c r="E394" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="F394" t="s">
-        <v>420</v>
+        <v>408</v>
       </c>
     </row>
     <row r="395" spans="1:6" x14ac:dyDescent="0.25">
@@ -9575,13 +9578,13 @@
         <v>383</v>
       </c>
       <c r="D395" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
       <c r="E395" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="F395" t="s">
-        <v>420</v>
+        <v>408</v>
       </c>
     </row>
     <row r="396" spans="1:6" x14ac:dyDescent="0.25">
@@ -9595,13 +9598,13 @@
         <v>383</v>
       </c>
       <c r="D396" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
       <c r="E396" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="F396" t="s">
-        <v>420</v>
+        <v>408</v>
       </c>
     </row>
     <row r="397" spans="1:6" x14ac:dyDescent="0.25">
@@ -9615,13 +9618,13 @@
         <v>383</v>
       </c>
       <c r="D397" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
       <c r="E397" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="F397" t="s">
-        <v>420</v>
+        <v>408</v>
       </c>
     </row>
     <row r="398" spans="1:6" x14ac:dyDescent="0.25">
@@ -9635,13 +9638,13 @@
         <v>383</v>
       </c>
       <c r="D398" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
       <c r="E398" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="F398" t="s">
-        <v>420</v>
+        <v>408</v>
       </c>
     </row>
     <row r="399" spans="1:6" x14ac:dyDescent="0.25">
@@ -9655,13 +9658,13 @@
         <v>383</v>
       </c>
       <c r="D399" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
       <c r="E399" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="F399" t="s">
-        <v>420</v>
+        <v>408</v>
       </c>
     </row>
     <row r="400" spans="1:6" x14ac:dyDescent="0.25">
@@ -9675,13 +9678,13 @@
         <v>383</v>
       </c>
       <c r="D400" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
       <c r="E400" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="F400" t="s">
-        <v>420</v>
+        <v>408</v>
       </c>
     </row>
     <row r="401" spans="1:6" x14ac:dyDescent="0.25">
@@ -9695,13 +9698,13 @@
         <v>383</v>
       </c>
       <c r="D401" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
       <c r="E401" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="F401" t="s">
-        <v>420</v>
+        <v>408</v>
       </c>
     </row>
     <row r="402" spans="1:6" x14ac:dyDescent="0.25">
@@ -9715,13 +9718,13 @@
         <v>383</v>
       </c>
       <c r="D402" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
       <c r="E402" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="F402" t="s">
-        <v>420</v>
+        <v>408</v>
       </c>
     </row>
     <row r="403" spans="1:6" x14ac:dyDescent="0.25">
@@ -9735,13 +9738,13 @@
         <v>384</v>
       </c>
       <c r="D403" t="s">
-        <v>425</v>
+        <v>413</v>
       </c>
       <c r="E403" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="F403" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
     </row>
     <row r="404" spans="1:6" x14ac:dyDescent="0.25">
@@ -9755,13 +9758,13 @@
         <v>383</v>
       </c>
       <c r="D404" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
       <c r="E404" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="F404" t="s">
-        <v>420</v>
+        <v>408</v>
       </c>
     </row>
     <row r="405" spans="1:6" x14ac:dyDescent="0.25">
@@ -9775,13 +9778,13 @@
         <v>384</v>
       </c>
       <c r="D405" t="s">
-        <v>425</v>
+        <v>413</v>
       </c>
       <c r="E405" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="F405" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
     </row>
     <row r="406" spans="1:6" x14ac:dyDescent="0.25">
@@ -9795,13 +9798,13 @@
         <v>383</v>
       </c>
       <c r="D406" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
       <c r="E406" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="F406" t="s">
-        <v>420</v>
+        <v>408</v>
       </c>
     </row>
     <row r="407" spans="1:6" x14ac:dyDescent="0.25">
@@ -9815,13 +9818,13 @@
         <v>383</v>
       </c>
       <c r="D407" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
       <c r="E407" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="F407" t="s">
-        <v>420</v>
+        <v>408</v>
       </c>
     </row>
     <row r="408" spans="1:6" x14ac:dyDescent="0.25">
@@ -9835,13 +9838,13 @@
         <v>383</v>
       </c>
       <c r="D408" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
       <c r="E408" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="F408" t="s">
-        <v>420</v>
+        <v>408</v>
       </c>
     </row>
     <row r="409" spans="1:6" x14ac:dyDescent="0.25">
@@ -9855,13 +9858,13 @@
         <v>383</v>
       </c>
       <c r="D409" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
       <c r="E409" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="F409" t="s">
-        <v>420</v>
+        <v>408</v>
       </c>
     </row>
     <row r="410" spans="1:6" x14ac:dyDescent="0.25">
@@ -9875,13 +9878,13 @@
         <v>383</v>
       </c>
       <c r="D410" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
       <c r="E410" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="F410" t="s">
-        <v>420</v>
+        <v>408</v>
       </c>
     </row>
     <row r="411" spans="1:6" x14ac:dyDescent="0.25">
@@ -9895,13 +9898,13 @@
         <v>383</v>
       </c>
       <c r="D411" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
       <c r="E411" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="F411" t="s">
-        <v>420</v>
+        <v>408</v>
       </c>
     </row>
     <row r="412" spans="1:6" x14ac:dyDescent="0.25">
@@ -9915,13 +9918,13 @@
         <v>383</v>
       </c>
       <c r="D412" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
       <c r="E412" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="F412" t="s">
-        <v>420</v>
+        <v>408</v>
       </c>
     </row>
     <row r="413" spans="1:6" x14ac:dyDescent="0.25">
@@ -9935,13 +9938,13 @@
         <v>384</v>
       </c>
       <c r="D413" t="s">
-        <v>425</v>
+        <v>413</v>
       </c>
       <c r="E413" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="F413" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
     </row>
     <row r="414" spans="1:6" x14ac:dyDescent="0.25">
@@ -9955,13 +9958,13 @@
         <v>383</v>
       </c>
       <c r="D414" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
       <c r="E414" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="F414" t="s">
-        <v>420</v>
+        <v>408</v>
       </c>
     </row>
     <row r="415" spans="1:6" x14ac:dyDescent="0.25">
@@ -9975,13 +9978,13 @@
         <v>384</v>
       </c>
       <c r="D415" t="s">
-        <v>425</v>
+        <v>413</v>
       </c>
       <c r="E415" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="F415" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
     </row>
     <row r="416" spans="1:6" x14ac:dyDescent="0.25">
@@ -9995,13 +9998,13 @@
         <v>383</v>
       </c>
       <c r="D416" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
       <c r="E416" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="F416" t="s">
-        <v>420</v>
+        <v>408</v>
       </c>
     </row>
     <row r="417" spans="1:6" x14ac:dyDescent="0.25">
@@ -10015,13 +10018,13 @@
         <v>383</v>
       </c>
       <c r="D417" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
       <c r="E417" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="F417" t="s">
-        <v>420</v>
+        <v>408</v>
       </c>
     </row>
     <row r="418" spans="1:6" x14ac:dyDescent="0.25">
@@ -10035,13 +10038,13 @@
         <v>383</v>
       </c>
       <c r="D418" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
       <c r="E418" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="F418" t="s">
-        <v>420</v>
+        <v>408</v>
       </c>
     </row>
     <row r="419" spans="1:6" x14ac:dyDescent="0.25">
@@ -10055,13 +10058,13 @@
         <v>383</v>
       </c>
       <c r="D419" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
       <c r="E419" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="F419" t="s">
-        <v>420</v>
+        <v>408</v>
       </c>
     </row>
     <row r="420" spans="1:6" x14ac:dyDescent="0.25">
@@ -10075,13 +10078,13 @@
         <v>383</v>
       </c>
       <c r="D420" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
       <c r="E420" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="F420" t="s">
-        <v>420</v>
+        <v>408</v>
       </c>
     </row>
     <row r="421" spans="1:6" x14ac:dyDescent="0.25">
@@ -10095,13 +10098,13 @@
         <v>383</v>
       </c>
       <c r="D421" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
       <c r="E421" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="F421" t="s">
-        <v>420</v>
+        <v>408</v>
       </c>
     </row>
     <row r="422" spans="1:6" x14ac:dyDescent="0.25">
@@ -10115,13 +10118,13 @@
         <v>383</v>
       </c>
       <c r="D422" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
       <c r="E422" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="F422" t="s">
-        <v>420</v>
+        <v>408</v>
       </c>
     </row>
     <row r="423" spans="1:6" x14ac:dyDescent="0.25">
@@ -10135,13 +10138,13 @@
         <v>383</v>
       </c>
       <c r="D423" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
       <c r="E423" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="F423" t="s">
-        <v>420</v>
+        <v>408</v>
       </c>
     </row>
     <row r="424" spans="1:6" x14ac:dyDescent="0.25">
@@ -10155,13 +10158,13 @@
         <v>383</v>
       </c>
       <c r="D424" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
       <c r="E424" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="F424" t="s">
-        <v>420</v>
+        <v>408</v>
       </c>
     </row>
     <row r="425" spans="1:6" x14ac:dyDescent="0.25">
@@ -10175,13 +10178,13 @@
         <v>383</v>
       </c>
       <c r="D425" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
       <c r="E425" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="F425" t="s">
-        <v>420</v>
+        <v>408</v>
       </c>
     </row>
     <row r="426" spans="1:6" x14ac:dyDescent="0.25">
@@ -10195,13 +10198,13 @@
         <v>383</v>
       </c>
       <c r="D426" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
       <c r="E426" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="F426" t="s">
-        <v>420</v>
+        <v>408</v>
       </c>
     </row>
     <row r="427" spans="1:6" x14ac:dyDescent="0.25">
@@ -10215,13 +10218,13 @@
         <v>383</v>
       </c>
       <c r="D427" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
       <c r="E427" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="F427" t="s">
-        <v>420</v>
+        <v>408</v>
       </c>
     </row>
     <row r="428" spans="1:6" x14ac:dyDescent="0.25">
@@ -10235,13 +10238,13 @@
         <v>383</v>
       </c>
       <c r="D428" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
       <c r="E428" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="F428" t="s">
-        <v>420</v>
+        <v>408</v>
       </c>
     </row>
     <row r="429" spans="1:6" x14ac:dyDescent="0.25">
@@ -10255,13 +10258,13 @@
         <v>383</v>
       </c>
       <c r="D429" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
       <c r="E429" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="F429" t="s">
-        <v>420</v>
+        <v>408</v>
       </c>
     </row>
     <row r="430" spans="1:6" x14ac:dyDescent="0.25">
@@ -10275,13 +10278,13 @@
         <v>383</v>
       </c>
       <c r="D430" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
       <c r="E430" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="F430" t="s">
-        <v>420</v>
+        <v>408</v>
       </c>
     </row>
     <row r="431" spans="1:6" x14ac:dyDescent="0.25">
@@ -10295,13 +10298,13 @@
         <v>383</v>
       </c>
       <c r="D431" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
       <c r="E431" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="F431" t="s">
-        <v>420</v>
+        <v>408</v>
       </c>
     </row>
     <row r="432" spans="1:6" x14ac:dyDescent="0.25">
@@ -10315,13 +10318,13 @@
         <v>383</v>
       </c>
       <c r="D432" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
       <c r="E432" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="F432" t="s">
-        <v>420</v>
+        <v>408</v>
       </c>
     </row>
     <row r="433" spans="1:6" x14ac:dyDescent="0.25">
@@ -10335,13 +10338,13 @@
         <v>383</v>
       </c>
       <c r="D433" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
       <c r="E433" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="F433" t="s">
-        <v>420</v>
+        <v>408</v>
       </c>
     </row>
     <row r="434" spans="1:6" x14ac:dyDescent="0.25">
@@ -10355,13 +10358,13 @@
         <v>383</v>
       </c>
       <c r="D434" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
       <c r="E434" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="F434" t="s">
-        <v>420</v>
+        <v>408</v>
       </c>
     </row>
     <row r="435" spans="1:6" x14ac:dyDescent="0.25">
@@ -10375,13 +10378,13 @@
         <v>383</v>
       </c>
       <c r="D435" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
       <c r="E435" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="F435" t="s">
-        <v>420</v>
+        <v>408</v>
       </c>
     </row>
     <row r="436" spans="1:6" x14ac:dyDescent="0.25">
@@ -10395,13 +10398,13 @@
         <v>383</v>
       </c>
       <c r="D436" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
       <c r="E436" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="F436" t="s">
-        <v>420</v>
+        <v>408</v>
       </c>
     </row>
     <row r="437" spans="1:6" x14ac:dyDescent="0.25">
@@ -10415,13 +10418,13 @@
         <v>383</v>
       </c>
       <c r="D437" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
       <c r="E437" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="F437" t="s">
-        <v>420</v>
+        <v>408</v>
       </c>
     </row>
     <row r="438" spans="1:6" x14ac:dyDescent="0.25">
@@ -10435,13 +10438,13 @@
         <v>383</v>
       </c>
       <c r="D438" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
       <c r="E438" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="F438" t="s">
-        <v>420</v>
+        <v>408</v>
       </c>
     </row>
     <row r="439" spans="1:6" x14ac:dyDescent="0.25">
@@ -10455,13 +10458,13 @@
         <v>383</v>
       </c>
       <c r="D439" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
       <c r="E439" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="F439" t="s">
-        <v>420</v>
+        <v>408</v>
       </c>
     </row>
     <row r="440" spans="1:6" x14ac:dyDescent="0.25">
@@ -10475,13 +10478,13 @@
         <v>383</v>
       </c>
       <c r="D440" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
       <c r="E440" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="F440" t="s">
-        <v>420</v>
+        <v>408</v>
       </c>
     </row>
     <row r="441" spans="1:6" x14ac:dyDescent="0.25">
@@ -10495,13 +10498,13 @@
         <v>383</v>
       </c>
       <c r="D441" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
       <c r="E441" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="F441" t="s">
-        <v>420</v>
+        <v>408</v>
       </c>
     </row>
     <row r="442" spans="1:6" x14ac:dyDescent="0.25">
@@ -10515,13 +10518,13 @@
         <v>383</v>
       </c>
       <c r="D442" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
       <c r="E442" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="F442" t="s">
-        <v>420</v>
+        <v>408</v>
       </c>
     </row>
     <row r="443" spans="1:6" x14ac:dyDescent="0.25">
@@ -10535,13 +10538,13 @@
         <v>383</v>
       </c>
       <c r="D443" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
       <c r="E443" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="F443" t="s">
-        <v>420</v>
+        <v>408</v>
       </c>
     </row>
     <row r="444" spans="1:6" x14ac:dyDescent="0.25">
@@ -10555,13 +10558,13 @@
         <v>383</v>
       </c>
       <c r="D444" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
       <c r="E444" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="F444" t="s">
-        <v>420</v>
+        <v>408</v>
       </c>
     </row>
     <row r="445" spans="1:6" x14ac:dyDescent="0.25">
@@ -10575,13 +10578,13 @@
         <v>383</v>
       </c>
       <c r="D445" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
       <c r="E445" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="F445" t="s">
-        <v>420</v>
+        <v>408</v>
       </c>
     </row>
     <row r="446" spans="1:6" x14ac:dyDescent="0.25">
@@ -10595,13 +10598,13 @@
         <v>383</v>
       </c>
       <c r="D446" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
       <c r="E446" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="F446" t="s">
-        <v>420</v>
+        <v>408</v>
       </c>
     </row>
     <row r="447" spans="1:6" x14ac:dyDescent="0.25">
@@ -10615,13 +10618,13 @@
         <v>383</v>
       </c>
       <c r="D447" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
       <c r="E447" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="F447" t="s">
-        <v>420</v>
+        <v>408</v>
       </c>
     </row>
     <row r="448" spans="1:6" x14ac:dyDescent="0.25">
@@ -10635,13 +10638,13 @@
         <v>383</v>
       </c>
       <c r="D448" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
       <c r="E448" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="F448" t="s">
-        <v>420</v>
+        <v>408</v>
       </c>
     </row>
     <row r="449" spans="1:6" x14ac:dyDescent="0.25">
@@ -10655,13 +10658,13 @@
         <v>383</v>
       </c>
       <c r="D449" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
       <c r="E449" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="F449" t="s">
-        <v>420</v>
+        <v>408</v>
       </c>
     </row>
     <row r="450" spans="1:6" x14ac:dyDescent="0.25">
@@ -10675,13 +10678,13 @@
         <v>383</v>
       </c>
       <c r="D450" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
       <c r="E450" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="F450" t="s">
-        <v>420</v>
+        <v>408</v>
       </c>
     </row>
     <row r="451" spans="1:6" x14ac:dyDescent="0.25">
@@ -10695,13 +10698,13 @@
         <v>383</v>
       </c>
       <c r="D451" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
       <c r="E451" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="F451" t="s">
-        <v>420</v>
+        <v>408</v>
       </c>
     </row>
     <row r="452" spans="1:6" x14ac:dyDescent="0.25">
@@ -10715,13 +10718,13 @@
         <v>383</v>
       </c>
       <c r="D452" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
       <c r="E452" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="F452" t="s">
-        <v>420</v>
+        <v>408</v>
       </c>
     </row>
     <row r="453" spans="1:6" x14ac:dyDescent="0.25">
@@ -10735,13 +10738,13 @@
         <v>383</v>
       </c>
       <c r="D453" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
       <c r="E453" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="F453" t="s">
-        <v>420</v>
+        <v>408</v>
       </c>
     </row>
     <row r="454" spans="1:6" x14ac:dyDescent="0.25">
@@ -10755,13 +10758,13 @@
         <v>383</v>
       </c>
       <c r="D454" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
       <c r="E454" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="F454" t="s">
-        <v>420</v>
+        <v>408</v>
       </c>
     </row>
     <row r="455" spans="1:6" x14ac:dyDescent="0.25">
@@ -10775,13 +10778,13 @@
         <v>383</v>
       </c>
       <c r="D455" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
       <c r="E455" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="F455" t="s">
-        <v>420</v>
+        <v>408</v>
       </c>
     </row>
     <row r="456" spans="1:6" x14ac:dyDescent="0.25">
@@ -10795,13 +10798,13 @@
         <v>383</v>
       </c>
       <c r="D456" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
       <c r="E456" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="F456" t="s">
-        <v>420</v>
+        <v>408</v>
       </c>
     </row>
     <row r="457" spans="1:6" x14ac:dyDescent="0.25">
@@ -10815,13 +10818,13 @@
         <v>383</v>
       </c>
       <c r="D457" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
       <c r="E457" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="F457" t="s">
-        <v>420</v>
+        <v>408</v>
       </c>
     </row>
     <row r="458" spans="1:6" x14ac:dyDescent="0.25">
@@ -10835,13 +10838,13 @@
         <v>383</v>
       </c>
       <c r="D458" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
       <c r="E458" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="F458" t="s">
-        <v>420</v>
+        <v>408</v>
       </c>
     </row>
     <row r="459" spans="1:6" x14ac:dyDescent="0.25">
@@ -10855,13 +10858,13 @@
         <v>383</v>
       </c>
       <c r="D459" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
       <c r="E459" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="F459" t="s">
-        <v>420</v>
+        <v>408</v>
       </c>
     </row>
     <row r="460" spans="1:6" x14ac:dyDescent="0.25">
@@ -10875,13 +10878,13 @@
         <v>383</v>
       </c>
       <c r="D460" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
       <c r="E460" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="F460" t="s">
-        <v>420</v>
+        <v>408</v>
       </c>
     </row>
     <row r="461" spans="1:6" x14ac:dyDescent="0.25">
@@ -10895,13 +10898,13 @@
         <v>383</v>
       </c>
       <c r="D461" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
       <c r="E461" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="F461" t="s">
-        <v>420</v>
+        <v>408</v>
       </c>
     </row>
     <row r="462" spans="1:6" x14ac:dyDescent="0.25">
@@ -10915,13 +10918,13 @@
         <v>383</v>
       </c>
       <c r="D462" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
       <c r="E462" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="F462" t="s">
-        <v>420</v>
+        <v>408</v>
       </c>
     </row>
     <row r="463" spans="1:6" x14ac:dyDescent="0.25">
@@ -10935,13 +10938,13 @@
         <v>383</v>
       </c>
       <c r="D463" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
       <c r="E463" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="F463" t="s">
-        <v>420</v>
+        <v>408</v>
       </c>
     </row>
     <row r="464" spans="1:6" x14ac:dyDescent="0.25">
@@ -10955,13 +10958,13 @@
         <v>383</v>
       </c>
       <c r="D464" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
       <c r="E464" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="F464" t="s">
-        <v>420</v>
+        <v>408</v>
       </c>
     </row>
     <row r="465" spans="1:6" x14ac:dyDescent="0.25">
@@ -10975,13 +10978,13 @@
         <v>383</v>
       </c>
       <c r="D465" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
       <c r="E465" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="F465" t="s">
-        <v>420</v>
+        <v>408</v>
       </c>
     </row>
     <row r="466" spans="1:6" x14ac:dyDescent="0.25">
@@ -10995,13 +10998,13 @@
         <v>384</v>
       </c>
       <c r="D466" t="s">
-        <v>425</v>
+        <v>413</v>
       </c>
       <c r="E466" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="F466" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
     </row>
     <row r="467" spans="1:6" x14ac:dyDescent="0.25">
@@ -11015,13 +11018,13 @@
         <v>384</v>
       </c>
       <c r="D467" t="s">
-        <v>425</v>
+        <v>413</v>
       </c>
       <c r="E467" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="F467" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
     </row>
     <row r="468" spans="1:6" x14ac:dyDescent="0.25">
@@ -11035,13 +11038,13 @@
         <v>384</v>
       </c>
       <c r="D468" t="s">
-        <v>425</v>
+        <v>413</v>
       </c>
       <c r="E468" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="F468" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
     </row>
     <row r="469" spans="1:6" x14ac:dyDescent="0.25">
@@ -11055,13 +11058,13 @@
         <v>383</v>
       </c>
       <c r="D469" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
       <c r="E469" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="F469" t="s">
-        <v>420</v>
+        <v>408</v>
       </c>
     </row>
     <row r="470" spans="1:6" x14ac:dyDescent="0.25">
@@ -11075,13 +11078,13 @@
         <v>383</v>
       </c>
       <c r="D470" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
       <c r="E470" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="F470" t="s">
-        <v>420</v>
+        <v>408</v>
       </c>
     </row>
     <row r="471" spans="1:6" x14ac:dyDescent="0.25">
@@ -11095,13 +11098,13 @@
         <v>383</v>
       </c>
       <c r="D471" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
       <c r="E471" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="F471" t="s">
-        <v>420</v>
+        <v>408</v>
       </c>
     </row>
     <row r="472" spans="1:6" x14ac:dyDescent="0.25">
@@ -11115,13 +11118,13 @@
         <v>383</v>
       </c>
       <c r="D472" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
       <c r="E472" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="F472" t="s">
-        <v>420</v>
+        <v>408</v>
       </c>
     </row>
     <row r="473" spans="1:6" x14ac:dyDescent="0.25">
@@ -11135,13 +11138,13 @@
         <v>383</v>
       </c>
       <c r="D473" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
       <c r="E473" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="F473" t="s">
-        <v>420</v>
+        <v>408</v>
       </c>
     </row>
     <row r="474" spans="1:6" x14ac:dyDescent="0.25">
@@ -11155,13 +11158,13 @@
         <v>383</v>
       </c>
       <c r="D474" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
       <c r="E474" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="F474" t="s">
-        <v>420</v>
+        <v>408</v>
       </c>
     </row>
     <row r="475" spans="1:6" x14ac:dyDescent="0.25">
@@ -11175,13 +11178,13 @@
         <v>383</v>
       </c>
       <c r="D475" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
       <c r="E475" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="F475" t="s">
-        <v>420</v>
+        <v>408</v>
       </c>
     </row>
     <row r="476" spans="1:6" x14ac:dyDescent="0.25">
@@ -11195,13 +11198,13 @@
         <v>383</v>
       </c>
       <c r="D476" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
       <c r="E476" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="F476" t="s">
-        <v>420</v>
+        <v>408</v>
       </c>
     </row>
     <row r="477" spans="1:6" x14ac:dyDescent="0.25">
@@ -11215,13 +11218,13 @@
         <v>383</v>
       </c>
       <c r="D477" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
       <c r="E477" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="F477" t="s">
-        <v>420</v>
+        <v>408</v>
       </c>
     </row>
     <row r="478" spans="1:6" x14ac:dyDescent="0.25">
@@ -11235,13 +11238,13 @@
         <v>383</v>
       </c>
       <c r="D478" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
       <c r="E478" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="F478" t="s">
-        <v>420</v>
+        <v>408</v>
       </c>
     </row>
     <row r="479" spans="1:6" x14ac:dyDescent="0.25">
@@ -11255,13 +11258,13 @@
         <v>383</v>
       </c>
       <c r="D479" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
       <c r="E479" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="F479" t="s">
-        <v>420</v>
+        <v>408</v>
       </c>
     </row>
     <row r="480" spans="1:6" x14ac:dyDescent="0.25">
@@ -11275,13 +11278,13 @@
         <v>383</v>
       </c>
       <c r="D480" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
       <c r="E480" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="F480" t="s">
-        <v>420</v>
+        <v>408</v>
       </c>
     </row>
     <row r="481" spans="1:6" x14ac:dyDescent="0.25">
@@ -11295,13 +11298,13 @@
         <v>383</v>
       </c>
       <c r="D481" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
       <c r="E481" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="F481" t="s">
-        <v>420</v>
+        <v>408</v>
       </c>
     </row>
     <row r="482" spans="1:6" x14ac:dyDescent="0.25">
@@ -11315,13 +11318,13 @@
         <v>383</v>
       </c>
       <c r="D482" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
       <c r="E482" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="F482" t="s">
-        <v>420</v>
+        <v>408</v>
       </c>
     </row>
     <row r="483" spans="1:6" x14ac:dyDescent="0.25">
@@ -11335,13 +11338,13 @@
         <v>384</v>
       </c>
       <c r="D483" t="s">
-        <v>425</v>
+        <v>413</v>
       </c>
       <c r="E483" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="F483" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
     </row>
     <row r="484" spans="1:6" x14ac:dyDescent="0.25">
@@ -11355,13 +11358,13 @@
         <v>384</v>
       </c>
       <c r="D484" t="s">
-        <v>425</v>
+        <v>413</v>
       </c>
       <c r="E484" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="F484" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
     </row>
     <row r="485" spans="1:6" x14ac:dyDescent="0.25">
@@ -11375,13 +11378,13 @@
         <v>383</v>
       </c>
       <c r="D485" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
       <c r="E485" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="F485" t="s">
-        <v>420</v>
+        <v>408</v>
       </c>
     </row>
     <row r="486" spans="1:6" x14ac:dyDescent="0.25">
@@ -11395,13 +11398,13 @@
         <v>384</v>
       </c>
       <c r="D486" t="s">
-        <v>425</v>
+        <v>413</v>
       </c>
       <c r="E486" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="F486" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
     </row>
     <row r="487" spans="1:6" x14ac:dyDescent="0.25">
@@ -11415,13 +11418,13 @@
         <v>384</v>
       </c>
       <c r="D487" t="s">
-        <v>425</v>
+        <v>413</v>
       </c>
       <c r="E487" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="F487" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
     </row>
     <row r="488" spans="1:6" x14ac:dyDescent="0.25">
@@ -11435,13 +11438,13 @@
         <v>383</v>
       </c>
       <c r="D488" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
       <c r="E488" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="F488" t="s">
-        <v>420</v>
+        <v>408</v>
       </c>
     </row>
     <row r="489" spans="1:6" x14ac:dyDescent="0.25">
@@ -11455,13 +11458,13 @@
         <v>384</v>
       </c>
       <c r="D489" t="s">
-        <v>425</v>
+        <v>413</v>
       </c>
       <c r="E489" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="F489" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
     </row>
     <row r="490" spans="1:6" x14ac:dyDescent="0.25">
@@ -11475,13 +11478,13 @@
         <v>384</v>
       </c>
       <c r="D490" t="s">
-        <v>425</v>
+        <v>413</v>
       </c>
       <c r="E490" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="F490" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
     </row>
     <row r="491" spans="1:6" x14ac:dyDescent="0.25">
@@ -11495,13 +11498,13 @@
         <v>383</v>
       </c>
       <c r="D491" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
       <c r="E491" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="F491" t="s">
-        <v>420</v>
+        <v>408</v>
       </c>
     </row>
     <row r="492" spans="1:6" x14ac:dyDescent="0.25">
@@ -11515,13 +11518,13 @@
         <v>384</v>
       </c>
       <c r="D492" t="s">
-        <v>425</v>
+        <v>413</v>
       </c>
       <c r="E492" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="F492" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
     </row>
     <row r="493" spans="1:6" x14ac:dyDescent="0.25">
@@ -11535,13 +11538,13 @@
         <v>384</v>
       </c>
       <c r="D493" t="s">
-        <v>425</v>
+        <v>413</v>
       </c>
       <c r="E493" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="F493" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
     </row>
     <row r="494" spans="1:6" x14ac:dyDescent="0.25">
@@ -11555,13 +11558,13 @@
         <v>383</v>
       </c>
       <c r="D494" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
       <c r="E494" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="F494" t="s">
-        <v>420</v>
+        <v>408</v>
       </c>
     </row>
     <row r="495" spans="1:6" x14ac:dyDescent="0.25">
@@ -11575,13 +11578,13 @@
         <v>384</v>
       </c>
       <c r="D495" t="s">
-        <v>425</v>
+        <v>413</v>
       </c>
       <c r="E495" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="F495" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
     </row>
     <row r="496" spans="1:6" x14ac:dyDescent="0.25">
@@ -11595,13 +11598,13 @@
         <v>384</v>
       </c>
       <c r="D496" t="s">
-        <v>425</v>
+        <v>413</v>
       </c>
       <c r="E496" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="F496" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
     </row>
     <row r="497" spans="1:6" x14ac:dyDescent="0.25">
@@ -11615,13 +11618,13 @@
         <v>383</v>
       </c>
       <c r="D497" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
       <c r="E497" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="F497" t="s">
-        <v>420</v>
+        <v>408</v>
       </c>
     </row>
     <row r="498" spans="1:6" x14ac:dyDescent="0.25">
@@ -11635,13 +11638,13 @@
         <v>383</v>
       </c>
       <c r="D498" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
       <c r="E498" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="F498" t="s">
-        <v>420</v>
+        <v>408</v>
       </c>
     </row>
     <row r="499" spans="1:6" x14ac:dyDescent="0.25">
@@ -11655,13 +11658,13 @@
         <v>383</v>
       </c>
       <c r="D499" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
       <c r="E499" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="F499" t="s">
-        <v>420</v>
+        <v>408</v>
       </c>
     </row>
     <row r="500" spans="1:6" x14ac:dyDescent="0.25">
@@ -11675,13 +11678,13 @@
         <v>383</v>
       </c>
       <c r="D500" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
       <c r="E500" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="F500" t="s">
-        <v>420</v>
+        <v>408</v>
       </c>
     </row>
     <row r="501" spans="1:6" x14ac:dyDescent="0.25">
@@ -11695,13 +11698,13 @@
         <v>383</v>
       </c>
       <c r="D501" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
       <c r="E501" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="F501" t="s">
-        <v>420</v>
+        <v>408</v>
       </c>
     </row>
     <row r="502" spans="1:6" x14ac:dyDescent="0.25">
@@ -11715,13 +11718,13 @@
         <v>383</v>
       </c>
       <c r="D502" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
       <c r="E502" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="F502" t="s">
-        <v>420</v>
+        <v>408</v>
       </c>
     </row>
     <row r="503" spans="1:6" x14ac:dyDescent="0.25">
@@ -11735,13 +11738,13 @@
         <v>383</v>
       </c>
       <c r="D503" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
       <c r="E503" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="F503" t="s">
-        <v>420</v>
+        <v>408</v>
       </c>
     </row>
     <row r="504" spans="1:6" x14ac:dyDescent="0.25">
@@ -11755,13 +11758,13 @@
         <v>383</v>
       </c>
       <c r="D504" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
       <c r="E504" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="F504" t="s">
-        <v>420</v>
+        <v>408</v>
       </c>
     </row>
     <row r="505" spans="1:6" x14ac:dyDescent="0.25">
@@ -11775,13 +11778,13 @@
         <v>383</v>
       </c>
       <c r="D505" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
       <c r="E505" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="F505" t="s">
-        <v>420</v>
+        <v>408</v>
       </c>
     </row>
     <row r="506" spans="1:6" x14ac:dyDescent="0.25">
@@ -11795,13 +11798,13 @@
         <v>383</v>
       </c>
       <c r="D506" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
       <c r="E506" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="F506" t="s">
-        <v>420</v>
+        <v>408</v>
       </c>
     </row>
     <row r="507" spans="1:6" x14ac:dyDescent="0.25">
@@ -11815,13 +11818,13 @@
         <v>383</v>
       </c>
       <c r="D507" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
       <c r="E507" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="F507" t="s">
-        <v>420</v>
+        <v>408</v>
       </c>
     </row>
     <row r="508" spans="1:6" x14ac:dyDescent="0.25">
@@ -11835,13 +11838,13 @@
         <v>384</v>
       </c>
       <c r="D508" t="s">
-        <v>425</v>
+        <v>413</v>
       </c>
       <c r="E508" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="F508" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
     </row>
   </sheetData>
@@ -11855,14 +11858,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="202.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21" customWidth="1"/>
+    <col min="2" max="2" width="203.42578125" customWidth="1"/>
+    <col min="3" max="9" width="5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -11894,7 +11898,7 @@
         <v>364</v>
       </c>
       <c r="J1" t="s">
-        <v>418</v>
+        <v>407</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
@@ -11902,7 +11906,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>407</v>
+        <v>419</v>
       </c>
       <c r="C2" t="s">
         <v>357</v>
@@ -11930,8 +11934,8 @@
       <c r="A3" t="s">
         <v>211</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>407</v>
+      <c r="B3" t="s">
+        <v>420</v>
       </c>
       <c r="C3" t="s">
         <v>357</v>
@@ -11959,8 +11963,8 @@
       <c r="A4" t="s">
         <v>223</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>408</v>
+      <c r="B4" t="s">
+        <v>421</v>
       </c>
       <c r="C4" t="s">
         <v>357</v>
@@ -11984,7 +11988,7 @@
         <v>357</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>419</v>
+        <v>422</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -11992,7 +11996,7 @@
         <v>225</v>
       </c>
       <c r="B5" t="s">
-        <v>409</v>
+        <v>423</v>
       </c>
       <c r="C5" t="s">
         <v>357</v>
@@ -12002,8 +12006,8 @@
       <c r="A6" t="s">
         <v>351</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>410</v>
+      <c r="B6" t="s">
+        <v>424</v>
       </c>
       <c r="C6" t="s">
         <v>357</v>
@@ -12032,7 +12036,7 @@
         <v>365</v>
       </c>
       <c r="B7" t="s">
-        <v>411</v>
+        <v>425</v>
       </c>
       <c r="C7" t="s">
         <v>357</v>
@@ -12061,7 +12065,7 @@
         <v>366</v>
       </c>
       <c r="B8" t="s">
-        <v>412</v>
+        <v>426</v>
       </c>
       <c r="C8" t="s">
         <v>357</v>
@@ -12090,7 +12094,7 @@
         <v>389</v>
       </c>
       <c r="B9" t="s">
-        <v>413</v>
+        <v>427</v>
       </c>
       <c r="C9" t="s">
         <v>357</v>
@@ -12119,7 +12123,7 @@
         <v>393</v>
       </c>
       <c r="B10" t="s">
-        <v>414</v>
+        <v>428</v>
       </c>
       <c r="C10" t="s">
         <v>357</v>
@@ -12148,7 +12152,7 @@
         <v>400</v>
       </c>
       <c r="B11" t="s">
-        <v>415</v>
+        <v>429</v>
       </c>
       <c r="C11" t="s">
         <v>357</v>
@@ -12177,7 +12181,7 @@
         <v>405</v>
       </c>
       <c r="B12" t="s">
-        <v>416</v>
+        <v>430</v>
       </c>
       <c r="C12" t="s">
         <v>357</v>
@@ -12206,7 +12210,7 @@
         <v>406</v>
       </c>
       <c r="B13" t="s">
-        <v>417</v>
+        <v>431</v>
       </c>
       <c r="C13" t="s">
         <v>357</v>
@@ -12232,18 +12236,10 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B7" r:id="rId1" display="\\Ncr-a_irbv2s\irbv2\PHAC\IDPCB\CIRID\VIPS-SAR\EMERGENCY PREPAREDNESS AND RESPONSE HC4\EMERGENCY EVENT\WUHAN UNKNOWN PNEU - 2020\DATA AND ANALYSIS\DATABASE\MS ACCESS\OUTPUT/db_errs"/>
-    <hyperlink ref="B8" r:id="rId2" display="\\Ncr-a_irbv2s\irbv2\PHAC\IDPCB\CIRID\VIPS-SAR\EMERGENCY PREPAREDNESS AND RESPONSE HC4\EMERGENCY EVENT\WUHAN UNKNOWN PNEU - 2020\DATA AND ANALYSIS\DATABASE\MS ACCESS\OUTPUT/epi_curves"/>
-    <hyperlink ref="B9" r:id="rId3" display="\\Ncr-a_irbv2s\irbv2\PHAC\IDPCB\CIRID\VIPS-SAR\EMERGENCY PREPAREDNESS AND RESPONSE HC4\EMERGENCY EVENT\WUHAN UNKNOWN PNEU - 2020\DATA AND ANALYSIS\DATABASE\MS ACCESS\OUTPUT/by_age_prov"/>
-    <hyperlink ref="B2" r:id="rId4" display="\\Ncr-a_irbv2s\irbv2\PHAC\IDPCB\CIRID\VIPS-SAR\EMERGENCY PREPAREDNESS AND RESPONSE HC4\EMERGENCY EVENT\WUHAN UNKNOWN PNEU - 2020\DATA AND ANALYSIS\DATABASE\MS ACCESS\OUTPUT/qry"/>
-    <hyperlink ref="B10" r:id="rId5" display="\\Ncr-a_irbv2s\irbv2\PHAC\IDPCB\CIRID\VIPS-SAR\EMERGENCY PREPAREDNESS AND RESPONSE HC4\EMERGENCY EVENT\WUHAN UNKNOWN PNEU - 2020\DATA AND ANALYSIS\DATABASE\MS ACCESS\OUTPUT/by_age_prov"/>
-    <hyperlink ref="B11" r:id="rId6" display="\\Ncr-a_irbv2s\irbv2\PHAC\IDPCB\CIRID\VIPS-SAR\EMERGENCY PREPAREDNESS AND RESPONSE HC4\EMERGENCY EVENT\WUHAN UNKNOWN PNEU - 2020\DATA AND ANALYSIS\DATABASE\MS ACCESS\OUTPUT/epi_curves"/>
-    <hyperlink ref="B13" r:id="rId7" display="\\Ncr-a_irbv2s\irbv2\PHAC\IDPCB\CIRID\VIPS-SAR\EMERGENCY PREPAREDNESS AND RESPONSE HC4\EMERGENCY EVENT\WUHAN UNKNOWN PNEU - 2020\DATA AND ANALYSIS\DATABASE\MS ACCESS\OUTPUT/by_age_prov"/>
-    <hyperlink ref="B12" r:id="rId8" display="\\Ncr-a_irbv2s\irbv2\PHAC\IDPCB\CIRID\VIPS-SAR\EMERGENCY PREPAREDNESS AND RESPONSE HC4\EMERGENCY EVENT\WUHAN UNKNOWN PNEU - 2020\DATA AND ANALYSIS\DATABASE\MS ACCESS\OUTPUT/by_age_prov"/>
-    <hyperlink ref="B3" r:id="rId9" display="\\Ncr-a_irbv2s\irbv2\PHAC\IDPCB\CIRID\VIPS-SAR\EMERGENCY PREPAREDNESS AND RESPONSE HC4\EMERGENCY EVENT\WUHAN UNKNOWN PNEU - 2020\DATA AND ANALYSIS\PHAC MODELLING\Domestic data"/>
+    <hyperlink ref="B2" r:id="rId1" display="\\Ncr-a_irbv2s\irbv2\PHAC\IDPCB\CIRID\VIPS-SAR\EMERGENCY PREPAREDNESS AND RESPONSE HC4\EMERGENCY EVENT\WUHAN UNKNOWN PNEU - 2020\DATA AND ANALYSIS\DATABASE\MS ACCESS\OUTPUT/qry"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId10"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/end_of_day_reports_input.xlsx
+++ b/end_of_day_reports_input.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11970" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11970"/>
   </bookViews>
   <sheets>
     <sheet name="input" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="who_dummies" sheetId="2" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">input!$A$1:$F$534</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">input!$A$1:$F$536</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3389" uniqueCount="440">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3401" uniqueCount="442">
   <si>
     <t>report</t>
   </si>
@@ -1350,6 +1350,12 @@
   </si>
   <si>
     <t>exposure_cat</t>
+  </si>
+  <si>
+    <t>EpisodeDate_imputed</t>
+  </si>
+  <si>
+    <t>OnsetDate_imputed</t>
   </si>
 </sst>
 </file>
@@ -1695,10 +1701,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F534"/>
+  <dimension ref="A1:F536"/>
   <sheetViews>
-    <sheetView topLeftCell="A501" workbookViewId="0">
-      <selection activeCell="A508" sqref="A508"/>
+    <sheetView tabSelected="1" topLeftCell="A501" workbookViewId="0">
+      <selection activeCell="B507" sqref="B507"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11792,7 +11798,7 @@
         <v>4</v>
       </c>
       <c r="C506" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="E506" t="s">
         <v>410</v>
@@ -11818,7 +11824,7 @@
         <v>410</v>
       </c>
       <c r="F507" t="s">
-        <v>407</v>
+        <v>401</v>
       </c>
     </row>
     <row r="508" spans="1:6" x14ac:dyDescent="0.25">
@@ -11826,13 +11832,13 @@
         <v>428</v>
       </c>
       <c r="B508" t="s">
-        <v>12</v>
+        <v>440</v>
       </c>
       <c r="C508" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="D508" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="E508" t="s">
         <v>410</v>
@@ -11846,7 +11852,7 @@
         <v>428</v>
       </c>
       <c r="B509" t="s">
-        <v>429</v>
+        <v>12</v>
       </c>
       <c r="C509" t="s">
         <v>380</v>
@@ -11866,7 +11872,7 @@
         <v>428</v>
       </c>
       <c r="B510" t="s">
-        <v>383</v>
+        <v>429</v>
       </c>
       <c r="C510" t="s">
         <v>380</v>
@@ -11886,7 +11892,7 @@
         <v>428</v>
       </c>
       <c r="B511" t="s">
-        <v>18</v>
+        <v>383</v>
       </c>
       <c r="C511" t="s">
         <v>380</v>
@@ -11906,7 +11912,7 @@
         <v>428</v>
       </c>
       <c r="B512" t="s">
-        <v>212</v>
+        <v>18</v>
       </c>
       <c r="C512" t="s">
         <v>380</v>
@@ -11926,7 +11932,7 @@
         <v>428</v>
       </c>
       <c r="B513" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C513" t="s">
         <v>380</v>
@@ -11946,7 +11952,7 @@
         <v>428</v>
       </c>
       <c r="B514" t="s">
-        <v>25</v>
+        <v>213</v>
       </c>
       <c r="C514" t="s">
         <v>380</v>
@@ -11966,7 +11972,7 @@
         <v>428</v>
       </c>
       <c r="B515" t="s">
-        <v>198</v>
+        <v>25</v>
       </c>
       <c r="C515" t="s">
         <v>380</v>
@@ -11986,19 +11992,19 @@
         <v>428</v>
       </c>
       <c r="B516" t="s">
-        <v>215</v>
+        <v>198</v>
       </c>
       <c r="C516" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D516" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="E516" t="s">
         <v>410</v>
       </c>
       <c r="F516" t="s">
-        <v>407</v>
+        <v>401</v>
       </c>
     </row>
     <row r="517" spans="1:6" x14ac:dyDescent="0.25">
@@ -12006,13 +12012,13 @@
         <v>428</v>
       </c>
       <c r="B517" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C517" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="D517" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="E517" t="s">
         <v>410</v>
@@ -12026,13 +12032,13 @@
         <v>428</v>
       </c>
       <c r="B518" t="s">
-        <v>31</v>
+        <v>441</v>
       </c>
       <c r="C518" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="D518" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="E518" t="s">
         <v>410</v>
@@ -12046,7 +12052,7 @@
         <v>428</v>
       </c>
       <c r="B519" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C519" t="s">
         <v>380</v>
@@ -12066,7 +12072,7 @@
         <v>428</v>
       </c>
       <c r="B520" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C520" t="s">
         <v>380</v>
@@ -12086,7 +12092,7 @@
         <v>428</v>
       </c>
       <c r="B521" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C521" t="s">
         <v>380</v>
@@ -12106,7 +12112,7 @@
         <v>428</v>
       </c>
       <c r="B522" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C522" t="s">
         <v>380</v>
@@ -12126,7 +12132,7 @@
         <v>428</v>
       </c>
       <c r="B523" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C523" t="s">
         <v>380</v>
@@ -12146,7 +12152,7 @@
         <v>428</v>
       </c>
       <c r="B524" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C524" t="s">
         <v>380</v>
@@ -12166,7 +12172,7 @@
         <v>428</v>
       </c>
       <c r="B525" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C525" t="s">
         <v>380</v>
@@ -12186,7 +12192,7 @@
         <v>428</v>
       </c>
       <c r="B526" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C526" t="s">
         <v>380</v>
@@ -12206,7 +12212,7 @@
         <v>428</v>
       </c>
       <c r="B527" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C527" t="s">
         <v>380</v>
@@ -12226,7 +12232,7 @@
         <v>428</v>
       </c>
       <c r="B528" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C528" t="s">
         <v>380</v>
@@ -12246,7 +12252,7 @@
         <v>428</v>
       </c>
       <c r="B529" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C529" t="s">
         <v>380</v>
@@ -12266,13 +12272,13 @@
         <v>428</v>
       </c>
       <c r="B530" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C530" t="s">
         <v>380</v>
       </c>
       <c r="D530" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="E530" t="s">
         <v>410</v>
@@ -12286,10 +12292,13 @@
         <v>428</v>
       </c>
       <c r="B531" t="s">
-        <v>216</v>
+        <v>42</v>
       </c>
       <c r="C531" t="s">
         <v>380</v>
+      </c>
+      <c r="D531" t="s">
+        <v>407</v>
       </c>
       <c r="E531" t="s">
         <v>410</v>
@@ -12303,13 +12312,13 @@
         <v>428</v>
       </c>
       <c r="B532" t="s">
-        <v>217</v>
+        <v>43</v>
       </c>
       <c r="C532" t="s">
         <v>380</v>
       </c>
       <c r="D532" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="E532" t="s">
         <v>410</v>
@@ -12323,19 +12332,16 @@
         <v>428</v>
       </c>
       <c r="B533" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C533" t="s">
-        <v>381</v>
-      </c>
-      <c r="D533" t="s">
-        <v>406</v>
+        <v>380</v>
       </c>
       <c r="E533" t="s">
         <v>410</v>
       </c>
       <c r="F533" t="s">
-        <v>407</v>
+        <v>401</v>
       </c>
     </row>
     <row r="534" spans="1:6" x14ac:dyDescent="0.25">
@@ -12343,23 +12349,63 @@
         <v>428</v>
       </c>
       <c r="B534" t="s">
+        <v>217</v>
+      </c>
+      <c r="C534" t="s">
+        <v>380</v>
+      </c>
+      <c r="D534" t="s">
+        <v>407</v>
+      </c>
+      <c r="E534" t="s">
+        <v>410</v>
+      </c>
+      <c r="F534" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="535" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A535" t="s">
+        <v>428</v>
+      </c>
+      <c r="B535" t="s">
+        <v>218</v>
+      </c>
+      <c r="C535" t="s">
+        <v>381</v>
+      </c>
+      <c r="D535" t="s">
+        <v>406</v>
+      </c>
+      <c r="E535" t="s">
+        <v>410</v>
+      </c>
+      <c r="F535" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="536" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A536" t="s">
+        <v>428</v>
+      </c>
+      <c r="B536" t="s">
         <v>219</v>
       </c>
-      <c r="C534" t="s">
-        <v>380</v>
-      </c>
-      <c r="D534" t="s">
-        <v>407</v>
-      </c>
-      <c r="E534" t="s">
-        <v>410</v>
-      </c>
-      <c r="F534" t="s">
+      <c r="C536" t="s">
+        <v>380</v>
+      </c>
+      <c r="D536" t="s">
+        <v>407</v>
+      </c>
+      <c r="E536" t="s">
+        <v>410</v>
+      </c>
+      <c r="F536" t="s">
         <v>401</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F534"/>
+  <autoFilter ref="A1:F536"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -12865,8 +12911,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H7" sqref="H7:H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/end_of_day_reports_input.xlsx
+++ b/end_of_day_reports_input.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SCONNORS\Desktop\covid_cases_data_extracts-master\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hswerdfe\Documents\Projects\covid_cases_data_extracts\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3372" uniqueCount="440">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3405" uniqueCount="444">
   <si>
     <t>report</t>
   </si>
@@ -1359,6 +1359,18 @@
   </si>
   <si>
     <t>L:/HPOC/Active Events/001-20 COVID-19/Operations/Surveillance - Epi. Diagnostics/Canada_COVID19_WHO_linelist</t>
+  </si>
+  <si>
+    <t>static_file</t>
+  </si>
+  <si>
+    <t>static_file_web</t>
+  </si>
+  <si>
+    <t>//Ncr-a_irbv2s/irbv2/PHAC/IDPCB/CIRID/VIPS-SAR/EMERGENCY PREPAREDNESS AND RESPONSE HC4/EMERGENCY EVENT/WUHAN UNKNOWN PNEU - 2020/DATA AND ANALYSIS/DASHBOARD</t>
+  </si>
+  <si>
+    <t>//Ncr-a_irbv2s/irbv2/PHAC/IDPCB/CIRID/VIPS-SAR/EMERGENCY PREPAREDNESS AND RESPONSE HC4/EMERGENCY EVENT/WUHAN UNKNOWN PNEU - 2020/DATA AND ANALYSIS/DATABASE</t>
   </si>
 </sst>
 </file>
@@ -12345,8 +12357,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12506,6 +12518,24 @@
       <c r="D5" t="s">
         <v>381</v>
       </c>
+      <c r="E5" t="s">
+        <v>381</v>
+      </c>
+      <c r="F5" t="s">
+        <v>381</v>
+      </c>
+      <c r="G5" t="s">
+        <v>381</v>
+      </c>
+      <c r="H5" t="s">
+        <v>381</v>
+      </c>
+      <c r="I5" t="s">
+        <v>381</v>
+      </c>
+      <c r="J5" t="s">
+        <v>381</v>
+      </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -12517,7 +12547,25 @@
       <c r="C6" t="s">
         <v>387</v>
       </c>
+      <c r="D6" t="s">
+        <v>381</v>
+      </c>
+      <c r="E6" t="s">
+        <v>381</v>
+      </c>
+      <c r="F6" t="s">
+        <v>381</v>
+      </c>
+      <c r="G6" t="s">
+        <v>381</v>
+      </c>
       <c r="H6" t="s">
+        <v>381</v>
+      </c>
+      <c r="I6" t="s">
+        <v>381</v>
+      </c>
+      <c r="J6" t="s">
         <v>381</v>
       </c>
       <c r="K6" t="s">
@@ -12812,7 +12860,71 @@
         <v>381</v>
       </c>
     </row>
-    <row r="18" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>440</v>
+      </c>
+      <c r="B16" t="s">
+        <v>379</v>
+      </c>
+      <c r="C16" t="s">
+        <v>442</v>
+      </c>
+      <c r="D16" t="s">
+        <v>381</v>
+      </c>
+      <c r="E16" t="s">
+        <v>381</v>
+      </c>
+      <c r="F16" t="s">
+        <v>381</v>
+      </c>
+      <c r="G16" t="s">
+        <v>381</v>
+      </c>
+      <c r="H16" t="s">
+        <v>381</v>
+      </c>
+      <c r="I16" t="s">
+        <v>381</v>
+      </c>
+      <c r="J16" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>441</v>
+      </c>
+      <c r="B17" t="s">
+        <v>379</v>
+      </c>
+      <c r="C17" t="s">
+        <v>443</v>
+      </c>
+      <c r="D17" t="s">
+        <v>381</v>
+      </c>
+      <c r="E17" t="s">
+        <v>381</v>
+      </c>
+      <c r="F17" t="s">
+        <v>381</v>
+      </c>
+      <c r="G17" t="s">
+        <v>381</v>
+      </c>
+      <c r="H17" t="s">
+        <v>381</v>
+      </c>
+      <c r="I17" t="s">
+        <v>381</v>
+      </c>
+      <c r="J17" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C18" s="1"/>
     </row>
   </sheetData>
